--- a/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.556</v>
+        <v>0.555</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.129</v>
+        <v>16.235</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-3227530768.925</v>
+        <v>-0.611</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1598204.892</v>
+        <v>35.701</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.978</v>
+        <v>0.894</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.915</v>
+        <v>8.621</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-1959327.28356485</v>
+        <v>18.88036961753805</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>-1670119.155785556</v>
+        <v>18.90130176808473</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>-1102798.903163346</v>
+        <v>18.91393400655321</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-2932082.716663217</v>
+        <v>18.84731200672332</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-1277116.675234008</v>
+        <v>18.90268913609938</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-908291.785335702</v>
+        <v>18.91424828633513</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-2822678.883302505</v>
+        <v>18.86556046792608</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>-153295.3222460284</v>
+        <v>18.94984028299514</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>178531.0972738288</v>
+        <v>18.9604864384088</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>-68680.19523137523</v>
+        <v>18.9487264415191</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>261305.630112211</v>
+        <v>18.96668686181478</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>652480.4739598512</v>
+        <v>18.97418148929241</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>-1550763.512150732</v>
+        <v>18.86708921720916</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>-826357.4941886426</v>
+        <v>18.91565329923128</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>-413704.0062322278</v>
+        <v>18.94984241262928</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-1021015.862656726</v>
+        <v>18.89534464567473</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>16005.45553669273</v>
+        <v>18.95193517189725</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1043207.875041774</v>
+        <v>18.98249205933886</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-1585253.493637586</v>
+        <v>18.84864327855647</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>-617848.4033121431</v>
+        <v>18.91238057997789</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>524370.048131176</v>
+        <v>18.95815406352227</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-1605144.615773874</v>
+        <v>18.85900265513741</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>184156.9517305044</v>
+        <v>18.97848636897982</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>2121199.066639995</v>
+        <v>19.0265356823668</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>383329.1663537929</v>
+        <v>18.99791724725224</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1285866.28698975</v>
+        <v>19.04657805700266</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2224108.229639491</v>
+        <v>19.09440684490823</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>-828782.8575205022</v>
+        <v>18.87463834999577</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>941429.7570259469</v>
+        <v>19.02411330083583</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1719234.994080249</v>
+        <v>19.06308246622031</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>-599934.9460269051</v>
+        <v>18.90375177719939</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>561983.8721413634</v>
+        <v>18.9813873367405</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1091916.038130369</v>
+        <v>19.02082789071272</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>-1246212.085186682</v>
+        <v>18.84901757295815</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>113496.1730971144</v>
+        <v>18.95207819386204</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>703735.089745459</v>
+        <v>18.99237814850711</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>-1205341.734267747</v>
+        <v>18.87322265240302</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1156743.387442486</v>
+        <v>19.0351065263179</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>2026360.461259736</v>
+        <v>19.09698060105108</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1376936.61915361</v>
+        <v>19.12278790385969</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1982171.191557107</v>
+        <v>19.17651776684045</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>2254102.281432031</v>
+        <v>19.22869116277283</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>-354753.7020423749</v>
+        <v>18.90436601696885</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>1474965.931391492</v>
+        <v>19.11211629452059</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>1679374.375719544</v>
+        <v>19.1744493959188</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>-1872885.845500643</v>
+        <v>18.88462397317582</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>642990.7430536312</v>
+        <v>18.96224693278156</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>1407472.757859346</v>
+        <v>18.98287332261927</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>-1868111.20127825</v>
+        <v>18.8670214901552</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1528503.174226923</v>
+        <v>18.98254239148265</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>1606897.283383036</v>
+        <v>18.99965759616893</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>-1630860.040655316</v>
+        <v>18.89364141200474</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>3888737.092202156</v>
+        <v>19.05030876126653</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>3919918.833913302</v>
+        <v>19.06706199401203</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>2299151.861523489</v>
+        <v>19.06374218845903</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>3204819.650485148</v>
+        <v>19.1047581163216</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>2458689.376253448</v>
+        <v>19.10488600965078</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>-1142635.778515595</v>
+        <v>18.88594924838739</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>1386724.437204084</v>
+        <v>19.01851794182745</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>1726393.494209019</v>
+        <v>19.05533320705978</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>-881721.3104238475</v>
+        <v>18.869114879607</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>557431.0421440402</v>
+        <v>18.98549967752468</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>908964.3476241728</v>
+        <v>19.0160767705613</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>-1188621.295999597</v>
+        <v>18.83283726568923</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>-1799.225284407931</v>
+        <v>18.95713695133458</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>600955.1479310838</v>
+        <v>19.00425640382067</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>-1193812.051715172</v>
+        <v>18.85431948026982</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>1058632.051434649</v>
+        <v>19.05131589375211</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>1904445.077000886</v>
+        <v>19.09829892989895</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>961361.1718758863</v>
+        <v>19.07536010575334</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>1475194.357932052</v>
+        <v>19.15037672595713</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>1742602.281591699</v>
+        <v>19.18543581491272</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>-635900.8044457844</v>
+        <v>18.8663489369318</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>1184928.544596607</v>
+        <v>19.10154592135504</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>1295549.390256992</v>
+        <v>19.13961322502711</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>-703217.379525639</v>
+        <v>18.86835924336909</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>526006.9133129033</v>
+        <v>19.01447698117512</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>1079836.409874003</v>
+        <v>19.0565579056841</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>-964998.5051741467</v>
+        <v>18.8193288257831</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>394271.1125424247</v>
+        <v>18.99503193758898</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>806388.0101850587</v>
+        <v>19.03545469567737</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>-865042.392409949</v>
+        <v>18.85960204548123</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>1535163.382558499</v>
+        <v>19.11116410839332</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>2425051.153471985</v>
+        <v>19.17576481352337</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>1307491.48653513</v>
+        <v>19.19981564749457</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>1853708.231380162</v>
+        <v>19.2870151996339</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>2033368.569196368</v>
+        <v>19.32858208867195</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>-513288.3019475547</v>
+        <v>18.8702818192176</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>1348965.505879871</v>
+        <v>19.19982135708871</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>1495378.142112103</v>
+        <v>19.25995228645281</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>-1226382.928326362</v>
+        <v>18.89433340622054</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>758534.8394081765</v>
+        <v>18.95751262010826</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>1068208.642207565</v>
+        <v>18.96665542666744</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>-1919776.841975755</v>
+        <v>18.8661029377757</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>1041649.433822436</v>
+        <v>18.96993027005206</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>847019.2150452776</v>
+        <v>18.97513700801094</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>-1685167.690349721</v>
+        <v>18.89645966650714</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>3491340.16838649</v>
+        <v>19.03900446925718</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>2994287.120294799</v>
+        <v>19.04366181219225</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>1652588.271674128</v>
+        <v>19.05617734263915</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>2248042.27809343</v>
+        <v>19.08818087184416</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>2041071.733742704</v>
+        <v>19.08097195005456</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>-824919.4298294178</v>
+        <v>18.89168757834726</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>855073.1657704981</v>
+        <v>19.00162595213785</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>1016003.084408042</v>
+        <v>19.02554462415386</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>-319195.5562134496</v>
+        <v>18.91555373352424</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>1111506.296787625</v>
+        <v>19.02040254557349</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>1182089.920557333</v>
+        <v>19.03421882201806</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>-982461.4325284362</v>
+        <v>18.87010186129998</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>457408.0301142545</v>
+        <v>18.98887038148318</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>702873.2060757497</v>
+        <v>19.01771434482592</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>-1006475.867310533</v>
+        <v>18.89900639864273</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>1695920.030136359</v>
+        <v>19.0857087621912</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>2107626.908582143</v>
+        <v>19.11466620058148</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>1202661.86892051</v>
+        <v>19.12355464353743</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>1597041.063122703</v>
+        <v>19.18320633512003</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>1747547.077944536</v>
+        <v>19.20375387946671</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>-238774.699698641</v>
+        <v>18.92444307044128</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>1343884.882742143</v>
+        <v>19.13497049229065</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>1284644.567628337</v>
+        <v>19.15814864031224</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>-272973.5698550686</v>
+        <v>18.90500479571964</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>910444.535826075</v>
+        <v>19.04042870057865</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>1196898.532821014</v>
+        <v>19.06386821287968</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>-862457.0931043978</v>
+        <v>18.84316612841341</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>656555.0874154872</v>
+        <v>19.01496744135184</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>777356.4225153873</v>
+        <v>19.03440994248782</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>-871041.6673942268</v>
+        <v>18.89424426202434</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>1905292.029286353</v>
+        <v>19.13656513174745</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>2356374.432205945</v>
+        <v>19.18110783418855</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>1547784.4784001</v>
+        <v>19.23794380408162</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>1763152.242916693</v>
+        <v>19.30710163520515</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>2009058.09989714</v>
+        <v>19.334582801131</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>-227762.3671451699</v>
+        <v>18.91549417501227</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>1400094.13439876</v>
+        <v>19.22115779093421</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>1513816.623912548</v>
+        <v>19.26340561868396</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>-1520589.229112259</v>
+        <v>18.89312028248543</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>-1431018.01624611</v>
+        <v>18.90617555907503</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>-796010.0827773501</v>
+        <v>18.91760270294777</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>-2671463.122500984</v>
+        <v>18.85751410098704</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>-1249994.047943469</v>
+        <v>18.90361175734282</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>-1161881.080082307</v>
+        <v>18.91559304068118</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>-2381869.355839345</v>
+        <v>18.87673885298988</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>47724.70510650374</v>
+        <v>18.95239536160842</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>337462.1908757758</v>
+        <v>18.96150577341544</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>-94069.90379676528</v>
+        <v>18.94971342910843</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>136876.4464596246</v>
+        <v>18.96134152906491</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>764020.5366315299</v>
+        <v>18.97216065692308</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>2967461.454609756</v>
+        <v>18.90626221757399</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>3018984.743729426</v>
+        <v>18.94149482380932</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>2793376.502038507</v>
+        <v>18.97215537587432</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>-1036139.689343195</v>
+        <v>18.89815640252952</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>14686.88144529972</v>
+        <v>18.94107960570992</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>1046048.94120208</v>
+        <v>18.96685654666917</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>-1532505.234699057</v>
+        <v>18.85141600338048</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>-761416.4549326227</v>
+        <v>18.89947296822886</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>294758.1392315117</v>
+        <v>18.94244627283344</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>462423.8560794322</v>
+        <v>18.9636063770712</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>2241326.997687525</v>
+        <v>19.00600396170421</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>289089.3094341903</v>
+        <v>18.96983543409182</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>1051264.465978927</v>
+        <v>19.01011993407301</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>1993492.420741376</v>
+        <v>19.05992781604036</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>-772242.7052726635</v>
+        <v>18.89402977940524</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>877092.5797973414</v>
+        <v>19.02007177033367</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>1284671.140872791</v>
+        <v>19.05059846258447</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>-248730.8822322391</v>
+        <v>18.91562681560162</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>446436.9315316392</v>
+        <v>18.97586447111757</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>1131163.943502482</v>
+        <v>19.01211171600695</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>-1138923.681534815</v>
+        <v>18.85166618138027</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>-331950.0439249618</v>
+        <v>18.934899069128</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>297550.3583210949</v>
+        <v>18.97437524283118</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>-815397.1471738653</v>
+        <v>18.87619224675279</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>1071378.193392766</v>
+        <v>19.02007087528321</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>2167273.64115077</v>
+        <v>19.07796372822261</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>737217.5763186138</v>
+        <v>19.0894216245073</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>1396066.503460974</v>
+        <v>19.13258903262514</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>2091995.574974537</v>
+        <v>19.18822952289366</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>50657.5550451662</v>
+        <v>18.92756327175256</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>1319798.718142482</v>
+        <v>19.10793981413525</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>1564449.317425728</v>
+        <v>19.16097735120372</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>-2122647.84469804</v>
+        <v>18.89967238642803</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>-57960.83241124349</v>
+        <v>18.94370602652073</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>714406.4422470469</v>
+        <v>18.95287652187244</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>-2323837.419240851</v>
+        <v>18.87249190563647</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>1028113.619653006</v>
+        <v>18.951435251008</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>1447152.526375904</v>
+        <v>18.96039553040344</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>-1882928.480869581</v>
+        <v>18.90085612116885</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>4631219.68614082</v>
+        <v>19.01353065896093</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>4495342.760196383</v>
+        <v>19.01991786729067</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>2347069.920793807</v>
+        <v>19.01508480649097</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>3222488.695053586</v>
+        <v>19.03595565311815</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>3260537.964641429</v>
+        <v>19.0371332086277</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>-1019308.501060068</v>
+        <v>18.91268063310843</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>-1098478.497548053</v>
+        <v>18.97662352585197</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>-1048106.68050231</v>
+        <v>19.00447149248532</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>-283304.2826350496</v>
+        <v>18.93184337018645</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>1352378.694688734</v>
+        <v>19.0175014704049</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>1397259.611200775</v>
+        <v>19.03077013893106</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>-1195456.735733038</v>
+        <v>18.89038570880393</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>611929.85289948</v>
+        <v>18.98575821938922</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>1112495.901412063</v>
+        <v>19.01443592774129</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>2422600.497648646</v>
+        <v>19.06861361586824</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>2854841.578693115</v>
+        <v>19.09733013491163</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>1842664.481245701</v>
+        <v>19.09619486038588</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>2294925.460855023</v>
+        <v>19.15163387226537</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>2661927.444066314</v>
+        <v>19.18395600578829</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>345238.8970029292</v>
+        <v>18.96163002671999</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>1973530.588753133</v>
+        <v>19.13220013884682</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>2087263.644514583</v>
+        <v>19.14967245014403</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>-164994.1547035866</v>
+        <v>18.92129168864773</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>1046453.023360892</v>
+        <v>19.02291780799872</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>1435113.473686717</v>
+        <v>19.04846696533784</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>-1164277.687160474</v>
+        <v>18.86381773663375</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>377036.1022936286</v>
+        <v>18.9912537075455</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>827768.49224703</v>
+        <v>19.0179586933557</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>-832928.8908982478</v>
+        <v>18.90164782246575</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>2167252.201419804</v>
+        <v>19.09487374502215</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>2842960.811383664</v>
+        <v>19.14130102852962</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>1941728.521453853</v>
+        <v>19.1842940368338</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>2273140.334675109</v>
+        <v>19.24253500339183</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>2359947.700357088</v>
+        <v>19.28022403629923</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>303091.301347258</v>
+        <v>18.95764296752513</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>1722554.006316507</v>
+        <v>19.18260989790985</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>1959404.872208732</v>
+        <v>19.22437799194141</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>-1296346.813319734</v>
+        <v>18.85690348711303</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>-371224.4165315937</v>
+        <v>18.95312595290258</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>359231.7465807225</v>
+        <v>18.97036125768189</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>-1116168.944641378</v>
+        <v>18.84358795531989</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>698237.2373235095</v>
+        <v>18.99102648899792</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>687854.574367306</v>
+        <v>19.00190993906562</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>-834212.1178542263</v>
+        <v>18.8845871237756</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>2544689.319652321</v>
+        <v>19.08586145512664</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>2404046.073878671</v>
+        <v>19.09687650310781</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>1193286.394595287</v>
+        <v>19.07530225382653</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>1579708.446021491</v>
+        <v>19.11311906562963</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>1679100.164424692</v>
+        <v>19.11506465343903</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>-772463.0108699779</v>
+        <v>18.85484105531879</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>-664978.9453494401</v>
+        <v>18.99295716842882</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>-642780.082818476</v>
+        <v>19.02492389930945</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>-340693.9844421552</v>
+        <v>18.88867457641052</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>692645.2786624905</v>
+        <v>19.06827784985393</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>753206.5518516442</v>
+        <v>19.078052862151</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>-609528.0938734286</v>
+        <v>18.83647439826433</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>425175.1643293502</v>
+        <v>19.03649919085242</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>593714.994685622</v>
+        <v>19.06210374624663</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>-633895.1826993373</v>
+        <v>18.88271619175239</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>1367083.22210612</v>
+        <v>19.17440460612437</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>1458389.914472507</v>
+        <v>19.20108180233997</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>638681.1740588626</v>
+        <v>19.18193733649267</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>1006155.589964704</v>
+        <v>19.27321825488372</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>1186341.414786434</v>
+        <v>19.31285833755796</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>-140065.5767940367</v>
+        <v>18.91629914545957</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>958402.0337446794</v>
+        <v>19.23975784664208</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>1007245.385639867</v>
+        <v>19.24522783916515</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>-199146.8704805448</v>
+        <v>18.87960332579426</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>-549304.199642134</v>
+        <v>18.79597380653075</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>358455.0893225312</v>
+        <v>19.04426042382929</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>445764.5848656176</v>
+        <v>19.06245884417163</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>-447518.5871510474</v>
+        <v>18.86688716514146</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>1220266.738654668</v>
+        <v>19.21366326810715</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>1441182.622852809</v>
+        <v>19.2619358171486</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>846530.3011084073</v>
+        <v>19.31076167450932</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>1138145.968830555</v>
+        <v>19.40419896800567</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>1215565.532664117</v>
+        <v>19.44517163319865</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>-144543.8347114362</v>
+        <v>18.89482371896304</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>907434.9253396881</v>
+        <v>19.31577109603916</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>961075.2735401799</v>
+        <v>19.34604544839897</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>-1186835.156369468</v>
+        <v>18.85058451409685</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>-1091346.221197096</v>
+        <v>18.86555820574266</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>-907823.6510746224</v>
+        <v>18.87851670687548</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>-1403905.150804479</v>
+        <v>18.8099616013486</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>-700070.6903620238</v>
+        <v>18.88019470636084</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>-746686.4995229067</v>
+        <v>18.88632844070007</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>-1377357.822786018</v>
+        <v>18.83531949305753</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>-316219.2078293978</v>
+        <v>18.93834877178226</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>-265277.4256415082</v>
+        <v>18.94777659758264</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>-107181.8492570402</v>
+        <v>18.94911360381035</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>124122.766309154</v>
+        <v>18.97781329234203</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>240918.9588494166</v>
+        <v>18.97530752219932</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>-848596.2154604164</v>
+        <v>18.81826208094198</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>-622639.5088000373</v>
+        <v>18.8809073084261</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>-546308.3824067928</v>
+        <v>18.91498513470373</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>-521071.5980500252</v>
+        <v>18.88396144590234</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-17707.56805980007</v>
+        <v>18.95703159234444</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>339685.4087813881</v>
+        <v>19.00077355096865</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>-734093.2804463304</v>
+        <v>18.82914620265402</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>-229090.6725551464</v>
+        <v>18.92410416084712</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>146809.4111549181</v>
+        <v>18.98377756740149</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>-633551.7692958062</v>
+        <v>18.85473992298697</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>206076.1273384773</v>
+        <v>19.01676856947811</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>870773.8216087216</v>
+        <v>19.08385032271107</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>219272.9904083118</v>
+        <v>19.05709897647793</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>573250.6294499259</v>
+        <v>19.12220311785658</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>810475.0323009518</v>
+        <v>19.16698313699265</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>-353064.1848674561</v>
+        <v>18.86531322869757</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>379515.1734409344</v>
+        <v>19.07200636442811</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>601221.9426700595</v>
+        <v>19.12276528425184</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>-423369.2699142929</v>
+        <v>18.88155989069447</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>152750.3357189255</v>
+        <v>18.99500984383181</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>419092.1631450286</v>
+        <v>19.04595514818581</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>-594438.8083542989</v>
+        <v>18.81263881951287</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>121252.8038251924</v>
+        <v>18.97887238420011</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>308229.1690991035</v>
+        <v>19.02313690311444</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>-550970.1087459904</v>
+        <v>18.86457268392011</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>666482.3044695061</v>
+        <v>19.09807933983155</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>1008003.62427659</v>
+        <v>19.17829352671172</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>684859.858889732</v>
+        <v>19.23563449010926</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>896166.693090265</v>
+        <v>19.30987658162982</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>974965.9441511541</v>
+        <v>19.35821923398648</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>-246937.3659533877</v>
+        <v>18.89128688574099</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>649865.3444639622</v>
+        <v>19.20704796670358</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>853418.5534204585</v>
+        <v>19.28122676837897</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>-2078424.113417574</v>
+        <v>18.86172747822553</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>-1739783.567748765</v>
+        <v>18.87338649398487</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>-1459462.947502684</v>
+        <v>18.88903179581353</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>-2274327.278207317</v>
+        <v>18.83278826533242</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>-1298905.842356661</v>
+        <v>18.87844506579887</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>-1232178.412203144</v>
+        <v>18.89462798485312</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>-2302511.408850491</v>
+        <v>18.84499444572333</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>-811379.591241035</v>
+        <v>18.92994861218782</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>-879167.2773434236</v>
+        <v>18.94314192313738</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>-596610.1070562524</v>
+        <v>18.91701149446321</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>-472073.9464656368</v>
+        <v>18.92994338924403</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>-478206.7721074154</v>
+        <v>18.9438579130481</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>-1200715.466027801</v>
+        <v>18.83677370230217</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>-732649.6076662404</v>
+        <v>18.86847574685496</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>-733819.2754930103</v>
+        <v>18.89950916017623</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>-1238399.52206818</v>
+        <v>18.83800406011364</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>-997532.951455071</v>
+        <v>18.87596954457441</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>-351261.4662056584</v>
+        <v>18.90402045224964</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>-1271995.392238802</v>
+        <v>18.80199786492163</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>-1127352.471900403</v>
+        <v>18.84312370161743</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>-578180.7858714876</v>
+        <v>18.88898771870094</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>-1265334.80991415</v>
+        <v>18.7992139429087</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>-744396.1604513527</v>
+        <v>18.91040490305266</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>188732.9810990156</v>
+        <v>18.95736171779208</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>-327369.4605240141</v>
+        <v>18.90651114096904</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>21017.42887083535</v>
+        <v>18.95006800390463</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>596104.6083617785</v>
+        <v>19.00946565569588</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>-894000.6759801421</v>
+        <v>18.79891087126655</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>-370336.6914538058</v>
+        <v>18.92293968653569</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>-353820.415420536</v>
+        <v>18.94786274730657</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>-864889.537041145</v>
+        <v>18.8415011017667</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>-749336.5185125434</v>
+        <v>18.8933423189565</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>258655.8953514592</v>
+        <v>18.94257194698845</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>-1154920.967852138</v>
+        <v>18.79196001587101</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>-846792.9006854715</v>
+        <v>18.86509944744314</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>-100615.4082285331</v>
+        <v>18.91713228955285</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>-1069983.807117091</v>
+        <v>18.80491712229912</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-427060.9613860792</v>
+        <v>18.95389566521573</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>1164204.734806987</v>
+        <v>19.02828536723469</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>-115743.875340148</v>
+        <v>19.02195671914043</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>662283.2771130054</v>
+        <v>19.06965775186075</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>1243213.739121307</v>
+        <v>19.14254851563381</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>-845803.2632038849</v>
+        <v>18.80991624326358</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>-357203.0248670752</v>
+        <v>18.9918596782304</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>-67663.93302465641</v>
+        <v>19.05091901424708</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>-1207113.548348371</v>
+        <v>18.87076573579182</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>-100367.7511583515</v>
+        <v>18.96907838100071</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>864763.9023143257</v>
+        <v>18.99095448026236</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>-1213888.164206462</v>
+        <v>18.86386281481025</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>1306483.198154817</v>
+        <v>19.02095204253547</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>1379280.362509711</v>
+        <v>19.03443874285914</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>-1340880.119231127</v>
+        <v>18.90263137609449</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>3025964.939766502</v>
+        <v>19.10060067211489</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>3012193.57071167</v>
+        <v>19.11522918436913</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>1734466.425093692</v>
+        <v>19.12113486637394</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>2055186.622846634</v>
+        <v>19.1648789640682</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>1831168.179482627</v>
+        <v>19.16315104051557</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>-56083.00176475805</v>
+        <v>18.90010759861743</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>743621.1892507965</v>
+        <v>19.04931990394277</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>1904908.658960654</v>
+        <v>19.10839627187736</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>-570853.1629235223</v>
+        <v>18.84920898380867</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>409042.8175927227</v>
+        <v>18.99890587286982</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>482439.5973289029</v>
+        <v>19.02005269366852</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>-863306.4925458963</v>
+        <v>18.80014433634131</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>160931.3270823873</v>
+        <v>18.97527487450655</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>293990.5545059565</v>
+        <v>19.00909412430993</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>-881279.3374947497</v>
+        <v>18.84031673129192</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>1045813.074401964</v>
+        <v>19.09466992853639</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>1180478.283976965</v>
+        <v>19.13101354007453</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>640814.3115902083</v>
+        <v>19.11399827356933</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>882381.8498026994</v>
+        <v>19.19135997599148</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>993168.1899865009</v>
+        <v>19.21868315768132</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>-192296.0417905479</v>
+        <v>18.86638196300806</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>820408.140880395</v>
+        <v>19.14606806063187</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>833339.3162805206</v>
+        <v>19.1802700445944</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>-426960.6612524323</v>
+        <v>18.84281354888577</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>367137.8763241016</v>
+        <v>19.02636536822412</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>658810.6817402807</v>
+        <v>19.05778774608563</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>-627102.6862916235</v>
+        <v>18.78671655953776</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>425811.8717710255</v>
+        <v>19.02159630686311</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>545417.4001830396</v>
+        <v>19.04410060259352</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>-584222.7859028879</v>
+        <v>18.8477892828367</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>1268132.266997242</v>
+        <v>19.16526775140389</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>1628937.968760622</v>
+        <v>19.21839087043508</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>1003495.562898282</v>
+        <v>19.26904654641495</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>1232343.900270298</v>
+        <v>19.35385554848304</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>1307358.004774815</v>
+        <v>19.38069169782472</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>-192608.124877266</v>
+        <v>18.87258659147607</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>974059.6545622969</v>
+        <v>19.2582022941101</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>1141405.784488084</v>
+        <v>19.31552449891635</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>-1546581.57303456</v>
+        <v>18.87087071403155</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>-1174657.291203732</v>
+        <v>18.8720951056575</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>-942466.2413938255</v>
+        <v>18.89366204082319</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>-1751960.253845267</v>
+        <v>18.83215604239715</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>-1075853.795845685</v>
+        <v>18.86522841627137</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>-975068.4111932593</v>
+        <v>18.88524824490954</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>-1687955.905201243</v>
+        <v>18.84546935038325</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>-731743.3774842281</v>
+        <v>18.91561330558684</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>-400947.4146451913</v>
+        <v>18.93637942213882</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>-313768.0205922241</v>
+        <v>18.91105914551252</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>-110518.3833837593</v>
+        <v>18.92673498669155</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>54377.45230009235</v>
+        <v>18.9426315919046</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>-1056219.810987832</v>
+        <v>18.82731377209527</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>-580701.4295528942</v>
+        <v>18.86931512979983</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>-654208.5704054341</v>
+        <v>18.89190485480459</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>-888168.9847790876</v>
+        <v>18.8658940853584</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>-447470.5936133026</v>
+        <v>18.89760647790302</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>148974.725264062</v>
+        <v>18.95564292274538</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>-1021853.214927655</v>
+        <v>18.81908748715403</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>-691450.8489811405</v>
+        <v>18.85216090908276</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>-46893.29937174855</v>
+        <v>18.93075916590348</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>-998242.5931119198</v>
+        <v>18.82216297428524</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>-501242.0222867078</v>
+        <v>18.91977589588867</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>720807.0598520703</v>
+        <v>19.00116608767449</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>-204973.8554456753</v>
+        <v>18.92461705656709</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>138554.1575563816</v>
+        <v>18.96626539737231</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>504029.6079165587</v>
+        <v>19.04464945175828</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>-659947.9279963338</v>
+        <v>18.80828170849412</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>-3166.974776916785</v>
+        <v>18.93752833230254</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>350296.2930673935</v>
+        <v>18.99897311209594</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>-482727.2547338895</v>
+        <v>18.88271588403138</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-93226.89109894112</v>
+        <v>18.93782314110353</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>462860.3399507623</v>
+        <v>19.01246488922189</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>-739187.5101302634</v>
+        <v>18.81807003804603</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>-280644.2594696825</v>
+        <v>18.89785361181228</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>199061.7953542905</v>
+        <v>18.97469575616688</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>-614922.7300414488</v>
+        <v>18.84282811942871</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>157484.268021483</v>
+        <v>18.98906537678657</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>1051865.112143183</v>
+        <v>19.09335604326374</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>206627.5041147535</v>
+        <v>19.06254885202474</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>438622.4449899739</v>
+        <v>19.11643999932821</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>1053346.22813091</v>
+        <v>19.21452881474911</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>-195185.9163562595</v>
+        <v>18.84002711296127</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>330980.5057481916</v>
+        <v>19.04927927544765</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>742378.5171082999</v>
+        <v>19.14320860535481</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>-1851980.439020888</v>
+        <v>18.82653615482431</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>-2194228.673375374</v>
+        <v>18.87160649137962</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>-1692638.359948211</v>
+        <v>18.87881729831269</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>-2190647.618556937</v>
+        <v>18.78880384185338</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>-1664880.877928779</v>
+        <v>18.86683483958827</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>-1604477.019503875</v>
+        <v>18.87088356257755</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>-1735247.471766341</v>
+        <v>18.81561994639481</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>-1039306.439709404</v>
+        <v>18.93973898093123</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>-1017515.075572579</v>
+        <v>18.94330768094189</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>-1183749.189319614</v>
+        <v>18.92805424319125</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>-1161035.989105347</v>
+        <v>18.95064467896399</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>-459327.654255632</v>
+        <v>18.94287908398959</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>-1479555.718879547</v>
+        <v>18.79042406086441</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>-1589432.922804888</v>
+        <v>18.87166259562175</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>-1253965.700158038</v>
+        <v>18.88184936370573</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>-358454.2296343797</v>
+        <v>18.89391392022475</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>642866.7548181453</v>
+        <v>18.99243298964199</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>727598.6291781033</v>
+        <v>19.00283883022835</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>-848923.583616762</v>
+        <v>18.85018026991254</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>150120.3406318978</v>
+        <v>18.9561484565386</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>411764.6644530267</v>
+        <v>18.98250394867074</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>-709406.136392008</v>
+        <v>18.87366018737237</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>1266521.076058009</v>
+        <v>19.05425734075554</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>1601235.823899567</v>
+        <v>19.08082853761166</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>773267.4248352168</v>
+        <v>19.07898403251377</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>1039024.282312039</v>
+        <v>19.13858452430255</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>1224169.575686174</v>
+        <v>19.16082772265364</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>-309042.2135832386</v>
+        <v>18.89845831413636</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>933906.8070700481</v>
+        <v>19.09934820671927</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>907853.8296021241</v>
+        <v>19.11054770317763</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>-306767.5431033948</v>
+        <v>18.89476236933842</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>590351.1165485836</v>
+        <v>19.01977039647816</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>894419.1711291132</v>
+        <v>19.04324569564197</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>-793077.3049924058</v>
+        <v>18.8251574184682</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>371358.4657420051</v>
+        <v>18.97897798304253</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>508408.1184400805</v>
+        <v>18.99935384566653</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>-649441.8186096174</v>
+        <v>18.87180683442554</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>1506741.792198768</v>
+        <v>19.10419482067664</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>1848607.625035321</v>
+        <v>19.15025280495172</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>1143432.61493848</v>
+        <v>19.19521461154016</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>1434457.561317788</v>
+        <v>19.26279316633881</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>1581980.676594531</v>
+        <v>19.29506374115623</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>-262505.9290210046</v>
+        <v>18.89387160521929</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>1091812.8392239</v>
+        <v>19.18646862073873</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>1192783.195904964</v>
+        <v>19.21852713135408</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>-1324755.793651821</v>
+        <v>18.88953024794601</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>-951884.2132178288</v>
+        <v>18.89731444595035</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>-872110.009431032</v>
+        <v>18.90607707998316</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>-1952172.431384892</v>
+        <v>18.85201416177767</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>-863508.0734375137</v>
+        <v>18.89353816928094</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>-1016327.01054308</v>
+        <v>18.89939816837289</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>-1375455.938082502</v>
+        <v>18.86858103177018</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>231465.0509612207</v>
+        <v>18.94378787002463</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>-79403.2526146723</v>
+        <v>18.94973384817466</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>-61255.79113900966</v>
+        <v>18.94340044749906</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>254990.3975269875</v>
+        <v>18.95080169250877</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>255082.139642318</v>
+        <v>18.95353105774484</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>-853218.3120701791</v>
+        <v>18.8672229561421</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>-510382.0872672903</v>
+        <v>18.89690537630112</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>-585385.9806604841</v>
+        <v>18.91103874551046</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>-1051228.179045353</v>
+        <v>18.8615193503055</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>-698995.1945930959</v>
+        <v>18.89086770915969</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>-288473.756128149</v>
+        <v>18.91445762751678</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>-1378831.89911348</v>
+        <v>18.81529214095648</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>-1099208.618995812</v>
+        <v>18.84901514002339</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>-526052.6620278878</v>
+        <v>18.88894951428049</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>-1439853.991522775</v>
+        <v>18.82059226070102</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>-777079.680055916</v>
+        <v>18.91660077688652</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>176052.286269138</v>
+        <v>18.95739910392615</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>-389963.7903008503</v>
+        <v>18.91883174620742</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>-137886.7274189461</v>
+        <v>18.93863598017126</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>156073.6036044036</v>
+        <v>18.97708610568431</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>-934351.8516330614</v>
+        <v>18.81483340685011</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>-344652.761529943</v>
+        <v>18.91141494505533</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>-182560.5343886588</v>
+        <v>18.93492596904493</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>-405914.3267508902</v>
+        <v>18.89630645992655</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>149100.0347318527</v>
+        <v>18.95792868293181</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>355431.324509933</v>
+        <v>18.98518526693412</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>-964496.3144634726</v>
+        <v>18.82277295895418</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>-217347.5324008293</v>
+        <v>18.91151720189245</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>-49007.74283253722</v>
+        <v>18.93675284566723</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>-835207.9332917997</v>
+        <v>18.85359573726634</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>639769.1309415408</v>
+        <v>19.00644178723733</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>1045756.603172968</v>
+        <v>19.05618316745789</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>611730.7328881874</v>
+        <v>19.0729916182092</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>710570.5085292467</v>
+        <v>19.09971831997244</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>1129456.484570705</v>
+        <v>19.14437989592057</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>-313319.2949857765</v>
+        <v>18.85378711536008</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>466464.9481839169</v>
+        <v>19.04256322677295</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>573957.1385389437</v>
+        <v>19.07766959209847</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>-1805860.336730961</v>
+        <v>18.87083525826007</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>-1820176.621415539</v>
+        <v>18.85995856900293</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>-1934572.073769577</v>
+        <v>18.85842386447327</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>-2023461.433095066</v>
+        <v>18.83194350697836</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-1700083.677878164</v>
+        <v>18.84956915869703</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>-1890825.16497787</v>
+        <v>18.84641755086604</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>-1602492.034209026</v>
+        <v>18.83653333855419</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-1346834.636260068</v>
+        <v>18.8909630282141</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>-1717399.601708707</v>
+        <v>18.88680832438143</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>-1324611.121774691</v>
+        <v>18.86607956095489</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>-1227379.130831924</v>
+        <v>18.86515082315536</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>-1048499.445666749</v>
+        <v>18.86560862427705</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>-1059140.734578479</v>
+        <v>18.82880317026061</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>-1001755.964062562</v>
+        <v>18.83778711054342</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>-1128982.534248609</v>
+        <v>18.83510564905202</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>-1164935.572377737</v>
+        <v>18.84595685295583</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>-1088572.178597639</v>
+        <v>18.85367443356132</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>-1036242.690757278</v>
+        <v>18.86368564987993</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>-1209359.447935911</v>
+        <v>18.80842350423564</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-1254578.300418333</v>
+        <v>18.81541688436334</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>-1041380.716977413</v>
+        <v>18.84315666187847</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>-1298017.151938358</v>
+        <v>18.79649736115767</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-1119568.940254889</v>
+        <v>18.86817854660043</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>-832895.3290016671</v>
+        <v>18.89556847199963</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>-650667.6530195187</v>
+        <v>18.84319456948795</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>-529114.1522059814</v>
+        <v>18.85712098048537</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>-530623.7361000802</v>
+        <v>18.89215658103853</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>-898493.0798613982</v>
+        <v>18.78405838928017</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>-648464.5432886268</v>
+        <v>18.85500623918442</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>-649644.6002637635</v>
+        <v>18.85936200592119</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>-325875.6234845165</v>
+        <v>18.89639599218535</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>-112385.5764329795</v>
+        <v>18.93066467726547</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>-44576.44154946145</v>
+        <v>18.94814374498893</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>-774618.6953512096</v>
+        <v>18.82243827895588</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>-443139.3532736031</v>
+        <v>18.87888834398672</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>-370128.6541619013</v>
+        <v>18.89638165880783</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>-672194.7311026918</v>
+        <v>18.83814769721812</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>204932.0665975169</v>
+        <v>18.96126469920806</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>316943.8090946046</v>
+        <v>19.00147084578999</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>142059.6917963255</v>
+        <v>18.99713750903593</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>238430.7151675734</v>
+        <v>19.01767144321438</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>466545.0029086656</v>
+        <v>19.06115950097118</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>-92704.87848586703</v>
+        <v>18.832183776005</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>123824.341524728</v>
+        <v>18.98798684206918</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>175207.8103746325</v>
+        <v>19.00801970225823</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>-277196.0083188683</v>
+        <v>18.92356857539163</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>686150.0869908765</v>
+        <v>18.94905200511929</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>1149072.219894501</v>
+        <v>18.96547749103468</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>-1637457.386110697</v>
+        <v>18.87445659693503</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>-52871.96448687355</v>
+        <v>18.93732306520922</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>368173.1526558442</v>
+        <v>18.95275861508003</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>-966907.9305788813</v>
+        <v>18.90624734473585</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>1955338.123698597</v>
+        <v>19.00460282726115</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>2200920.048483562</v>
+        <v>19.01802002975845</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>1155387.536373673</v>
+        <v>19.01767333317138</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>1592717.325915481</v>
+        <v>19.03421447861517</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>1770632.932494534</v>
+        <v>19.03720480896538</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>409249.9266063917</v>
+        <v>18.937183833681</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>1947789.554133183</v>
+        <v>18.99139675808824</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>2123761.290229029</v>
+        <v>19.02753559779017</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>-655428.247926501</v>
+        <v>18.89539845802206</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>-1967.075583271301</v>
+        <v>18.95104149062711</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>238174.3661753728</v>
+        <v>18.97906486808632</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>-1302975.169643218</v>
+        <v>18.82337839740409</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>-772694.4690018403</v>
+        <v>18.88435483653707</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>-424986.7796046887</v>
+        <v>18.92907231284473</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>-1099981.680534038</v>
+        <v>18.84667722783009</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>100173.0998779192</v>
+        <v>18.97433871839441</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>658358.7102597688</v>
+        <v>19.02081529078641</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>149578.9071593835</v>
+        <v>18.98649600085619</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>441176.3912029041</v>
+        <v>19.0305366398405</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>722802.6673257106</v>
+        <v>19.06895118005635</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>-305427.4439624096</v>
+        <v>18.87477390712209</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>639705.0797146745</v>
+        <v>19.02595918202863</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>821529.5888668229</v>
+        <v>19.05737884405748</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>-52984.40915866374</v>
+        <v>18.92326279772189</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>585155.2424563747</v>
+        <v>19.00334176097357</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>948464.5323111269</v>
+        <v>19.04205166880029</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>-841094.5433420133</v>
+        <v>18.83544186928974</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>-69068.44194230411</v>
+        <v>18.94120525775192</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>197503.2318853435</v>
+        <v>18.97953411118101</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>-490933.9434422889</v>
+        <v>18.87762941995066</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>1056127.887824797</v>
+        <v>19.05440656964825</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>1559767.301942484</v>
+        <v>19.11734257641343</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>1171299.83329636</v>
+        <v>19.14541386306838</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>1344344.487995557</v>
+        <v>19.1943112522368</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>1493723.911558686</v>
+        <v>19.23781604869056</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>120876.7162205563</v>
+        <v>18.92006317550371</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>952023.8529040439</v>
+        <v>19.13931276289769</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>1261947.202584945</v>
+        <v>19.19685547002209</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>-1141291.20345033</v>
+        <v>18.90475064903784</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>941382.9712932158</v>
+        <v>18.96199560887301</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>1579131.389699013</v>
+        <v>18.98257800719508</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>-1655034.753462844</v>
+        <v>18.87864370743432</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>1206937.640638628</v>
+        <v>18.9705409403702</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>1446784.754638614</v>
+        <v>18.98888909797426</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>-1148472.106597598</v>
+        <v>18.90610943288101</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>3304185.625142432</v>
+        <v>19.03282395779308</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>3626558.996920747</v>
+        <v>19.05134749012994</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>2437233.388977655</v>
+        <v>19.05228293085264</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>2994119.32882062</v>
+        <v>19.08698300462246</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>2781016.212897347</v>
+        <v>19.09243283251978</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>-731378.8660478791</v>
+        <v>18.90048734271108</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>1213249.322397318</v>
+        <v>19.00943047811268</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>1709830.395058164</v>
+        <v>19.04219763283226</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>-850073.0275936208</v>
+        <v>18.87765681059511</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>373107.6546208925</v>
+        <v>18.96410205567776</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>668339.824448242</v>
+        <v>19.00106948225316</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>-1024384.867656643</v>
+        <v>18.84341326761725</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>25493.55883668631</v>
+        <v>18.93658108288021</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>517580.2851839452</v>
+        <v>18.99059758899308</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>-956343.7706930585</v>
+        <v>18.86172904360796</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>908007.729869518</v>
+        <v>19.01710484656729</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>1699816.697170732</v>
+        <v>19.07192511323824</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>782332.3259554878</v>
+        <v>19.04034882670131</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>1099227.144721184</v>
+        <v>19.10316131330047</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>1381075.523626801</v>
+        <v>19.14677875256204</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>-639778.303624399</v>
+        <v>18.85945341789127</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>906132.252595805</v>
+        <v>19.0509414813309</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>1037069.248794926</v>
+        <v>19.1000954052033</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>-726025.7853645493</v>
+        <v>18.87187877890118</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>274151.6984371853</v>
+        <v>18.98387801101859</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>853709.0419453215</v>
+        <v>19.0347399144375</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>-989594.2813725632</v>
+        <v>18.82174441129979</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>152413.5258146668</v>
+        <v>18.96075534181256</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>615882.3147015738</v>
+        <v>19.01183215644514</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>-903418.0443255055</v>
+        <v>18.8591278191761</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>1052316.64690329</v>
+        <v>19.06292918475335</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>1995900.438879191</v>
+        <v>19.13774158113204</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>991004.8967169119</v>
+        <v>19.14264685170125</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>1360040.584194365</v>
+        <v>19.2191885333107</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>1853026.776455957</v>
+        <v>19.27802895730342</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>-571795.6556649421</v>
+        <v>18.85537502729177</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>955311.953149167</v>
+        <v>19.13113245121818</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>1276491.761412604</v>
+        <v>19.206753593559</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>-2107441.223387216</v>
+        <v>18.89108626973856</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>107281.5008788562</v>
+        <v>18.94421676516029</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>1425318.415666289</v>
+        <v>18.96023438834174</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>-2324405.042396857</v>
+        <v>18.87525856369156</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>2115783.156877298</v>
+        <v>18.96526488706998</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>2748060.933246392</v>
+        <v>18.9793089892721</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>-2194181.176640331</v>
+        <v>18.89741174515716</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>5623411.629733758</v>
+        <v>19.01895278753232</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>5456195.620163744</v>
+        <v>19.03156243734253</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>3203699.895220993</v>
+        <v>19.02491879659433</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>3321317.599682025</v>
+        <v>19.05069637336041</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>3285559.770962124</v>
+        <v>19.05583799143427</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>-1230769.254402303</v>
+        <v>18.89952818186278</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>695167.711011249</v>
+        <v>18.98561785633244</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>3381447.298440244</v>
+        <v>19.02896736822322</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>-1113012.02935751</v>
+        <v>18.88216225404653</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>652226.8414051806</v>
+        <v>18.97148899102655</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>909873.7220632168</v>
+        <v>18.9942836025459</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>-1643766.085588925</v>
+        <v>18.84420679053001</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>89643.00153547502</v>
+        <v>18.94331268315874</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>593400.5058046918</v>
+        <v>18.98001897793343</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>-1775577.23948735</v>
+        <v>18.85985463975987</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>1680319.486936448</v>
+        <v>19.0188096035971</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>2247926.236126509</v>
+        <v>19.05627300441578</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>1010571.415458911</v>
+        <v>19.03376108134306</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>1518322.14330019</v>
+        <v>19.09057168547087</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>1867791.676696872</v>
+        <v>19.12802221635499</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>-871346.3514226658</v>
+        <v>18.87539632533682</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>1250438.837018799</v>
+        <v>19.06282988068859</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>1551075.096755119</v>
+        <v>19.09614646800026</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>-840247.3955892491</v>
+        <v>18.88183422654376</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>630051.2367944036</v>
+        <v>18.991600689014</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>1159523.915644252</v>
+        <v>19.02395834967964</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>-1304991.755619857</v>
+        <v>18.83897658045199</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>502483.6982194131</v>
+        <v>18.97569343598978</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>957422.3527768081</v>
+        <v>19.00757168082612</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>-1314327.423126668</v>
+        <v>18.86683462846932</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>1951345.084439547</v>
+        <v>19.06732205196682</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>2695118.072276914</v>
+        <v>19.11945903497817</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>1798373.677203023</v>
+        <v>19.14810511398697</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>2292049.457956057</v>
+        <v>19.20995433102077</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>2415319.555338298</v>
+        <v>19.24990506710893</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>-614277.7011160533</v>
+        <v>18.89167012091886</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>1617934.259760689</v>
+        <v>19.1404727318766</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>1884741.21001217</v>
+        <v>19.19633506731017</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>-1734102.966772015</v>
+        <v>18.91852210822427</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>-22670.99013885724</v>
+        <v>18.94484080945875</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>3138621.943173847</v>
+        <v>18.954933052524</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>-2291345.305787073</v>
+        <v>18.91895841859025</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>5368307.993503544</v>
+        <v>18.9733354238312</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>6472777.397375929</v>
+        <v>18.9832279055166</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>-1866331.134965149</v>
+        <v>18.92462957047916</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>9591396.91481401</v>
+        <v>18.99952258309164</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>10728894.17474064</v>
+        <v>19.00755126244876</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>5151788.232320253</v>
+        <v>19.00270464905209</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>5176065.471209285</v>
+        <v>19.01558381342499</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>5247388.794926178</v>
+        <v>19.02077047958996</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>-1157189.397291281</v>
+        <v>18.93345438570449</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>521804.6156247634</v>
+        <v>18.97434875213377</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>3819088.813110983</v>
+        <v>19.00529998445357</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>-129296.4010205812</v>
+        <v>18.91943121826034</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>1427154.10019514</v>
+        <v>18.9688600534186</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>2254457.340142318</v>
+        <v>18.98530572475898</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>1214969.27679357</v>
+        <v>18.9193162860047</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>2796489.124253487</v>
+        <v>18.97631526360798</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>3975337.886667567</v>
+        <v>19.00418990500899</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>-1490384.106369028</v>
+        <v>18.90934755627294</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>3113795.165921775</v>
+        <v>19.00781565781924</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>4643776.394032474</v>
+        <v>19.03577595259807</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>1946067.070935332</v>
+        <v>19.019485405666</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>2638088.13832701</v>
+        <v>19.05383633635157</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>3043799.433415764</v>
+        <v>19.08436131311369</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>63199.99715876442</v>
+        <v>18.92700841108339</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>2336573.251620078</v>
+        <v>19.0355450279079</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>2812761.812297341</v>
+        <v>19.06170869666252</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>-116858.3013970952</v>
+        <v>18.92206263796366</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>1548541.078289943</v>
+        <v>18.98416534457868</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>2185411.894261539</v>
+        <v>19.00771131244568</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>1094552.329380148</v>
+        <v>18.91921313397669</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>3116679.308865462</v>
+        <v>19.00093969426243</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>3604651.698824136</v>
+        <v>19.02547256549314</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>-800968.7986387195</v>
+        <v>18.91749559844603</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>4194099.996053293</v>
+        <v>19.04411599610718</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>4945523.881251992</v>
+        <v>19.08290439868489</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>3870586.566544472</v>
+        <v>19.10582017519008</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>3958367.983279971</v>
+        <v>19.14175906181102</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>4190533.812974707</v>
+        <v>19.17567493021297</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>149158.327792098</v>
+        <v>18.9442260248028</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>2960413.83735938</v>
+        <v>19.09175375350101</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>3580712.809568291</v>
+        <v>19.13538892383292</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>-1937526.4276686</v>
+        <v>18.89151989576741</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>407096.0971243063</v>
+        <v>18.93993226891508</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>1372715.951602164</v>
+        <v>18.9585903693991</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>-2232768.628317991</v>
+        <v>18.86989783782857</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>358294.8537206869</v>
+        <v>18.94768310753841</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>1150966.975011024</v>
+        <v>18.96529619830052</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>-1837611.486939092</v>
+        <v>18.8938590233591</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>3501814.636436016</v>
+        <v>19.00908737502629</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>3863880.844496698</v>
+        <v>19.02562468455755</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>2803276.827170551</v>
+        <v>19.03257858642957</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>3003732.58073613</v>
+        <v>19.05810649042499</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>2954445.431012574</v>
+        <v>19.05740930592368</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>-1367878.688095154</v>
+        <v>18.8853484839601</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>1482351.882549589</v>
+        <v>18.98180038409066</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>1636153.72363784</v>
+        <v>19.00975403168135</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>-934388.2110424452</v>
+        <v>18.88096759295442</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>785915.6423169646</v>
+        <v>18.95942904157041</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>857125.7368577005</v>
+        <v>18.98593906145703</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>-1207975.875104274</v>
+        <v>18.8445487120772</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>345775.707759403</v>
+        <v>18.92737962419579</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>615971.759776873</v>
+        <v>18.96958320798754</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>-1215712.024043403</v>
+        <v>18.86068383998645</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>1542231.078442568</v>
+        <v>19.00575533307259</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>2101388.426021768</v>
+        <v>19.04873436011471</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>1005555.673423933</v>
+        <v>19.03129711637861</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>1438666.962824077</v>
+        <v>19.08258370603794</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>1645654.405106931</v>
+        <v>19.1139584314132</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>-721041.801539603</v>
+        <v>18.86008294987154</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>969966.6127645083</v>
+        <v>19.04015028333541</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>1362757.17029098</v>
+        <v>19.0741854212736</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>-827031.3659773261</v>
+        <v>18.87921792494549</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>454006.6712571685</v>
+        <v>18.97470191565522</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>1039462.609022382</v>
+        <v>19.01657556028893</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>-1229269.883503863</v>
+        <v>18.8315545959494</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>220857.4625611563</v>
+        <v>18.94854849382185</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>627121.1746106314</v>
+        <v>18.99081851856022</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>-1220856.957671892</v>
+        <v>18.86302938995013</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>1308997.07729155</v>
+        <v>19.04614230455295</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>2323549.133049318</v>
+        <v>19.1103767825744</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>1336553.255742363</v>
+        <v>19.13513070400622</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>1827826.703927852</v>
+        <v>19.1969650253163</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>2173657.076946338</v>
+        <v>19.23984036006528</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>-691546.1401207995</v>
+        <v>18.86756787921441</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>1316617.339111874</v>
+        <v>19.11544589176927</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>1615751.422890014</v>
+        <v>19.17623669991888</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>-1693570.6377559</v>
+        <v>18.88836867045081</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>-1383916.422440995</v>
+        <v>18.89686974344041</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>-872462.292667308</v>
+        <v>18.90861289456508</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>-2401732.165351658</v>
+        <v>18.85371940972577</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>-1137328.523017754</v>
+        <v>18.89474425935545</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>-880187.2943611747</v>
+        <v>18.9066384200081</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>-1956768.462036544</v>
+        <v>18.87102806222182</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>60008.60920567461</v>
+        <v>18.93897589807829</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>425231.0826091783</v>
+        <v>18.94968397076911</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>1253.374439242124</v>
+        <v>18.93732716928657</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>277369.9523941269</v>
+        <v>18.94941773936065</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>515096.8429822903</v>
+        <v>18.96091198776725</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>-1018608.143989062</v>
+        <v>18.86622892916264</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>-499446.7017223604</v>
+        <v>18.90175641939393</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>-187819.7875144382</v>
+        <v>18.92246821078395</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>-1139084.621910769</v>
+        <v>18.88642929411225</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>-281180.0318595116</v>
+        <v>18.92735409395275</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>463302.7229984604</v>
+        <v>18.96352963477224</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>-1480823.930432761</v>
+        <v>18.84497217662741</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>-720856.4270514023</v>
+        <v>18.89172295454129</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>110517.5959492108</v>
+        <v>18.94520612242272</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>-1386535.891403249</v>
+        <v>18.85424530799841</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>-13064.89516480572</v>
+        <v>18.95376940031832</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>1413451.491465874</v>
+        <v>19.00832500728136</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>135977.1386212356</v>
+        <v>18.96880545019794</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>679284.7269610303</v>
+        <v>19.00391857009999</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>1335050.306033058</v>
+        <v>19.06453667219409</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>-855885.5764291439</v>
+        <v>18.85403151434184</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>478041.3282046478</v>
+        <v>18.98237250853353</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>989699.0995601282</v>
+        <v>19.021669752161</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>-619397.7956971035</v>
+        <v>18.89545059450611</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>202911.1489384465</v>
+        <v>18.95563575423554</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>933335.1884890633</v>
+        <v>19.00251590021358</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>-1156615.161226799</v>
+        <v>18.83998514957973</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>-177071.9630046787</v>
+        <v>18.92350923030003</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>523870.653882049</v>
+        <v>18.97461986372853</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>-968570.9539205002</v>
+        <v>18.86261763825444</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>769107.1950641881</v>
+        <v>19.00196056505724</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>1891147.723074061</v>
+        <v>19.07213247655397</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>908727.3857514281</v>
+        <v>19.07107798399896</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>1212812.343112296</v>
+        <v>19.11021734828345</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>1679797.18803381</v>
+        <v>19.17759425616665</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>-711657.0182947358</v>
+        <v>18.86290154078669</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>586551.9755020801</v>
+        <v>19.04944995041704</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>1412081.85559595</v>
+        <v>19.11622202904383</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>-1900455.268828498</v>
+        <v>18.90326784234988</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>-708472.2138413929</v>
+        <v>18.92426282046524</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>843452.7341892153</v>
+        <v>18.93575645882217</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>-4535878.37306672</v>
+        <v>18.88959996255041</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>1119087.417226994</v>
+        <v>18.93749021375221</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>1888594.898126466</v>
+        <v>18.94938524918308</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>-2435115.489132075</v>
+        <v>18.90176640626555</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>4896549.196960699</v>
+        <v>18.96988641268842</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>5272797.494824965</v>
+        <v>18.97963876943433</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>1724280.572938781</v>
+        <v>18.96734145525292</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>2403689.464380831</v>
+        <v>18.97879560204818</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>2871290.53965481</v>
+        <v>18.98708213299846</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>-2040464.348602171</v>
+        <v>18.90503898754202</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>1887412.370247151</v>
+        <v>18.9423968173238</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>2640694.138470887</v>
+        <v>18.9742275240794</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>-1880280.052916844</v>
+        <v>18.89114785684596</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>-33757.05624729666</v>
+        <v>18.93353313621245</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>1538747.500001435</v>
+        <v>18.95540449598087</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>-2407744.652201641</v>
+        <v>18.87276437631644</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>-504019.127868553</v>
+        <v>18.9213359174497</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>1814273.434595825</v>
+        <v>18.95566540222183</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>-2743077.044785392</v>
+        <v>18.87268526919448</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>999521.9176174994</v>
+        <v>18.96217387982801</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>3543654.193345167</v>
+        <v>18.99606067472151</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>451813.9612710575</v>
+        <v>18.96538672238028</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>1459494.053923041</v>
+        <v>18.99738036049542</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>2940123.235218184</v>
+        <v>19.03424555910841</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>-1487113.821318941</v>
+        <v>18.87845100820945</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>1265436.639130333</v>
+        <v>18.98124545842022</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>2004086.436706429</v>
+        <v>19.01338944971822</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>-1099143.087513173</v>
+        <v>18.88432837450156</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>264773.7758272001</v>
+        <v>18.9392085618393</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>1340354.263666581</v>
+        <v>18.96820601008429</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>-2045071.355635518</v>
+        <v>18.86066770708033</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>-58777.41015089941</v>
+        <v>18.93387365879095</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>1199318.261520258</v>
+        <v>18.96489183913837</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>-1747160.618589198</v>
+        <v>18.86983249118684</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>1960487.763494214</v>
+        <v>18.98718205517562</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>3368510.577213042</v>
+        <v>19.03187415856301</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>2069848.682286385</v>
+        <v>19.03703751820296</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>2457018.909477253</v>
+        <v>19.07003509462912</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>3319256.705801029</v>
+        <v>19.11081895097013</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>-1362511.298085931</v>
+        <v>18.88192384628906</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>972291.2356920576</v>
+        <v>19.02246973731026</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>2312784.074919858</v>
+        <v>19.0729646704403</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>-946389.0217797447</v>
+        <v>18.90322908852153</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>392132.8609447388</v>
+        <v>18.95612493165676</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>1361856.291590987</v>
+        <v>18.96927871029832</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>-1788728.058379438</v>
+        <v>18.88869926281452</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>1700997.531838468</v>
+        <v>18.99147279087751</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>2149489.753573109</v>
+        <v>19.00300996910093</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>-1029888.676259243</v>
+        <v>18.9191755502662</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>4216785.079487724</v>
+        <v>19.04769526275528</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>4338272.740037992</v>
+        <v>19.05567168294449</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>2458835.101992104</v>
+        <v>19.07333149195301</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>2375921.037688227</v>
+        <v>19.0920761522282</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>2632870.823452861</v>
+        <v>19.09092035273801</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>-573823.4490452851</v>
+        <v>18.92418220471864</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>-160339.1268475744</v>
+        <v>19.00509561791876</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>2861635.807418246</v>
+        <v>19.05261190484497</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>-150835.1432840436</v>
+        <v>18.90206043592081</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>834226.9055970671</v>
+        <v>18.98825993399512</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>959289.9830526529</v>
+        <v>19.00411589379689</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>-1006143.460690873</v>
+        <v>18.86214732683119</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>254935.3529426092</v>
+        <v>18.97019306804442</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>592818.9818009976</v>
+        <v>19.0030937454043</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>-816958.9583216488</v>
+        <v>18.88823166302251</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>1455932.582548282</v>
+        <v>19.0524322007291</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>1893534.842593354</v>
+        <v>19.08224030675988</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>1047238.117030015</v>
+        <v>19.08431039038902</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>1286699.143102546</v>
+        <v>19.12354499335957</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>1487156.026666632</v>
+        <v>19.14817860973087</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>-165020.4620028197</v>
+        <v>18.90490318633</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>1106476.439593302</v>
+        <v>19.08106793260656</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>1289441.3020132</v>
+        <v>19.11185374751291</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>-75967.62030723642</v>
+        <v>18.88968524366323</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>773601.2079038274</v>
+        <v>18.99946557165233</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>1028322.340688688</v>
+        <v>19.02397113263451</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>-883137.8596995006</v>
+        <v>18.8385862341693</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>440522.0511929601</v>
+        <v>18.98923535414453</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>664535.3595371911</v>
+        <v>19.01547919854625</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>-573178.9619398302</v>
+        <v>18.88199975973838</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>1762971.039072103</v>
+        <v>19.09299353060426</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>2246012.822290754</v>
+        <v>19.13663744255343</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>1535484.370630491</v>
+        <v>19.19109059956907</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>1670468.843960634</v>
+        <v>19.23236826191684</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>1882415.95649905</v>
+        <v>19.26324421850028</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>-192267.8459824008</v>
+        <v>18.89401379421171</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>1161617.223921738</v>
+        <v>19.1427220531721</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>1505842.39011189</v>
+        <v>19.19564881731092</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>-1956767.120050983</v>
+        <v>18.89141958111808</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>30853.82945517768</v>
+        <v>18.94536583327909</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>889770.5965026189</v>
+        <v>18.96156257440234</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>-2223518.413604861</v>
+        <v>18.87014329017404</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>649216.5783957879</v>
+        <v>18.95545695961089</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>867154.6414007324</v>
+        <v>18.97108139440604</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>-1862942.464637372</v>
+        <v>18.8924871956537</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>2977423.472967297</v>
+        <v>19.01498462080073</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>3426811.566662951</v>
+        <v>19.02857875993674</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>2369896.210432224</v>
+        <v>19.03895074195184</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>2770887.746842372</v>
+        <v>19.06587504909283</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>2670022.929787493</v>
+        <v>19.06628073964116</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>-1359709.237884007</v>
+        <v>18.88165083913092</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>933304.0419930024</v>
+        <v>18.98431403518568</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>1123273.492794922</v>
+        <v>19.01132308766105</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>-1000194.145084131</v>
+        <v>18.88717101887254</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>512107.8145288026</v>
+        <v>18.97314614332038</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>720260.8633732777</v>
+        <v>18.99750625993318</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>-1269684.184667833</v>
+        <v>18.85071077173289</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>135210.198008594</v>
+        <v>18.9415702133801</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>529332.8237222697</v>
+        <v>18.98340683089593</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>-1091840.085279239</v>
+        <v>18.86659240081176</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>1337434.389264717</v>
+        <v>19.02138234848219</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>2261627.207260208</v>
+        <v>19.06177409914473</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>1008339.59818684</v>
+        <v>19.05031119738557</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>1451457.183125221</v>
+        <v>19.10233904311666</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>1690965.042149079</v>
+        <v>19.1391469631289</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>-722545.4674600645</v>
+        <v>18.86556299542984</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>1279925.205363385</v>
+        <v>19.05821756366326</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>1254873.699109693</v>
+        <v>19.0904710073277</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>-715645.1869876521</v>
+        <v>18.8760945036964</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>339230.6295342105</v>
+        <v>18.97736602583264</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>983967.2404248905</v>
+        <v>19.01803099625909</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>-1136353.046621113</v>
+        <v>18.82149782172854</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>73977.00784573777</v>
+        <v>18.94432254864475</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>596835.3120423271</v>
+        <v>18.98742882524118</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>-998819.968960827</v>
+        <v>18.85307389500407</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>1081673.949893956</v>
+        <v>19.04443337635438</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>2286908.347267832</v>
+        <v>19.10689844933748</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>1325030.355890196</v>
+        <v>19.13356699301103</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>1658841.00994476</v>
+        <v>19.1914300727359</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>2059324.743356161</v>
+        <v>19.24092862464336</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>-668332.7220929828</v>
+        <v>18.84989471872772</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>944853.2790469913</v>
+        <v>19.10501317286691</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>1455575.273601767</v>
+        <v>19.16684266281408</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.555</v>
+        <v>0.556</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.235</v>
+        <v>16.129</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.611</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.701</v>
+        <v>12.889</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.894</v>
+        <v>0.978</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8.621</v>
+        <v>3.915</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>18.88036961753805</v>
+        <v>8.670510314787666</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>18.90130176808473</v>
+        <v>10.99983022789348</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>18.91393400655321</v>
+        <v>15.56910140186802</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>18.84731200672332</v>
+        <v>-2.747877908200806</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>18.90268913609938</v>
+        <v>12.60417189306255</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>18.91424828633513</v>
+        <v>16.0255219002051</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>18.86556046792608</v>
+        <v>0.7886495591485527</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>18.94984028299514</v>
+        <v>23.16610392573279</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>18.9604864384088</v>
+        <v>25.94780628906603</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>18.9487264415191</v>
+        <v>23.59280667955386</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>18.96668686181478</v>
+        <v>27.71652247879329</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>18.97418148929241</v>
+        <v>32.6048957359171</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>18.86708921720916</v>
+        <v>4.702567920245748</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>18.91565329923128</v>
+        <v>13.92765977806878</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>18.94984241262928</v>
+        <v>19.18267731996861</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>18.89534464567473</v>
+        <v>9.929630797182069</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>18.95193517189725</v>
+        <v>24.67867422653551</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>18.98249205933886</v>
+        <v>39.2880682960912</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>18.84864327855647</v>
+        <v>-1.516718779599991</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>18.91238057997789</v>
+        <v>14.33013959675633</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>18.95815406352227</v>
+        <v>33.04057870432194</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>18.85900265513741</v>
+        <v>0.6896570985208683</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>18.97848636897982</v>
+        <v>27.17714465037807</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>19.0265356823668</v>
+        <v>55.851673213861</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>18.99791724725224</v>
+        <v>32.90991883029196</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>19.04657805700266</v>
+        <v>52.82655727338322</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>19.09440684490823</v>
+        <v>73.53110794131854</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>18.87463834999577</v>
+        <v>5.813365422498993</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>19.02411330083583</v>
+        <v>45.62147972101626</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>19.06308246622031</v>
+        <v>63.11257628433905</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>18.90375177719939</v>
+        <v>14.32236175238131</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>18.9813873367405</v>
+        <v>33.93885901941879</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>19.02082789071272</v>
+        <v>42.88562253102723</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>18.84901757295815</v>
+        <v>0.2185175144102551</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>18.95207819386204</v>
+        <v>26.65782344910897</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>18.99237814850711</v>
+        <v>38.13492318484798</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>18.87322265240302</v>
+        <v>3.270419709286529</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>19.0351065263179</v>
+        <v>44.77750847754386</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>19.09698060105108</v>
+        <v>60.0586144569889</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>19.12278790385969</v>
+        <v>60.51977042955865</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>19.17651776684045</v>
+        <v>76.37396562226891</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>19.22869116277283</v>
+        <v>83.49723447441605</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>18.90436601696885</v>
+        <v>14.9808920942375</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>19.11211629452059</v>
+        <v>63.82365570744894</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>19.1744493959188</v>
+        <v>69.28016016006001</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>18.88462397317582</v>
+        <v>4.894474174103003</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>18.96224693278156</v>
+        <v>31.16523169582808</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>18.98287332261927</v>
+        <v>39.14794504991285</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>18.8670214901552</v>
+        <v>1.984114027060556</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>18.98254239148265</v>
+        <v>42.83374558169666</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>18.99965759616893</v>
+        <v>43.77655807703748</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>18.89364141200474</v>
+        <v>6.726332261407372</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>19.05030876126653</v>
+        <v>66.71534236979755</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>19.06706199401203</v>
+        <v>67.05423699809754</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>19.06374218845903</v>
+        <v>61.70094001541226</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>19.1047581163216</v>
+        <v>76.37421242201901</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>19.10488600965078</v>
+        <v>64.28570392248432</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>18.88594924838739</v>
+        <v>5.585794853030144</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>19.01851794182745</v>
+        <v>47.34612752543229</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>19.05533320705978</v>
+        <v>52.95414362803854</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>18.869114879607</v>
+        <v>8.192746048299725</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>18.98549967752468</v>
+        <v>34.72948539902207</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>19.0160767705613</v>
+        <v>41.21145909970723</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>18.83283726568923</v>
+        <v>-0.7922492105789196</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>18.95713695133458</v>
+        <v>24.41265429633996</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>19.00425640382067</v>
+        <v>37.21353337513455</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>18.85431948026982</v>
+        <v>1.539189436173213</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>19.05131589375211</v>
+        <v>44.76825641714441</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>19.09829892989895</v>
+        <v>61.00115999262012</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>19.07536010575334</v>
+        <v>51.95508378704166</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>19.15037672595713</v>
+        <v>66.65577423913183</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>19.18543581491272</v>
+        <v>74.30627486235772</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>18.8663489369318</v>
+        <v>5.911079694768688</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>19.10154592135504</v>
+        <v>58.99708376819492</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>19.13961322502711</v>
+        <v>62.22221778002423</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>18.86835924336909</v>
+        <v>9.058677751757617</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>19.01447698117512</v>
+        <v>35.9642000917007</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>19.0565579056841</v>
+        <v>48.08653771475101</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>18.8193288257831</v>
+        <v>0.1233747988861964</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>18.99503193758898</v>
+        <v>34.39025302887991</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>19.03545469567737</v>
+        <v>44.77962638349556</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>18.85960204548123</v>
+        <v>4.743454180779977</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>19.11116410839332</v>
+        <v>59.42487905119738</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>19.17576481352337</v>
+        <v>79.69827885540755</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>19.19981564749457</v>
+        <v>68.85474458622772</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>19.2870151996339</v>
+        <v>87.4050087817042</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>19.32858208867195</v>
+        <v>93.50651841756272</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>18.8702818192176</v>
+        <v>6.686501252933951</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>19.19982135708871</v>
+        <v>71.13594428794562</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>19.25995228645281</v>
+        <v>76.20303708635618</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>18.89433340622054</v>
+        <v>11.64525100132941</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>18.95751262010826</v>
+        <v>32.37174196433902</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>18.96665542666744</v>
+        <v>35.60535263554006</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>18.8661029377757</v>
+        <v>1.362753415226763</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>18.96993027005206</v>
+        <v>36.97856341561362</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>18.97513700801094</v>
+        <v>34.63782883479637</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>18.89645966650714</v>
+        <v>6.136096766304778</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>19.03900446925718</v>
+        <v>62.39628655720757</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>19.04366181219225</v>
+        <v>56.99413136206179</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>19.05617734263915</v>
+        <v>51.22557167650979</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>19.08818087184416</v>
+        <v>60.87288269748881</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>19.08097195005456</v>
+        <v>57.51962754762476</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>18.89168757834726</v>
+        <v>10.83136657276245</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>19.00162595213785</v>
+        <v>38.5684398624455</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>19.02554462415386</v>
+        <v>41.22543070838357</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>18.91555373352424</v>
+        <v>18.56524017021416</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>19.02040254557349</v>
+        <v>44.94615953149084</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>19.03421882201806</v>
+        <v>46.2476612266132</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>18.87010186129998</v>
+        <v>3.58603089897349</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>18.98887038148318</v>
+        <v>34.16497930578761</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>19.01771434482592</v>
+        <v>39.37799836490419</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>18.89900639864273</v>
+        <v>5.134558773979556</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>19.0857087621912</v>
+        <v>56.99913250367554</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>19.11466620058148</v>
+        <v>64.90064011488343</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>19.12355464353743</v>
+        <v>58.85866056913578</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>19.18320633512003</v>
+        <v>70.14179021517839</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>19.20375387946671</v>
+        <v>74.447744745005</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>18.92444307044128</v>
+        <v>17.48923117028063</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>19.13497049229065</v>
+        <v>63.63143174744339</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>19.15814864031224</v>
+        <v>61.90428932682226</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>18.90500479571964</v>
+        <v>18.47594561747989</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>19.04042870057865</v>
+        <v>44.3788524062572</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>19.06386821287968</v>
+        <v>50.64881831924418</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>18.84316612841341</v>
+        <v>2.708420499259077</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>19.01496744135184</v>
+        <v>41.00237244324036</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>19.03440994248782</v>
+        <v>44.04774665446038</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>18.89424426202434</v>
+        <v>4.606778855792854</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>19.13656513174745</v>
+        <v>67.85714015127118</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>19.18110783418855</v>
+        <v>78.1336875968496</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>19.23794380408162</v>
+        <v>77.01542169011496</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>19.30710163520515</v>
+        <v>84.32960414364908</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>19.334582801131</v>
+        <v>92.68090178740098</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>18.91549417501227</v>
+        <v>16.56806916420204</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>19.22115779093421</v>
+        <v>72.9054193279942</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>19.26340561868396</v>
+        <v>76.84116164137345</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>18.89312028248543</v>
+        <v>11.88181335384999</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>18.90617555907503</v>
+        <v>12.62221949850708</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>18.91760270294777</v>
+        <v>17.87126950912639</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>18.85751410098704</v>
+        <v>-0.9825389574523058</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>18.90361175734282</v>
+        <v>12.55057108737788</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>18.91559304068118</v>
+        <v>13.38945144839696</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>18.87673885298988</v>
+        <v>3.958409392128001</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>18.95239536160842</v>
+        <v>24.86178044820338</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>18.96150577341544</v>
+        <v>27.35457966567056</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>18.94971342910843</v>
+        <v>23.24457142528755</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>18.96134152906491</v>
+        <v>26.20658782616594</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>18.97216065692308</v>
+        <v>34.25006233330239</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>18.90626221757399</v>
+        <v>63.23542656009897</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>18.94149482380932</v>
+        <v>63.90882970957425</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>18.97215537587432</v>
+        <v>60.96015731116857</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>18.89815640252952</v>
+        <v>9.326653866460084</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>18.94107960570992</v>
+        <v>24.66540953795485</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>18.96685654666917</v>
+        <v>39.72004470157509</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>18.85141600338048</v>
+        <v>-1.313406386223715</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>18.89947296822886</v>
+        <v>11.6500886592245</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>18.94244627283344</v>
+        <v>29.40642810787101</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>18.9636063770712</v>
+        <v>31.47656342172667</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>19.00600396170421</v>
+        <v>58.5032272238281</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>18.96983543409182</v>
+        <v>30.99818583964725</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>19.01011993407301</v>
+        <v>48.26008872341261</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>19.05992781604036</v>
+        <v>69.59986516431916</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>18.89402977940524</v>
+        <v>6.627733934407896</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>19.02007177033367</v>
+        <v>44.69380364028706</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>19.05059846258447</v>
+        <v>54.1005713587501</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>18.91562681560162</v>
+        <v>20.14114885181632</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>18.97586447111757</v>
+        <v>32.18646620425253</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>19.01211171600695</v>
+        <v>44.05087361160764</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>18.85166618138027</v>
+        <v>1.721816575036055</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>18.934899069128</v>
+        <v>17.82629174705466</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>18.97437524283118</v>
+        <v>30.38899903545375</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>18.87619224675279</v>
+        <v>9.745475948669334</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>19.02007087528321</v>
+        <v>43.7729596962061</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>19.07796372822261</v>
+        <v>63.53713815233649</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>19.0894216245073</v>
+        <v>44.27051777947993</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>19.13258903262514</v>
+        <v>61.98339979656492</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>19.18822952289366</v>
+        <v>80.69316622123759</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>18.92756327175256</v>
+        <v>25.83856531530579</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>19.10793981413525</v>
+        <v>60.60887229970576</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>19.16097735120372</v>
+        <v>67.31149663208176</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>18.89967238642803</v>
+        <v>7.355105252736774</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>18.94370602652073</v>
+        <v>23.98436325104817</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>18.95287652187244</v>
+        <v>30.20510983554814</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>18.87249190563647</v>
+        <v>2.894420401043391</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>18.951435251008</v>
+        <v>33.98830268762834</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>18.96039553040344</v>
+        <v>37.87545565852677</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>18.90085612116885</v>
+        <v>8.666581398249875</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>19.01353065896093</v>
+        <v>63.27471470328862</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>19.01991786729067</v>
+        <v>62.13565782358356</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>19.01508480649097</v>
+        <v>53.78157890967937</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>19.03595565311815</v>
+        <v>64.72137678313953</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>19.0371332086277</v>
+        <v>65.19686500747599</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>18.91268063310843</v>
+        <v>11.47048697951022</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>18.97662352585197</v>
+        <v>10.46228098470153</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>19.00447149248532</v>
+        <v>11.10375086177282</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>18.93184337018645</v>
+        <v>20.42173924393204</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>19.0175014704049</v>
+        <v>43.68525258349413</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>19.03077013893106</v>
+        <v>44.3235717531896</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>18.89038570880393</v>
+        <v>4.868459549365092</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>18.98575821938922</v>
+        <v>34.47487736524593</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>19.01443592774129</v>
+        <v>42.67454403861724</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>19.06861361586824</v>
+        <v>60.31339548412553</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>19.09733013491163</v>
+        <v>66.71197047086471</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>19.09619486038588</v>
+        <v>65.11364006167739</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>19.15163387226537</v>
+        <v>75.09385938656263</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>19.18395600578829</v>
+        <v>83.19263520463279</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>18.96163002671999</v>
+        <v>32.21448346276838</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>19.13220013884682</v>
+        <v>68.83111428094034</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>19.14967245014403</v>
+        <v>71.38871580635382</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>18.92129168864773</v>
+        <v>21.6654004491533</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>19.02291780799872</v>
+        <v>42.11807742285662</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>19.04846696533784</v>
+        <v>48.67977221805838</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>18.86381773663375</v>
+        <v>1.811718557937152</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>18.9912537075455</v>
+        <v>31.78231450929438</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>19.0179586933557</v>
+        <v>40.54673252327134</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>18.90164782246575</v>
+        <v>9.814541598079604</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>19.09487374502215</v>
+        <v>62.53439566901585</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>19.14130102852962</v>
+        <v>74.40809869413772</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>19.1842940368338</v>
+        <v>75.31456482930919</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>19.24253500339183</v>
+        <v>83.9959386561776</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>19.28022403629923</v>
+        <v>86.2698684388437</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>18.95764296752513</v>
+        <v>32.54148848702648</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>19.18260989790985</v>
+        <v>70.43280259314912</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>19.22437799194141</v>
+        <v>76.75532908462557</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>18.85690348711303</v>
+        <v>2.577528996380934</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>18.95312595290258</v>
+        <v>18.18724974080428</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>18.97036125768189</v>
+        <v>30.51233965519066</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>18.84358795531989</v>
+        <v>2.75966249571314</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>18.99102648899792</v>
+        <v>38.0202134320042</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>19.00190993906562</v>
+        <v>37.81844030112507</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>18.8845871237756</v>
+        <v>9.800419806803559</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>19.08586145512664</v>
+        <v>69.14109933425713</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>19.09687650310781</v>
+        <v>66.67110548284916</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>19.07530225382653</v>
+        <v>55.69106053776799</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>19.11311906562963</v>
+        <v>65.80761529400428</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>19.11506465343903</v>
+        <v>68.40969702777504</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>18.85484105531879</v>
+        <v>3.842362304115106</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>18.99295716842882</v>
+        <v>6.709905890464615</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>19.02492389930945</v>
+        <v>7.302144428954946</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>18.88867457641052</v>
+        <v>14.29944300962595</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>19.06827784985393</v>
+        <v>45.0885004953477</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>19.078052862151</v>
+        <v>46.89296548395893</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>18.83647439826433</v>
+        <v>3.533235353030722</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>19.03649919085242</v>
+        <v>39.04137491275478</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>19.06210374624663</v>
+        <v>44.82519338459146</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>18.88271619175239</v>
+        <v>4.792053971730684</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>19.17440460612437</v>
+        <v>66.84707368777902</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>19.20108180233997</v>
+        <v>69.67870774309688</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>19.18193733649267</v>
+        <v>53.97678138438135</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>19.27321825488372</v>
+        <v>70.96529441750837</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>19.31285833755796</v>
+        <v>79.29536884139131</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>18.91629914545957</v>
+        <v>17.85158556354874</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>19.23975784664208</v>
+        <v>69.60162955877715</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>19.24522783916515</v>
+        <v>71.90269477472</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>18.87960332579426</v>
+        <v>17.40689073256807</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>18.79597380653075</v>
+        <v>2.073766122764582</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>19.04426042382929</v>
+        <v>39.05252320269831</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>19.06245884417163</v>
+        <v>42.60918923267828</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>18.86688716514146</v>
+        <v>7.975875721982643</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>19.21366326810715</v>
+        <v>69.37245445377613</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>19.2619358171486</v>
+        <v>77.50508355621929</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>19.31076167450932</v>
+        <v>70.9058778070313</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>19.40419896800567</v>
+        <v>86.90914364885506</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>19.44517163319865</v>
+        <v>91.15776948938105</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>18.89482371896304</v>
+        <v>16.36664523379961</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>19.31577109603916</v>
+        <v>75.19679382631676</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>19.34604544839897</v>
+        <v>78.19654037541619</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>18.85058451409685</v>
+        <v>4.42533463722102</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>18.86555820574266</v>
+        <v>6.036532914765754</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>18.87851670687548</v>
+        <v>9.133135137192307</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>18.8099616013486</v>
+        <v>-2.832104802303039</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>18.88019470636084</v>
+        <v>10.845974058888</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>18.88632844070007</v>
+        <v>9.940058321997398</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>18.83531949305753</v>
+        <v>0.261628631866305</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>18.93834877178226</v>
+        <v>18.89747452703868</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>18.94777659758264</v>
+        <v>19.79212032457894</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>18.94911360381035</v>
+        <v>21.64471626439844</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>18.97781329234203</v>
+        <v>27.70028633372817</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>18.97530752219932</v>
+        <v>30.75801834667239</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>18.81826208094198</v>
+        <v>1.811221395234774</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>18.8809073084261</v>
+        <v>7.839470343938441</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>18.91498513470373</v>
+        <v>9.875891564774514</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>18.88396144590234</v>
+        <v>8.924967353079055</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>18.95703159234444</v>
+        <v>23.92304650188628</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>19.00077355096865</v>
+        <v>34.57181724141666</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>18.82914620265402</v>
+        <v>-0.7414955846067635</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>18.92410416084712</v>
+        <v>16.5887901150547</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>18.98377756740149</v>
+        <v>29.48863606322823</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>18.85473992298697</v>
+        <v>4.802704024462773</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>19.01676856947811</v>
+        <v>30.84152860880398</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>19.08385032271107</v>
+        <v>51.45535853525027</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>19.05709897647793</v>
+        <v>34.58734613190595</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>19.12220311785658</v>
+        <v>50.95189689789692</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>19.16698313699265</v>
+        <v>61.9188912930743</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>18.86531322869757</v>
+        <v>7.816981690872041</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>19.07200636442811</v>
+        <v>42.32961880346065</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>19.12276528425184</v>
+        <v>52.77447393762395</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>18.88155989069447</v>
+        <v>9.476365241861602</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>18.99500984383181</v>
+        <v>29.85314842547023</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>19.04595514818581</v>
+        <v>39.27339661199534</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>18.81263881951287</v>
+        <v>0.2351490446967119</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>18.97887238420011</v>
+        <v>29.3897791241272</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>19.02313690311444</v>
+        <v>37.00650491829543</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>18.86457268392011</v>
+        <v>4.167490198828244</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>19.09807933983155</v>
+        <v>48.98585607819352</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>19.17829352671172</v>
+        <v>61.55836182919094</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>19.23563449010926</v>
+        <v>62.03373768575416</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>19.30987658162982</v>
+        <v>73.62982053109484</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>19.35821923398648</v>
+        <v>77.95416075847103</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>18.89128688574099</v>
+        <v>10.6404586541546</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>19.20704796670358</v>
+        <v>60.79264681188939</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>19.28122676837897</v>
+        <v>72.17601878112228</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>18.86172747822553</v>
+        <v>2.513610345320814</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>18.87338649398487</v>
+        <v>6.087920463164057</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>18.88903179581353</v>
+        <v>9.046670801836472</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>18.83278826533242</v>
+        <v>-3.19698637441947</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>18.87844506579887</v>
+        <v>8.66081602602268</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>18.89462798485312</v>
+        <v>9.471994304835421</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>18.84499444572333</v>
+        <v>-0.8439679470445931</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>18.92994861218782</v>
+        <v>15.53740755662544</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>18.94314192313738</v>
+        <v>14.79270106759865</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>18.91701149446321</v>
+        <v>14.68044134845172</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>18.92994338924403</v>
+        <v>16.71994057006299</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>18.9438579130481</v>
+        <v>16.61950473629938</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>18.83677370230217</v>
+        <v>4.41256040393565</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>18.86847574685496</v>
+        <v>12.22398497652058</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>18.89950916017623</v>
+        <v>12.2044647063693</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>18.83800406011364</v>
+        <v>1.369027450730652</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>18.87596954457441</v>
+        <v>5.858417392554514</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>18.90402045224964</v>
+        <v>17.90394408470156</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>18.80199786492163</v>
+        <v>-2.854945107064008</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>18.84312370161743</v>
+        <v>0.2500907502497434</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>18.88898771870094</v>
+        <v>12.03910726728389</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>18.7992139429087</v>
+        <v>-0.09602711977222711</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>18.91040490305266</v>
+        <v>10.00995284287733</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>18.95736171779208</v>
+        <v>28.11224649453278</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>18.90651114096904</v>
+        <v>14.98342905340401</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>18.95006800390463</v>
+        <v>25.05848344169686</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>19.00946565569588</v>
+        <v>41.68951861482269</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>18.79891087126655</v>
+        <v>-1.89557677586409</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>18.92293968653569</v>
+        <v>13.5368245987659</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>18.94786274730657</v>
+        <v>14.02356000255755</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>18.8415011017667</v>
+        <v>5.315293278588875</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>18.8933423189565</v>
+        <v>7.871886312302138</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>18.94257194698845</v>
+        <v>30.17356580224837</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>18.79196001587101</v>
+        <v>-4.97930309398329</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>18.86509944744314</v>
+        <v>2.87251454484845</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>18.91713228955285</v>
+        <v>21.88684728917316</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>18.80491712229912</v>
+        <v>-0.1890574550581832</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>18.95389566521573</v>
+        <v>14.61634501901443</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>19.02828536723469</v>
+        <v>51.26044505645675</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>19.02195671914043</v>
+        <v>20.4772287507449</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>19.06965775186075</v>
+        <v>47.18575079711948</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>19.14254851563381</v>
+        <v>67.12823481330935</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>18.80991624326358</v>
+        <v>-5.137747499419433</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>18.9918596782304</v>
+        <v>11.95468939786002</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>19.05091901424708</v>
+        <v>22.08347826922503</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>18.87076573579182</v>
+        <v>7.168385144841277</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>18.96907838100071</v>
+        <v>23.01403548084384</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>18.99095448026236</v>
+        <v>36.83214868078964</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>18.86386281481025</v>
+        <v>4.433957437092094</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>19.02095204253547</v>
+        <v>45.99489741297003</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>19.03443874285914</v>
+        <v>47.19532312139935</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>18.90263137609449</v>
+        <v>4.469285061701022</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>19.10060067211489</v>
+        <v>69.5438124619553</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>19.11522918436913</v>
+        <v>69.33859214367295</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>19.12113486637394</v>
+        <v>62.98118456413189</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>19.1648789640682</v>
+        <v>70.10583062041655</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>19.16315104051557</v>
+        <v>65.12936786493435</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>18.90010759861743</v>
+        <v>23.18124090300849</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>19.04931990394277</v>
+        <v>41.28469991657867</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>19.10839627187736</v>
+        <v>67.57357066035675</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>18.84920898380867</v>
+        <v>10.01818111206819</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>18.99890587286982</v>
+        <v>34.79238386881389</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>19.02005269366852</v>
+        <v>36.64803665138597</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>18.80014433634131</v>
+        <v>-0.688059074335694</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>18.97527487450655</v>
+        <v>29.13685201529767</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>19.00909412430993</v>
+        <v>33.01142054958932</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>18.84031673129192</v>
+        <v>1.260014436579123</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>19.09466992853639</v>
+        <v>51.97114651461594</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>19.13101354007453</v>
+        <v>55.51484020928071</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>19.11399827356933</v>
+        <v>49.58819289048129</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>19.19135997599148</v>
+        <v>59.06436808090519</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>19.21868315768132</v>
+        <v>63.41027803244921</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>18.86638196300806</v>
+        <v>16.76335055149579</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>19.14606806063187</v>
+        <v>57.24631615035811</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>19.1802700445944</v>
+        <v>57.76324136685673</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>18.84281354888577</v>
+        <v>11.6368758497796</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>19.02636536822412</v>
+        <v>35.4690472762105</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>19.05778774608563</v>
+        <v>44.22261622285627</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>18.78671655953776</v>
+        <v>2.7741709950662</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>19.02159630686311</v>
+        <v>39.16910923061275</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>19.04410060259352</v>
+        <v>43.30338184167317</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>18.8477892828367</v>
+        <v>6.20121325821945</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>19.16526775140389</v>
+        <v>64.06335507636621</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>19.21839087043508</v>
+        <v>75.33386752566267</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>19.26904654641495</v>
+        <v>71.17849072900985</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>19.35385554848304</v>
+        <v>81.83492169081478</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>19.38069169782472</v>
+        <v>85.32798891163779</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>18.87258659147607</v>
+        <v>15.31048433256613</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>19.2582022941101</v>
+        <v>70.67180299349974</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>19.31552449891635</v>
+        <v>78.61279749833255</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>18.87087071403155</v>
+        <v>4.566134902349045</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>18.8720951056575</v>
+        <v>9.348094221975543</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>18.89366204082319</v>
+        <v>12.33345497633864</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>18.83215604239715</v>
+        <v>-1.492816282050821</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>18.86522841627137</v>
+        <v>8.519281136644445</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>18.88524824490954</v>
+        <v>10.01175776895839</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>18.84546935038325</v>
+        <v>1.862239668791467</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>18.91561330558684</v>
+        <v>14.65861077547842</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>18.93637942213882</v>
+        <v>19.08543826244761</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>18.91105914551252</v>
+        <v>18.19146603779464</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>18.92673498669155</v>
+        <v>22.24613982528914</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>18.9426315919046</v>
+        <v>25.53568479962272</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>18.82731377209527</v>
+        <v>2.978731009029719</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>18.86931512979983</v>
+        <v>12.64566288292567</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>18.89190485480459</v>
+        <v>11.1513178678658</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>18.8658940853584</v>
+        <v>4.285539116625024</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>18.89760647790302</v>
+        <v>14.29130492880027</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>18.95564292274538</v>
+        <v>27.83320183627058</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>18.81908748715403</v>
+        <v>-2.27045913070425</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>18.85216090908276</v>
+        <v>6.369479459829041</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>18.93075916590348</v>
+        <v>23.22449691933251</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>18.82216297428524</v>
+        <v>0.8609108802716605</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>18.91977589588867</v>
+        <v>12.60574289518476</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>19.00116608767449</v>
+        <v>41.48450486494978</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>18.92461705656709</v>
+        <v>17.2297758010879</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>18.96626539737231</v>
+        <v>29.33146019239508</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>19.04464945175828</v>
+        <v>42.20630121155569</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>18.80828170849412</v>
+        <v>0.7592255604960236</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>18.93752833230254</v>
+        <v>24.33681618556</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>18.99897311209594</v>
+        <v>37.02569242257582</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>18.88271588403138</v>
+        <v>11.44063845163809</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>18.93782314110353</v>
+        <v>21.93814714080641</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>19.01246488922189</v>
+        <v>36.92537458624953</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>18.81807003804603</v>
+        <v>1.505436573773078</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>18.89785361181228</v>
+        <v>15.73912054613895</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>18.97469575616688</v>
+        <v>30.62972110379336</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>18.84282811942871</v>
+        <v>7.201060783115071</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>18.98906537678657</v>
+        <v>28.86840228345987</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>19.09335604326374</v>
+        <v>53.95731943406847</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>19.06254885202474</v>
+        <v>33.09091007516594</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>19.11643999932821</v>
+        <v>42.79224919148928</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>19.21452881474911</v>
+        <v>68.49817131470911</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>18.84002711296127</v>
+        <v>16.13276478620353</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>19.04927927544765</v>
+        <v>38.55461821729261</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>19.14320860535481</v>
+        <v>56.08577475834387</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>18.82653615482431</v>
+        <v>3.221774241793547</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>18.87160649137962</v>
+        <v>-0.7014316783568582</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>18.87881729831269</v>
+        <v>5.0483192030146</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>18.78880384185338</v>
+        <v>-4.471120209014092</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>18.86683483958827</v>
+        <v>2.470352740066282</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>18.87088356257755</v>
+        <v>3.267838995616518</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>18.81561994639481</v>
+        <v>3.747659745519258</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>18.93973898093123</v>
+        <v>12.05101049119887</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>18.94330768094189</v>
+        <v>12.31100570820763</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>18.92805424319125</v>
+        <v>3.396961032411461</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>18.95064467896399</v>
+        <v>3.800934658855269</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>18.94287908398959</v>
+        <v>16.28141552729051</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>18.79042406086441</v>
+        <v>-2.365504703304758</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>18.87166259562175</v>
+        <v>-4.356991773909364</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>18.88184936370573</v>
+        <v>1.723237906552079</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>18.89391392022475</v>
+        <v>17.19499211973398</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>18.99243298964199</v>
+        <v>37.46391778268472</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>19.00283883022835</v>
+        <v>39.17907614783536</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>18.85018026991254</v>
+        <v>4.659043585258981</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>18.9561484565386</v>
+        <v>27.95071386229137</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>18.98250394867074</v>
+        <v>34.05067921154471</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>18.87366018737237</v>
+        <v>9.504579059710192</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>19.05425734075554</v>
+        <v>51.134866327564</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>19.08082853761166</v>
+        <v>58.18688272656586</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>19.07898403251377</v>
+        <v>48.7369480989757</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>19.13858452430255</v>
+        <v>57.08368430646598</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>19.16082772265364</v>
+        <v>62.89861957671476</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>18.89845831413636</v>
+        <v>14.55948734835261</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>19.09934820671927</v>
+        <v>54.34094873536027</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>19.11054770317763</v>
+        <v>53.50710478847657</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>18.89476236933842</v>
+        <v>17.07962845200609</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>19.01977039647816</v>
+        <v>38.63605698593243</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>19.04324569564197</v>
+        <v>45.94236058077464</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>18.8251574184682</v>
+        <v>2.502397911865906</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>18.97897798304253</v>
+        <v>34.72800408165917</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>18.99935384566653</v>
+        <v>38.52083512013676</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>18.87180683442554</v>
+        <v>8.208446792054943</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>19.10419482067664</v>
+        <v>62.13388866948966</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>19.15025280495172</v>
+        <v>70.68384054098004</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>19.19521461154016</v>
+        <v>67.0801740817687</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>19.26279316633881</v>
+        <v>77.93022891164108</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>19.29506374115623</v>
+        <v>83.43021751859763</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>18.89387160521929</v>
+        <v>14.47722059505448</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>19.18646862073873</v>
+        <v>65.93106395433914</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>19.21852713135408</v>
+        <v>69.76717184740988</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>18.88953024794601</v>
+        <v>10.61804255102627</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>18.89731444595035</v>
+        <v>14.51156376780138</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>18.90607707998316</v>
+        <v>15.34456518516264</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>18.85201416177767</v>
+        <v>0.9731454865487095</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>18.89353816928094</v>
+        <v>14.066047121048</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>18.89939816837289</v>
+        <v>12.22815898150762</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>18.86858103177018</v>
+        <v>9.502157909942039</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>18.94378787002463</v>
+        <v>26.96676576715099</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>18.94973384817466</v>
+        <v>23.58813479885405</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>18.94340044749906</v>
+        <v>23.45854594963293</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>18.95080169250877</v>
+        <v>28.58224200066232</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>18.95353105774484</v>
+        <v>28.5837283702405</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>18.8672229561421</v>
+        <v>10.3641453642975</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>18.89690537630112</v>
+        <v>16.02445215292376</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>18.91103874551046</v>
+        <v>14.78612021413638</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>18.8615193503055</v>
+        <v>5.067184266922098</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>18.89086770915969</v>
+        <v>11.56205944984368</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>18.91445762751678</v>
+        <v>19.13172390613949</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>18.81529214095648</v>
+        <v>-4.831809997133469</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>18.84901514002339</v>
+        <v>1.106635173006492</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>18.88894951428049</v>
+        <v>13.27892362824806</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>18.82059226070102</v>
+        <v>-3.1828649229994</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>18.91660077688652</v>
+        <v>9.537146669564443</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>18.95739910392615</v>
+        <v>27.82972296761891</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>18.91883174620742</v>
+        <v>13.29387912329312</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>18.93863598017126</v>
+        <v>20.50576611708884</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>18.97708610568431</v>
+        <v>28.91592713595254</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>18.81483340685011</v>
+        <v>-2.790215412889292</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>18.91141494505533</v>
+        <v>14.40237230312799</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>18.93492596904493</v>
+        <v>19.12814665140423</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>18.89630645992655</v>
+        <v>15.56611010138397</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>18.95792868293181</v>
+        <v>27.71438229943817</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>18.98518526693412</v>
+        <v>32.23060538329365</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>18.82277295895418</v>
+        <v>0.1360349126020814</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>18.91151720189245</v>
+        <v>18.97148595257922</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>18.93675284566723</v>
+        <v>23.21529379998029</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>18.85359573726634</v>
+        <v>5.423142044142701</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>19.00644178723733</v>
+        <v>39.02603074835183</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>19.05618316745789</v>
+        <v>48.27522666841615</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>19.0729916182092</v>
+        <v>45.22576228423702</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>19.09971831997244</v>
+        <v>48.58249561119364</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>19.14437989592057</v>
+        <v>62.80843356839323</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>18.85378711536008</v>
+        <v>13.60708912810981</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>19.04256322677295</v>
+        <v>40.59409806777548</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>19.07766959209847</v>
+        <v>44.31422030346427</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>18.87083525826007</v>
+        <v>3.750450916146558</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>18.85995856900293</v>
+        <v>3.586342742046067</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>18.85842386447327</v>
+        <v>2.275022855297504</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>18.83194350697836</v>
+        <v>-2.263832653211253</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>18.84956915869703</v>
+        <v>2.005585259170122</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>18.84641755086604</v>
+        <v>-0.5126928490798832</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>18.83653333855419</v>
+        <v>5.331579805781313</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>18.8909630282141</v>
+        <v>8.381856981742668</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>18.88680832438143</v>
+        <v>3.960604691032579</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>18.86607956095489</v>
+        <v>0.891611493598738</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>18.86515082315536</v>
+        <v>2.620965332642474</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>18.86560862427705</v>
+        <v>5.802493009570842</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>18.82880317026061</v>
+        <v>5.254374358170974</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>18.83778711054342</v>
+        <v>6.294453869201881</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>18.83510564905202</v>
+        <v>3.988515416899055</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>18.84595685295583</v>
+        <v>0.8700467341548475</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>18.85367443356132</v>
+        <v>2.415808758452961</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>18.86368564987993</v>
+        <v>3.475071987213351</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>18.80842350423564</v>
+        <v>-3.744143806178702</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>18.81541688436334</v>
+        <v>-4.798374332747709</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>18.84315666187847</v>
+        <v>0.1721056399926937</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>18.79649736115767</v>
+        <v>-2.896710578805433</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>18.86817854660043</v>
+        <v>0.8629675449683596</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>18.89556847199963</v>
+        <v>6.902817957164022</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>18.84319456948795</v>
+        <v>4.014826591789259</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>18.85712098048537</v>
+        <v>7.832507971755504</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>18.89215658103853</v>
+        <v>7.785095842236966</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>18.78405838928017</v>
+        <v>-4.306303996861228</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>18.85500623918442</v>
+        <v>3.6960359286266</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>18.85936200592119</v>
+        <v>3.658267371581541</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>18.89639599218535</v>
+        <v>16.62048966950002</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>18.93066467726547</v>
+        <v>21.75033831600597</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>18.94814374498893</v>
+        <v>23.3796910825967</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>18.82243827895588</v>
+        <v>3.013237495885335</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>18.87888834398672</v>
+        <v>12.18688450990467</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>18.89638165880783</v>
+        <v>14.20744596540785</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>18.83814769721812</v>
+        <v>7.639403945222522</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>18.96126469920806</v>
+        <v>29.57605623745914</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>19.00147084578999</v>
+        <v>32.37743302157848</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>18.99713750903593</v>
+        <v>29.74677274825847</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>19.01767144321438</v>
+        <v>33.33969803043041</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>19.06115950097118</v>
+        <v>41.84430411406918</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>18.832183776005</v>
+        <v>20.9283729096601</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>18.98798684206918</v>
+        <v>29.15484132342318</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>19.00801970225823</v>
+        <v>31.10702349755457</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>18.92356857539163</v>
+        <v>21.52535575779862</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>18.94905200511929</v>
+        <v>31.69335760958507</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>18.96547749103468</v>
+        <v>36.57944489172982</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>18.87445659693503</v>
+        <v>4.545182351539506</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>18.93732306520922</v>
+        <v>23.80834402262849</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>18.95275861508003</v>
+        <v>28.92681857859915</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>18.90624734473585</v>
+        <v>13.82879393972941</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>19.00460282726115</v>
+        <v>45.93219979822871</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>19.01802002975845</v>
+        <v>48.63013010814976</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>19.01767333317138</v>
+        <v>43.37249201948116</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>19.03421447861517</v>
+        <v>50.53453845746522</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>19.03720480896538</v>
+        <v>53.44822022997008</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>18.937183833681</v>
+        <v>31.28083760120032</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>18.99139675808824</v>
+        <v>56.95710951393455</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>19.02753559779017</v>
+        <v>59.89385424518088</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>18.89539845802206</v>
+        <v>12.23473358770892</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>18.95104149062711</v>
+        <v>24.41426521396406</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>18.97906486808632</v>
+        <v>28.89013984655472</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>18.82337839740409</v>
+        <v>-3.519985051413084</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>18.88435483653707</v>
+        <v>7.86350047336013</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>18.92907231284473</v>
+        <v>15.32770847549422</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>18.84667722783009</v>
+        <v>3.111750636782961</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>18.97433871839441</v>
+        <v>26.3942238712585</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>19.02081529078641</v>
+        <v>37.22277844246464</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>18.98649600085619</v>
+        <v>28.77637273496666</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>19.0305366398405</v>
+        <v>37.20912551831827</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>19.06895118005635</v>
+        <v>45.35351939616656</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>18.87477390712209</v>
+        <v>15.44970306627875</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>19.02595918202863</v>
+        <v>43.30280140527351</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>19.05737884405748</v>
+        <v>48.66117793658984</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>18.92326279772189</v>
+        <v>23.27857126484729</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>19.00334176097357</v>
+        <v>37.39731440656303</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>19.04205166880029</v>
+        <v>45.43547741912143</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>18.83544186928974</v>
+        <v>3.017721903311621</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>18.94120525775192</v>
+        <v>22.69073714125775</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>18.97953411118101</v>
+        <v>29.48360151683785</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>18.87762941995066</v>
+        <v>13.14546058421717</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>19.05440656964825</v>
+        <v>48.77162197554556</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>19.11734257641343</v>
+        <v>60.36956763470187</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>19.14541386306838</v>
+        <v>64.65953673110263</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>19.1943112522368</v>
+        <v>70.599903928402</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>19.23781604869056</v>
+        <v>75.72787872327919</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>18.92006317550371</v>
+        <v>28.67909345100517</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>19.13931276289769</v>
+        <v>57.75466253888519</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>19.19685547002209</v>
+        <v>68.59654283646017</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>18.90475064903784</v>
+        <v>13.12121773519157</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>18.96199560887301</v>
+        <v>33.79651921711106</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>18.98257800719508</v>
+        <v>40.12762994967709</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>18.87864370743432</v>
+        <v>5.527830810742202</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>18.9705409403702</v>
+        <v>38.25094274340506</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>18.98888909797426</v>
+        <v>40.99329762227241</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>18.90610943288101</v>
+        <v>12.58437531395422</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>19.03282395779308</v>
+        <v>58.59211372598054</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>19.05134749012994</v>
+        <v>61.92308382369445</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>19.05228293085264</v>
+        <v>61.99171354790961</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>19.08698300462246</v>
+        <v>70.56942768075592</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>19.09243283251978</v>
+        <v>67.28700038563667</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>18.90048734271108</v>
+        <v>12.97097292442186</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>19.00943047811268</v>
+        <v>43.49466757661788</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>19.04219763283226</v>
+        <v>51.28921108988432</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>18.87765681059511</v>
+        <v>9.548965200002362</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>18.96410205567776</v>
+        <v>30.99162510970944</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>19.00106948225316</v>
+        <v>36.16711807167444</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>18.84341326761725</v>
+        <v>3.768066577792283</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>18.93658108288021</v>
+        <v>24.96561782597102</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>18.99059758899308</v>
+        <v>34.90108591167591</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>18.86172904360796</v>
+        <v>7.001432378183253</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>19.01710484656729</v>
+        <v>41.01850159286845</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>19.07192511323824</v>
+        <v>55.46589546541104</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>19.04034882670131</v>
+        <v>45.7298613597107</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>19.10316131330047</v>
+        <v>54.34928007999595</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>19.14677875256204</v>
+        <v>62.01544894600429</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>18.85945341789127</v>
+        <v>6.717488403746451</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>19.0509414813309</v>
+        <v>49.56665811574359</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>19.1000954052033</v>
+        <v>53.19593766826406</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>18.87187877890118</v>
+        <v>9.342784331823577</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>18.98387801101859</v>
+        <v>30.15578143713986</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>19.0347399144375</v>
+        <v>42.21596626248675</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>18.82174441129979</v>
+        <v>0.733054872412545</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>18.96075534181256</v>
+        <v>28.10371435527153</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>19.01183215644514</v>
+        <v>39.21173509008684</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>18.8591278191761</v>
+        <v>4.883714148132334</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>19.06292918475335</v>
+        <v>47.24299155316753</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>19.13774158113204</v>
+        <v>67.68008242160695</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>19.14264685170125</v>
+        <v>56.44751271433123</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>19.2191885333107</v>
+        <v>68.36269561277328</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>19.27802895730342</v>
+        <v>84.27991133614942</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>18.85537502729177</v>
+        <v>5.637131385818609</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>19.13113245121818</v>
+        <v>55.88263410302648</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>19.206753593559</v>
+        <v>66.45022006466345</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>18.89108626973856</v>
+        <v>8.548663038672061</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>18.94421676516029</v>
+        <v>25.26073504213691</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>18.96023438834174</v>
+        <v>35.20650729696908</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>18.87525856369156</v>
+        <v>4.24977569818974</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>18.96526488706998</v>
+        <v>42.83943576436801</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>18.9793089892721</v>
+        <v>48.33455970111221</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>18.89741174515716</v>
+        <v>7.21804991997233</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>19.01895278753232</v>
+        <v>68.61757828209439</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>19.03156243734253</v>
+        <v>67.30426043905909</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>19.02491879659433</v>
+        <v>61.9602770996858</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>19.05069637336041</v>
+        <v>63.33735475569603</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>19.05583799143427</v>
+        <v>62.9186991869335</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>18.89952818186278</v>
+        <v>9.766646109849443</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>18.98561785633244</v>
+        <v>32.74521670890405</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>19.02896736822322</v>
+        <v>64.79552066850448</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>18.88216225404653</v>
+        <v>9.620130710320026</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>18.97148899102655</v>
+        <v>33.14200600279473</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>18.9942836025459</v>
+        <v>36.57516051616409</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>18.84420679053001</v>
+        <v>-0.7760785730827635</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>18.94331268315874</v>
+        <v>25.82677158562862</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>18.98001897793343</v>
+        <v>33.55800220045851</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>18.85985463975987</v>
+        <v>-0.1746831411238361</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>19.0188096035971</v>
+        <v>47.75563040187561</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>19.05627300441578</v>
+        <v>55.62784754592064</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>19.03376108134306</v>
+        <v>45.34433398785009</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>19.09057168547087</v>
+        <v>55.84202563421609</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>19.12802221635499</v>
+        <v>63.06727062203608</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>18.87539632533682</v>
+        <v>6.092703546550538</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>19.06282988068859</v>
+        <v>50.79603389138202</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>19.09614646800026</v>
+        <v>57.13005964754271</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>18.88183422654376</v>
+        <v>11.1603805294039</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>18.991600689014</v>
+        <v>34.41683580845142</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>19.02395834967964</v>
+        <v>42.79177230498228</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>18.83897658045199</v>
+        <v>0.6768230207093637</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>18.97569343598978</v>
+        <v>33.60510058830017</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>19.00757168082612</v>
+        <v>41.89309490748847</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>18.86683462846932</v>
+        <v>2.812709006637803</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>19.06732205196682</v>
+        <v>56.57671870385928</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>19.11945903497817</v>
+        <v>68.82173654871981</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>19.14810511398697</v>
+        <v>68.58675674526935</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>19.20995433102077</v>
+        <v>80.70262620480392</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>19.24990506710893</v>
+        <v>83.72794052317857</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>18.89167012091886</v>
+        <v>9.087889787802219</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>19.1404727318766</v>
+        <v>64.91477565734175</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>19.19633506731017</v>
+        <v>71.5875295991498</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>18.91852210822427</v>
+        <v>16.92426593671563</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>18.94484080945875</v>
+        <v>24.35287290215152</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>18.954933052524</v>
+        <v>38.07471696304714</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>18.91895841859025</v>
+        <v>12.99621387023086</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>18.9733354238312</v>
+        <v>51.28886983141143</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>18.9832279055166</v>
+        <v>56.81040785011717</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>18.92462957047916</v>
+        <v>16.019528233627</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>18.99952258309164</v>
+        <v>67.78346549890651</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>19.00755126244876</v>
+        <v>72.92247181381032</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>19.00270464905209</v>
+        <v>59.14730979046345</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>19.01558381342499</v>
+        <v>59.31081132275619</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>19.02077047958996</v>
+        <v>59.7911572455051</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>18.93345438570449</v>
+        <v>16.50935715636466</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>18.97434875213377</v>
+        <v>28.03239241840125</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>19.00529998445357</v>
+        <v>50.6618489764996</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>18.91943121826034</v>
+        <v>23.4601556804113</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>18.9688600534186</v>
+        <v>35.39015935325788</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>18.98530572475898</v>
+        <v>41.73133800520988</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>18.9193162860047</v>
+        <v>35.17695615425372</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>18.97631526360798</v>
+        <v>49.13866408231723</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>19.00418990500899</v>
+        <v>59.54557875912044</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>18.90934755627294</v>
+        <v>12.56111603129975</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>19.00781565781924</v>
+        <v>49.29260573502789</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>19.03577595259807</v>
+        <v>61.4985791352083</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>19.019485405666</v>
+        <v>47.5950638221246</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>19.05383633635157</v>
+        <v>55.82505511938017</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>19.08436131311369</v>
+        <v>60.65005335298149</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>18.92700841108339</v>
+        <v>25.21702366929995</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>19.0355450279079</v>
+        <v>52.76857226818736</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>19.06170869666252</v>
+        <v>58.53961415318719</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>18.92206263796366</v>
+        <v>23.38791437755042</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>18.98416534457868</v>
+        <v>38.54072406736238</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>19.00771131244568</v>
+        <v>44.33535950983917</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>18.91921313397669</v>
+        <v>35.92130024554612</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>19.00093969426243</v>
+        <v>57.11183088534388</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>19.02547256549314</v>
+        <v>62.22545331642722</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>18.91749559844603</v>
+        <v>16.86587611968166</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>19.04411599610718</v>
+        <v>64.16981417607721</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>19.08290439868489</v>
+        <v>71.28589413023229</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>19.10582017519008</v>
+        <v>79.09300946066222</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>19.14175906181102</v>
+        <v>80.33224012761494</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>19.17567493021297</v>
+        <v>83.60977911793762</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>18.9442260248028</v>
+        <v>26.59684753211867</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>19.09175375350101</v>
+        <v>67.04000870437571</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>19.13538892383292</v>
+        <v>75.96372667403499</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>18.89151989576741</v>
+        <v>8.435361599216414</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>18.93993226891508</v>
+        <v>27.81628621449559</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>18.9585903693991</v>
+        <v>35.79821311691054</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>18.86989783782857</v>
+        <v>3.194056208845886</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>18.94768310753841</v>
+        <v>27.86230109942643</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>18.96529619830052</v>
+        <v>35.40894368131302</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>18.8938590233591</v>
+        <v>8.641012287272357</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>19.00908737502629</v>
+        <v>54.57955291737412</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>19.02562468455755</v>
+        <v>57.69464297114752</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>19.03257858642957</v>
+        <v>60.40466738103842</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>19.05810649042499</v>
+        <v>62.97562478760763</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>19.05740930592368</v>
+        <v>62.34348946409377</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>18.8853484839601</v>
+        <v>6.573055891884358</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>18.98180038409066</v>
+        <v>43.82522429567292</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>19.00975403168135</v>
+        <v>45.83539573374613</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>18.88096759295442</v>
+        <v>10.81190472350443</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>18.95942904157041</v>
+        <v>35.92291849203812</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>18.98593906145703</v>
+        <v>36.96236141427496</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>18.8445487120772</v>
+        <v>4.142560365728947</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>18.92737962419579</v>
+        <v>30.26413219356963</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>18.96958320798754</v>
+        <v>34.80665086786431</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>18.86068383998645</v>
+        <v>5.980844635528737</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>19.00575533307259</v>
+        <v>47.88194609113285</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>19.04873436011471</v>
+        <v>56.3771571523921</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>19.03129711637861</v>
+        <v>47.22486639788379</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>19.08258370603794</v>
+        <v>57.03406176628231</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>19.1139584314132</v>
+        <v>61.72195679430065</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>18.86008294987154</v>
+        <v>7.80943251816452</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>19.04015028333541</v>
+        <v>46.83730317297503</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>19.0741854212736</v>
+        <v>55.90276904759885</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>18.87921792494549</v>
+        <v>10.12081604316388</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>18.97470191565522</v>
+        <v>32.31762865951034</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>19.01657556028893</v>
+        <v>42.46194550880261</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>18.8315545959494</v>
+        <v>-0.08118924657442506</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>18.94854849382185</v>
+        <v>28.8584672087955</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>18.99081851856022</v>
+        <v>36.9661222288174</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>18.86302938995013</v>
+        <v>2.433117759878829</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>19.04614230455295</v>
+        <v>48.05835209885765</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>19.1103767825744</v>
+        <v>66.35552444686996</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>19.13513070400622</v>
+        <v>60.38341064599371</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>19.1969650253163</v>
+        <v>73.59109493801947</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>19.23984036006528</v>
+        <v>82.88860206422804</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>18.86756787921441</v>
+        <v>5.504617385593061</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>19.11544589176927</v>
+        <v>60.52171294443106</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>19.17623669991888</v>
+        <v>68.71700612764184</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>18.88836867045081</v>
+        <v>10.63493604213314</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>18.89686974344041</v>
+        <v>13.16111332245218</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>18.90861289456508</v>
+        <v>17.33358616040683</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>18.85371940972577</v>
+        <v>1.884351346040461</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>18.89474425935545</v>
+        <v>13.76475522804542</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>18.9066384200081</v>
+        <v>16.18086789086218</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>18.87102806222182</v>
+        <v>7.835909766438579</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>18.93897589807829</v>
+        <v>24.9607203626592</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>18.94968397076911</v>
+        <v>28.06188894083308</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>18.93732716928657</v>
+        <v>24.46693985969588</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>18.94941773936065</v>
+        <v>27.96199560517904</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>18.96091198776725</v>
+        <v>30.97111856679157</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>18.86622892916264</v>
+        <v>11.31201852522273</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>18.90175641939393</v>
+        <v>18.00869415148921</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>18.92246821078395</v>
+        <v>22.02837703038992</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>18.88642929411225</v>
+        <v>8.041343345110867</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>18.92735409395275</v>
+        <v>20.40034369673918</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>18.96352963477224</v>
+        <v>31.1253855437832</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>18.84497217662741</v>
+        <v>-0.1190926571001967</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>18.89172295454129</v>
+        <v>12.49041162496521</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>18.94520612242272</v>
+        <v>26.28470448141044</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>18.85424530799841</v>
+        <v>3.660920323087243</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>18.95376940031832</v>
+        <v>24.25511904366492</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>19.00832500728136</v>
+        <v>45.64469481548005</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>18.96880545019794</v>
+        <v>27.49021805746432</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>19.00391857009999</v>
+        <v>39.63430646658253</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>19.06453667219409</v>
+        <v>54.29207186287083</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>18.85403151434184</v>
+        <v>4.955520928714265</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>18.98237250853353</v>
+        <v>35.33962183032912</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>19.021669752161</v>
+        <v>46.99412950834055</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>18.89545059450611</v>
+        <v>13.85883095043549</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>18.95563575423554</v>
+        <v>27.92088859697002</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>19.00251590021358</v>
+        <v>40.41165015025443</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>18.83998514957973</v>
+        <v>1.670500943177327</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>18.92350923030003</v>
+        <v>20.96333777384778</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>18.97461986372853</v>
+        <v>34.76892752201182</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>18.86261763825444</v>
+        <v>7.211382058126475</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>19.00196056505724</v>
+        <v>38.14026627344215</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>19.07213247655397</v>
+        <v>58.11143388925511</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>19.07107798399896</v>
+        <v>48.56212685995982</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>19.11021734828345</v>
+        <v>56.63045574209203</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>19.17759425616665</v>
+        <v>69.02103022002305</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>18.86290154078669</v>
+        <v>5.208528623066663</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>19.04944995041704</v>
+        <v>40.31025508227012</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>19.11622202904383</v>
+        <v>62.63140997598652</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>18.90326784234988</v>
+        <v>16.2323621550107</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>18.92426282046524</v>
+        <v>21.38734223313993</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>18.93575645882217</v>
+        <v>28.09896632576296</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>18.88959996255041</v>
+        <v>1.858104006078879</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>18.93749021375221</v>
+        <v>30.02542415395926</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>18.94938524918308</v>
+        <v>33.85833214570722</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>18.90176640626555</v>
+        <v>13.4900887535773</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>18.96988641268842</v>
+        <v>46.49211133028207</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>18.97963876943433</v>
+        <v>48.18571781014685</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>18.96734145525292</v>
+        <v>36.02138756513554</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>18.97879560204818</v>
+        <v>40.58031765127606</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>18.98708213299846</v>
+        <v>43.7179872302717</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>18.90503898754202</v>
+        <v>10.49859197892379</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>18.9423968173238</v>
+        <v>37.35727800863232</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>18.9742275240794</v>
+        <v>42.50819285469545</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>18.89114785684596</v>
+        <v>10.09177507282732</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>18.93353313621245</v>
+        <v>24.19339986598576</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>18.95540449598087</v>
+        <v>36.20238609455998</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>18.87276437631644</v>
+        <v>3.273239642441638</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>18.9213359174497</v>
+        <v>20.01794096640243</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>18.95566540222183</v>
+        <v>40.40907195868385</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>18.87268526919448</v>
+        <v>2.647324474667759</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>18.96217387982801</v>
+        <v>32.39607846789876</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>18.99606067472151</v>
+        <v>52.61859387956064</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>18.96538672238028</v>
+        <v>29.80473100999117</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>18.99738036049542</v>
+        <v>41.74493948102278</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>19.03424555910841</v>
+        <v>59.28921888266365</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>18.87845100820945</v>
+        <v>6.494301303470628</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>18.98124545842022</v>
+        <v>39.7311414219473</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>19.01338944971822</v>
+        <v>48.65028226181239</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>18.88432837450156</v>
+        <v>14.48706040551652</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>18.9392085618393</v>
+        <v>26.8514260527621</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>18.96820601008429</v>
+        <v>36.60192536260932</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>18.86066770708033</v>
+        <v>3.098515188510799</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>18.93387365879095</v>
+        <v>23.83743335620399</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>18.96489183913837</v>
+        <v>36.97322488455799</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>18.86983249118684</v>
+        <v>7.965816701229755</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>18.98718205517562</v>
+        <v>42.94933905163347</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>19.03187415856301</v>
+        <v>56.23474060471526</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>19.03703751820296</v>
+        <v>53.56473577762664</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>19.07003509462912</v>
+        <v>59.01052327346769</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>19.11081895097013</v>
+        <v>71.13842846837667</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>18.88192384628906</v>
+        <v>4.921401914508088</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>19.02246973731026</v>
+        <v>38.38742460021989</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>19.0729646704403</v>
+        <v>57.60145367489315</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>18.90322908852153</v>
+        <v>15.6310082624812</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>18.95612493165676</v>
+        <v>28.10575280332203</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>18.96927871029832</v>
+        <v>37.14337275463507</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>18.88869926281452</v>
+        <v>5.25077191985978</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>18.99147279087751</v>
+        <v>42.70976522427662</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>19.00300996910093</v>
+        <v>47.52391656561254</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>18.9191755502662</v>
+        <v>14.4608702874006</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>19.04769526275528</v>
+        <v>65.35542259733319</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>19.05567168294449</v>
+        <v>66.53389497483067</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>19.07333149195301</v>
+        <v>60.00682507106979</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>19.0920761522282</v>
+        <v>58.80785267206861</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>19.09092035273801</v>
+        <v>62.52345512923382</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>18.92418220471864</v>
+        <v>15.9952282699412</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>19.00509561791876</v>
+        <v>22.08828521391112</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>19.05261190484497</v>
+        <v>66.61975683020407</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>18.90206043592081</v>
+        <v>21.96861337608531</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>18.98825993399512</v>
+        <v>38.18026630267627</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>19.00411589379689</v>
+        <v>40.23849117078871</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>18.86214732683119</v>
+        <v>5.379534763100402</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>18.97019306804442</v>
+        <v>29.28320438789546</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>19.0030937454043</v>
+        <v>35.68776732919755</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>18.88823166302251</v>
+        <v>10.4568644878244</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>19.0524322007291</v>
+        <v>49.39036701286805</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>19.08224030675988</v>
+        <v>56.88627625009813</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>19.08431039038902</v>
+        <v>51.19214802437409</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>19.12354499335957</v>
+        <v>57.30682255093323</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>19.14817860973087</v>
+        <v>62.42552023508748</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>18.90490318633</v>
+        <v>20.15665435050782</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>19.08106793260656</v>
+        <v>53.24301660898681</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>19.11185374751291</v>
+        <v>58.0040519768261</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>18.88968524366323</v>
+        <v>22.96681147049868</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>18.99946557165233</v>
+        <v>39.56389522606266</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>19.02397113263451</v>
+        <v>44.5400994307822</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>18.8385862341693</v>
+        <v>4.579805074634525</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>18.98923535414453</v>
+        <v>34.36279334830097</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>19.01547919854625</v>
+        <v>39.40320114539364</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>18.88199975973838</v>
+        <v>12.79609552149275</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>19.09299353060426</v>
+        <v>60.29843448585146</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>19.13663744255343</v>
+        <v>70.12041274515019</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>19.19109059956907</v>
+        <v>70.99354022480475</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>19.23236826191684</v>
+        <v>75.08512759199877</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>19.26324421850028</v>
+        <v>81.50957113562458</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>18.89401379421171</v>
+        <v>18.51167609042691</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>19.1427220531721</v>
+        <v>60.33177154893593</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>19.19564881731092</v>
+        <v>70.96452733396936</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>18.89141958111808</v>
+        <v>7.708597743072623</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>18.94536583327909</v>
+        <v>24.71516796312785</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>18.96156257440234</v>
+        <v>32.06426956904755</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>18.87014329017404</v>
+        <v>2.539117057236229</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>18.95545695961089</v>
+        <v>30.84895438220392</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>18.97108139440604</v>
+        <v>32.99666070658424</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>18.8924871956537</v>
+        <v>7.860506396326713</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>19.01498462080073</v>
+        <v>50.96697247057065</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>19.02857875993674</v>
+        <v>54.96905265722835</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>19.03895074195184</v>
+        <v>55.91312972578792</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>19.06587504909283</v>
+        <v>61.23657965423059</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>19.06628073964116</v>
+        <v>59.89752694518807</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>18.88165083913092</v>
+        <v>6.056077566629043</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>18.98431403518568</v>
+        <v>37.07735982544898</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>19.01132308766105</v>
+        <v>39.64738242653803</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>18.88717101887254</v>
+        <v>9.338908400146686</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>18.97314614332038</v>
+        <v>32.18854043268529</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>18.99750625993318</v>
+        <v>35.33356087143741</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>18.85071077173289</v>
+        <v>2.355905956488254</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>18.9415702133801</v>
+        <v>26.80388755793343</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>18.98340683089593</v>
+        <v>33.6624121708687</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>18.86659240081176</v>
+        <v>7.280585080863386</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>19.02138234848219</v>
+        <v>45.48366137027768</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>19.06177409914473</v>
+        <v>60.01763400366638</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>19.05031119738557</v>
+        <v>48.08944168843605</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>19.10233904311666</v>
+        <v>58.47750235232813</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>19.1391469631289</v>
+        <v>64.09231488423276</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>18.86556299542984</v>
+        <v>7.189405525453729</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>19.05821756366326</v>
+        <v>55.02782960187161</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>19.0904710073277</v>
+        <v>54.42935662737003</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>18.8760945036964</v>
+        <v>11.61558859842607</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>18.97736602583264</v>
+        <v>30.53517065127934</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>19.01803099625909</v>
+        <v>42.09875664042914</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>18.82149782172854</v>
+        <v>0.9771483021921483</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>18.94432254864475</v>
+        <v>25.97902783114701</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>18.98742882524118</v>
+        <v>36.77975138914805</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>18.85307389500407</v>
+        <v>5.805237294083675</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>19.04443337635438</v>
+        <v>44.64331319002831</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>19.10689844933748</v>
+        <v>67.14229027109391</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>19.13356699301103</v>
+        <v>61.32390361404605</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>19.1914300727359</v>
+        <v>70.61325074455338</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>19.24092862464336</v>
+        <v>81.75798916015879</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>18.84989471872772</v>
+        <v>5.4979104317637</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>19.10501317286691</v>
+        <v>51.24512448372334</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>19.16684266281408</v>
+        <v>65.72833248914242</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8.670510314787666</v>
+        <v>8.670510314787697</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>10.99983022789348</v>
+        <v>10.99983022789345</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>15.56910140186802</v>
+        <v>15.56910140186804</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-2.747877908200806</v>
+        <v>-2.747877908200728</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>12.60417189306255</v>
+        <v>12.60417189306311</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>16.0255219002051</v>
+        <v>16.02552190020478</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.7886495591485527</v>
+        <v>0.7886495591487446</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>23.16610392573279</v>
+        <v>23.16610392573318</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>25.94780628906603</v>
+        <v>25.94780628906651</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>23.59280667955386</v>
+        <v>23.59280667955368</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>27.71652247879329</v>
+        <v>27.71652247879316</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>32.6048957359171</v>
+        <v>32.60489573591684</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4.702567920245748</v>
+        <v>4.702567920245954</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>13.92765977806878</v>
+        <v>13.92765977806908</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>19.18267731996861</v>
+        <v>19.18267731996844</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>9.929630797182069</v>
+        <v>9.929630797182149</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>24.67867422653551</v>
+        <v>24.67867422653572</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>39.2880682960912</v>
+        <v>39.28806829609125</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-1.516718779599991</v>
+        <v>-1.516718779599465</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>14.33013959675633</v>
+        <v>14.33013959675654</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>33.04057870432194</v>
+        <v>33.04057870432197</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.6896570985208683</v>
+        <v>0.6896570985208328</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>27.17714465037807</v>
+        <v>27.17714465037815</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>55.851673213861</v>
+        <v>55.85167321386118</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>32.90991883029196</v>
+        <v>32.90991883029177</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>52.82655727338322</v>
+        <v>52.82655727338316</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>73.53110794131854</v>
+        <v>73.53110794131823</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5.813365422498993</v>
+        <v>5.813365422499182</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>45.62147972101626</v>
+        <v>45.62147972101643</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>63.11257628433905</v>
+        <v>63.11257628433935</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>14.32236175238131</v>
+        <v>14.32236175238152</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>33.93885901941879</v>
+        <v>33.93885901941889</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>42.88562253102723</v>
+        <v>42.88562253102718</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.2185175144102551</v>
+        <v>0.2185175144102125</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>26.65782344910897</v>
+        <v>26.65782344910911</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>38.13492318484798</v>
+        <v>38.1349231848481</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>3.270419709286529</v>
+        <v>3.270419709286351</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>44.77750847754386</v>
+        <v>44.77750847754378</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>60.0586144569889</v>
+        <v>60.0586144569891</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>60.51977042955865</v>
+        <v>60.51977042955853</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>76.37396562226891</v>
+        <v>76.37396562226856</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>83.49723447441605</v>
+        <v>83.49723447441598</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>14.9808920942375</v>
+        <v>14.98089209423752</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>63.82365570744894</v>
+        <v>63.82365570744926</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>69.28016016006001</v>
+        <v>69.28016016006006</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>4.894474174103003</v>
+        <v>4.894474174103134</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>31.16523169582808</v>
+        <v>31.16523169582793</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>39.14794504991285</v>
+        <v>39.14794504991289</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1.984114027060556</v>
+        <v>1.984114027060496</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>42.83374558169666</v>
+        <v>42.83374558169675</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>43.77655807703748</v>
+        <v>43.77655807703768</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6.726332261407372</v>
+        <v>6.726332261407507</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>66.71534236979755</v>
+        <v>66.71534236979741</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>67.05423699809754</v>
+        <v>67.05423699809752</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>61.70094001541226</v>
+        <v>61.70094001541234</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>76.37421242201901</v>
+        <v>76.37421242201893</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>64.28570392248432</v>
+        <v>64.28570392248439</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>5.585794853030144</v>
+        <v>5.585794853030272</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>47.34612752543229</v>
+        <v>47.34612752543222</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>52.95414362803854</v>
+        <v>52.95414362803838</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>8.192746048299725</v>
+        <v>8.192746048299718</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>34.72948539902207</v>
+        <v>34.72948539902203</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>41.21145909970723</v>
+        <v>41.21145909970714</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>-0.7922492105789196</v>
+        <v>-0.7922492105789694</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>24.41265429633996</v>
+        <v>24.41265429633989</v>
       </c>
     </row>
     <row r="67">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>1.539189436173213</v>
+        <v>1.53918943617321</v>
       </c>
     </row>
     <row r="69">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>61.00115999262012</v>
+        <v>61.00115999262</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>51.95508378704166</v>
+        <v>51.95508378704159</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>66.65577423913183</v>
+        <v>66.65577423913196</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>74.30627486235772</v>
+        <v>74.30627486235758</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>5.911079694768688</v>
+        <v>5.911079694768617</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>58.99708376819492</v>
+        <v>58.99708376819476</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>62.22221778002423</v>
+        <v>62.22221778002432</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>9.058677751757617</v>
+        <v>9.058677751757669</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>35.9642000917007</v>
+        <v>35.96420009170062</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>48.08653771475101</v>
+        <v>48.08653771475088</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>0.1233747988861964</v>
+        <v>0.1233747988861893</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>34.39025302887991</v>
+        <v>34.39025302887997</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>44.77962638349556</v>
+        <v>44.77962638349567</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>4.743454180779977</v>
+        <v>4.74345418078007</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>59.42487905119738</v>
+        <v>59.42487905119732</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>79.69827885540755</v>
+        <v>79.69827885540727</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>68.85474458622772</v>
+        <v>68.85474458622775</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>87.4050087817042</v>
+        <v>87.405008781704</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>93.50651841756272</v>
+        <v>93.50651841756246</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>6.686501252933951</v>
+        <v>6.686501252933823</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>71.13594428794562</v>
+        <v>71.13594428794573</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>76.20303708635618</v>
+        <v>76.20303708635615</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>11.64525100132941</v>
+        <v>11.64525100132942</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>32.37174196433902</v>
+        <v>32.37174196433895</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>35.60535263554006</v>
+        <v>35.60535263553992</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>1.362753415226763</v>
+        <v>1.36275341522683</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>36.97856341561362</v>
+        <v>36.9785634156136</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>34.63782883479637</v>
+        <v>34.63782883479635</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>6.136096766304778</v>
+        <v>6.136096766304842</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>62.39628655720757</v>
+        <v>62.39628655720755</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>56.99413136206179</v>
+        <v>56.99413136206181</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>51.22557167650979</v>
+        <v>51.22557167650972</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>60.87288269748881</v>
+        <v>60.87288269748866</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>57.51962754762476</v>
+        <v>57.51962754762489</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>10.83136657276245</v>
+        <v>10.83136657276263</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>38.5684398624455</v>
+        <v>38.56843986244549</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>41.22543070838357</v>
+        <v>41.22543070838354</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>18.56524017021416</v>
+        <v>18.5652401702142</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>44.94615953149084</v>
+        <v>44.9461595314908</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>46.2476612266132</v>
+        <v>46.2476612266133</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>3.58603089897349</v>
+        <v>3.586030898973508</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>34.16497930578761</v>
+        <v>34.16497930578759</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>39.37799836490419</v>
+        <v>39.37799836490417</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>5.134558773979556</v>
+        <v>5.134558773979517</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>56.99913250367554</v>
+        <v>56.99913250367558</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>64.90064011488343</v>
+        <v>64.90064011488336</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>58.85866056913578</v>
+        <v>58.85866056913581</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>70.14179021517839</v>
+        <v>70.14179021517864</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>74.447744745005</v>
+        <v>74.44774474500534</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>17.48923117028063</v>
+        <v>17.48923117028064</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>63.63143174744339</v>
+        <v>63.63143174744351</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>61.90428932682226</v>
+        <v>61.90428932682219</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>18.47594561747989</v>
+        <v>18.47594561747995</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>44.3788524062572</v>
+        <v>44.37885240625705</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>50.64881831924418</v>
+        <v>50.64881831924385</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>2.708420499259077</v>
+        <v>2.708420499259056</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>41.00237244324036</v>
+        <v>41.00237244324046</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>44.04774665446038</v>
+        <v>44.04774665446045</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>4.606778855792854</v>
+        <v>4.606778855792886</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>67.85714015127118</v>
+        <v>67.85714015127105</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>78.1336875968496</v>
+        <v>78.13368759684964</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>77.01542169011496</v>
+        <v>77.01542169011501</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>84.32960414364908</v>
+        <v>84.32960414364914</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>92.68090178740098</v>
+        <v>92.68090178740084</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>16.56806916420204</v>
+        <v>16.56806916420207</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>72.9054193279942</v>
+        <v>72.90541932799445</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>76.84116164137345</v>
+        <v>76.84116164137342</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>11.88181335384999</v>
+        <v>11.8818133538499</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>12.62221949850708</v>
+        <v>12.62221949850704</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>17.87126950912639</v>
+        <v>17.87126950912654</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>-0.9825389574523058</v>
+        <v>-0.9825389574522525</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>12.55057108737788</v>
+        <v>12.55057108737802</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>13.38945144839696</v>
+        <v>13.38945144839683</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>3.958409392128001</v>
+        <v>3.958409392127773</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>24.86178044820338</v>
+        <v>24.86178044820305</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>27.35457966567056</v>
+        <v>27.35457966567071</v>
       </c>
     </row>
     <row r="146">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>26.20658782616594</v>
+        <v>26.20658782616582</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>34.25006233330239</v>
+        <v>34.25006233330244</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>63.23542656009897</v>
+        <v>63.23542656009884</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>63.90882970957425</v>
+        <v>63.9088297095746</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>60.96015731116857</v>
+        <v>60.96015731116871</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>9.326653866460084</v>
+        <v>9.326653866459965</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>24.66540953795485</v>
+        <v>24.66540953795477</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>39.72004470157509</v>
+        <v>39.72004470157492</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>-1.313406386223715</v>
+        <v>-1.313406386223928</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>11.6500886592245</v>
+        <v>11.65008865922451</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>29.40642810787101</v>
+        <v>29.40642810787051</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>31.47656342172667</v>
+        <v>31.47656342172695</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>58.5032272238281</v>
+        <v>58.50322722382796</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>30.99818583964725</v>
+        <v>30.99818583964713</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>48.26008872341261</v>
+        <v>48.26008872341231</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>69.59986516431916</v>
+        <v>69.59986516431883</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>6.627733934407896</v>
+        <v>6.627733934407889</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>44.69380364028706</v>
+        <v>44.6938036402871</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>54.1005713587501</v>
+        <v>54.10057135875044</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>20.14114885181632</v>
+        <v>20.14114885181626</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>32.18646620425253</v>
+        <v>32.18646620425269</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>44.05087361160764</v>
+        <v>44.05087361160765</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>1.721816575036055</v>
+        <v>1.72181657503576</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>17.82629174705466</v>
+        <v>17.82629174705475</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>30.38899903545375</v>
+        <v>30.38899903545365</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>9.745475948669334</v>
+        <v>9.745475948669316</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>43.7729596962061</v>
+        <v>43.77295969620609</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>63.53713815233649</v>
+        <v>63.53713815233659</v>
       </c>
     </row>
     <row r="175">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>61.98339979656492</v>
+        <v>61.98339979656487</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>80.69316622123759</v>
+        <v>80.69316622123782</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>25.83856531530579</v>
+        <v>25.83856531530581</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>60.60887229970576</v>
+        <v>60.60887229970594</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>67.31149663208176</v>
+        <v>67.31149663208184</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>7.355105252736774</v>
+        <v>7.355105252736703</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>23.98436325104817</v>
+        <v>23.98436325104792</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>30.20510983554814</v>
+        <v>30.20510983554824</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>2.894420401043391</v>
+        <v>2.894420401043504</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>33.98830268762834</v>
+        <v>33.98830268762855</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>37.87545565852677</v>
+        <v>37.87545565852697</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>8.666581398249875</v>
+        <v>8.666581398250326</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>63.27471470328862</v>
+        <v>63.27471470328887</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>62.13565782358356</v>
+        <v>62.13565782358392</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>53.78157890967937</v>
+        <v>53.78157890967948</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>64.72137678313953</v>
+        <v>64.72137678313959</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>65.19686500747599</v>
+        <v>65.19686500747579</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>11.47048697951022</v>
+        <v>11.47048697951024</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>10.46228098470153</v>
+        <v>10.46228098470164</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>11.10375086177282</v>
+        <v>11.10375086177311</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>20.42173924393204</v>
+        <v>20.42173924393181</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>43.68525258349413</v>
+        <v>43.68525258349437</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>44.3235717531896</v>
+        <v>44.32357175318943</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>4.868459549365092</v>
+        <v>4.868459549365362</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>34.47487736524593</v>
+        <v>34.47487736524592</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>42.67454403861724</v>
+        <v>42.67454403861726</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>60.31339548412553</v>
+        <v>60.31339548412548</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>66.71197047086471</v>
+        <v>66.7119704708648</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>65.11364006167739</v>
+        <v>65.11364006167703</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>75.09385938656263</v>
+        <v>75.09385938656231</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>83.19263520463279</v>
+        <v>83.19263520463286</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>32.21448346276838</v>
+        <v>32.21448346276833</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>68.83111428094034</v>
+        <v>68.83111428094023</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>71.38871580635382</v>
+        <v>71.38871580635404</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>21.6654004491533</v>
+        <v>21.66540044915337</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>42.11807742285662</v>
+        <v>42.11807742285659</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>48.67977221805838</v>
+        <v>48.67977221805845</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>1.811718557937152</v>
+        <v>1.811718557937251</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>31.78231450929438</v>
+        <v>31.7823145092946</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>40.54673252327134</v>
+        <v>40.54673252327148</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>9.814541598079604</v>
+        <v>9.814541598079764</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>62.53439566901585</v>
+        <v>62.53439566901566</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>74.40809869413772</v>
+        <v>74.40809869413749</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>75.31456482930919</v>
+        <v>75.31456482930939</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>83.9959386561776</v>
+        <v>83.99593865617754</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>86.2698684388437</v>
+        <v>86.26986843884383</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>32.54148848702648</v>
+        <v>32.54148848702627</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>70.43280259314912</v>
+        <v>70.43280259314918</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>76.75532908462557</v>
+        <v>76.75532908462536</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>2.577528996380934</v>
+        <v>2.577528996381048</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>18.18724974080428</v>
+        <v>18.1872497408041</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>30.51233965519066</v>
+        <v>30.51233965519065</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>2.75966249571314</v>
+        <v>2.759662495713098</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>38.0202134320042</v>
+        <v>38.02021343200428</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>37.81844030112507</v>
+        <v>37.81844030112504</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>9.800419806803559</v>
+        <v>9.800419806803374</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>69.14109933425713</v>
+        <v>69.14109933425709</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>66.67110548284916</v>
+        <v>66.67110548284924</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>55.69106053776799</v>
+        <v>55.69106053776817</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>65.80761529400428</v>
+        <v>65.80761529400442</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>68.40969702777504</v>
+        <v>68.40969702777522</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>3.842362304115106</v>
+        <v>3.842362304114921</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>6.709905890464615</v>
+        <v>6.709905890464238</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>7.302144428954946</v>
+        <v>7.302144428954893</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>14.29944300962595</v>
+        <v>14.29944300962603</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>45.0885004953477</v>
+        <v>45.08850049534768</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>46.89296548395893</v>
+        <v>46.89296548395873</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>3.533235353030722</v>
+        <v>3.533235353030708</v>
       </c>
     </row>
     <row r="244">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>44.82519338459146</v>
+        <v>44.82519338459153</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>4.792053971730684</v>
+        <v>4.792053971730564</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>66.84707368777902</v>
+        <v>66.84707368777879</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>69.67870774309688</v>
+        <v>69.67870774309664</v>
       </c>
     </row>
     <row r="249">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>70.96529441750837</v>
+        <v>70.96529441750839</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>79.29536884139131</v>
+        <v>79.29536884139117</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>17.85158556354874</v>
+        <v>17.85158556354873</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>69.60162955877715</v>
+        <v>69.60162955877706</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>71.90269477472</v>
+        <v>71.90269477472006</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>17.40689073256807</v>
+        <v>17.40689073256817</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>2.073766122764582</v>
+        <v>2.073766122764521</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>39.05252320269831</v>
+        <v>39.05252320269834</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>42.60918923267828</v>
+        <v>42.60918923267801</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>7.975875721982643</v>
+        <v>7.975875721982636</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>69.37245445377613</v>
+        <v>69.372454453776</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>77.50508355621929</v>
+        <v>77.50508355621893</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>70.9058778070313</v>
+        <v>70.90587780703143</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>86.90914364885506</v>
+        <v>86.90914364885509</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>91.15776948938105</v>
+        <v>91.15776948938111</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>16.36664523379961</v>
+        <v>16.36664523379969</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>75.19679382631676</v>
+        <v>75.19679382631674</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>78.19654037541619</v>
+        <v>78.19654037541616</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>4.42533463722102</v>
+        <v>4.425334637221184</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>6.036532914765754</v>
+        <v>6.036532914765885</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>9.133135137192307</v>
+        <v>9.133135137192379</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>-2.832104802303039</v>
+        <v>-2.832104802302858</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>10.845974058888</v>
+        <v>10.84597405888825</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>9.940058321997398</v>
+        <v>9.94005832199743</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>0.261628631866305</v>
+        <v>0.261628631866401</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>18.89747452703868</v>
+        <v>18.89747452703864</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>19.79212032457894</v>
+        <v>19.79212032457876</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>21.64471626439844</v>
+        <v>21.64471626439826</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>27.70028633372817</v>
+        <v>27.70028633372848</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>30.75801834667239</v>
+        <v>30.75801834667262</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>1.811221395234774</v>
+        <v>1.811221395234696</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>7.839470343938441</v>
+        <v>7.839470343938569</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>9.875891564774514</v>
+        <v>9.875891564774701</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>8.924967353079055</v>
+        <v>8.924967353079035</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>23.92304650188628</v>
+        <v>23.92304650188632</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>34.57181724141666</v>
+        <v>34.57181724141652</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>-0.7414955846067635</v>
+        <v>-0.7414955846068345</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>16.5887901150547</v>
+        <v>16.58879011505475</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>29.48863606322823</v>
+        <v>29.48863606322814</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>4.802704024462773</v>
+        <v>4.802704024462724</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>30.84152860880398</v>
+        <v>30.841528608804</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>51.45535853525027</v>
+        <v>51.45535853525011</v>
       </c>
     </row>
     <row r="292">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>50.95189689789692</v>
+        <v>50.95189689789693</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>61.9188912930743</v>
+        <v>61.91889129307427</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>7.816981690872041</v>
+        <v>7.816981690871984</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>42.32961880346065</v>
+        <v>42.32961880346085</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>52.77447393762395</v>
+        <v>52.77447393762423</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>9.476365241861602</v>
+        <v>9.4763652418617</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>29.85314842547023</v>
+        <v>29.85314842547041</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>39.27339661199534</v>
+        <v>39.27339661199544</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>0.2351490446967119</v>
+        <v>0.2351490446968434</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>29.3897791241272</v>
+        <v>29.38977912412732</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>37.00650491829543</v>
+        <v>37.00650491829545</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>4.167490198828244</v>
+        <v>4.167490198828286</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>48.98585607819352</v>
+        <v>48.98585607819365</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>61.55836182919094</v>
+        <v>61.55836182919077</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>62.03373768575416</v>
+        <v>62.03373768575425</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>73.62982053109484</v>
+        <v>73.62982053109482</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>77.95416075847103</v>
+        <v>77.95416075847109</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>10.6404586541546</v>
+        <v>10.64045865415457</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>60.79264681188939</v>
+        <v>60.79264681188941</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>72.17601878112228</v>
+        <v>72.17601878112185</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>2.513610345320814</v>
+        <v>2.513610345321059</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>6.087920463164057</v>
+        <v>6.087920463164028</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>9.046670801836472</v>
+        <v>9.046670801836571</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>-3.19698637441947</v>
+        <v>-3.196986374419343</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>8.66081602602268</v>
+        <v>8.660816026023113</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>9.471994304835421</v>
+        <v>9.471994304835453</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>-0.8439679470445931</v>
+        <v>-0.8439679470442343</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>15.53740755662544</v>
+        <v>15.53740755662561</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>14.79270106759865</v>
+        <v>14.79270106759879</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>14.68044134845172</v>
+        <v>14.68044134845171</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>16.71994057006299</v>
+        <v>16.71994057006318</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>16.61950473629938</v>
+        <v>16.61950473629948</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>4.41256040393565</v>
+        <v>4.412560403935053</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>12.22398497652058</v>
+        <v>12.22398497652043</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>12.2044647063693</v>
+        <v>12.20446470636886</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>1.369027450730652</v>
+        <v>1.36902745073067</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>5.858417392554514</v>
+        <v>5.858417392554568</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>17.90394408470156</v>
+        <v>17.90394408470169</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>-2.854945107064008</v>
+        <v>-2.854945107064033</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>0.2500907502497434</v>
+        <v>0.2500907502497007</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>12.03910726728389</v>
+        <v>12.03910726728359</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>-0.09602711977222711</v>
+        <v>-0.09602711977223066</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>10.00995284287733</v>
+        <v>10.00995284287729</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>28.11224649453278</v>
+        <v>28.11224649453275</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>14.98342905340401</v>
+        <v>14.98342905340437</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>25.05848344169686</v>
+        <v>25.05848344169733</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>41.68951861482269</v>
+        <v>41.68951861482221</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>-1.89557677586409</v>
+        <v>-1.895576775863994</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>13.5368245987659</v>
+        <v>13.53682459876569</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>14.02356000255755</v>
+        <v>14.02356000255747</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>5.315293278588875</v>
+        <v>5.315293278589088</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>7.871886312302138</v>
+        <v>7.871886312302351</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>30.17356580224837</v>
+        <v>30.17356580224847</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>-4.97930309398329</v>
+        <v>-4.979303093983177</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>2.87251454484845</v>
+        <v>2.872514544848379</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>21.88684728917316</v>
+        <v>21.88684728917325</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>-0.1890574550581832</v>
+        <v>-0.1890574550582258</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>14.61634501901443</v>
+        <v>14.61634501901456</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>51.26044505645675</v>
+        <v>51.26044505645655</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>20.4772287507449</v>
+        <v>20.47722875074492</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>47.18575079711948</v>
+        <v>47.18575079711947</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>67.12823481330935</v>
+        <v>67.12823481330929</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>-5.137747499419433</v>
+        <v>-5.137747499418847</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>11.95468939786002</v>
+        <v>11.95468939786023</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>22.08347826922503</v>
+        <v>22.08347826922479</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>7.168385144841277</v>
+        <v>7.168385144841253</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>23.01403548084384</v>
+        <v>23.01403548084386</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>36.83214868078964</v>
+        <v>36.83214868078974</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>4.433957437092094</v>
+        <v>4.4339574370922</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>45.99489741297003</v>
+        <v>45.99489741297006</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>47.19532312139935</v>
+        <v>47.1953231213994</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>4.469285061701022</v>
+        <v>4.469285061700901</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>69.5438124619553</v>
+        <v>69.54381246195516</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>69.33859214367295</v>
+        <v>69.338592143673</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>62.98118456413189</v>
+        <v>62.98118456413143</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>70.10583062041655</v>
+        <v>70.10583062041644</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>65.12936786493435</v>
+        <v>65.12936786493418</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>23.18124090300849</v>
+        <v>23.18124090300867</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>41.28469991657867</v>
+        <v>41.28469991657879</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>67.57357066035675</v>
+        <v>67.57357066035644</v>
       </c>
     </row>
     <row r="373">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>34.79238386881389</v>
+        <v>34.79238386881373</v>
       </c>
     </row>
     <row r="375">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>-0.688059074335694</v>
+        <v>-0.6880590743358006</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>29.13685201529767</v>
+        <v>29.13685201529761</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>33.01142054958932</v>
+        <v>33.01142054958913</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>1.260014436579123</v>
+        <v>1.260014436579198</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>51.97114651461594</v>
+        <v>51.97114651461595</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>55.51484020928071</v>
+        <v>55.51484020928102</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>49.58819289048129</v>
+        <v>49.58819289048122</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>59.06436808090519</v>
+        <v>59.06436808090497</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>63.41027803244921</v>
+        <v>63.41027803244923</v>
       </c>
     </row>
     <row r="385">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>57.24631615035811</v>
+        <v>57.24631615035808</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>57.76324136685673</v>
+        <v>57.7632413668567</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>11.6368758497796</v>
+        <v>11.63687584977954</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>35.4690472762105</v>
+        <v>35.46904727621062</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>44.22261622285627</v>
+        <v>44.22261622285633</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>2.7741709950662</v>
+        <v>2.774170995066246</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>39.16910923061275</v>
+        <v>39.16910923061282</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>43.30338184167317</v>
+        <v>43.30338184167312</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>6.20121325821945</v>
+        <v>6.201213258219482</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>64.06335507636621</v>
+        <v>64.06335507636612</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>75.33386752566267</v>
+        <v>75.33386752566268</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>71.17849072900985</v>
+        <v>71.17849072901006</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>81.83492169081478</v>
+        <v>81.83492169081489</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>85.32798891163779</v>
+        <v>85.32798891163785</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>15.31048433256613</v>
+        <v>15.31048433256611</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>70.67180299349974</v>
+        <v>70.67180299349954</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>78.61279749833255</v>
+        <v>78.6127974983325</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>4.566134902349045</v>
+        <v>4.566134902349084</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>9.348094221975543</v>
+        <v>9.348094221975742</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>12.33345497633864</v>
+        <v>12.33345497633862</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>-1.492816282050821</v>
+        <v>-1.492816282050804</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>8.519281136644445</v>
+        <v>8.519281136644354</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>10.01175776895839</v>
+        <v>10.01175776895832</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>1.862239668791467</v>
+        <v>1.862239668791151</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>14.65861077547842</v>
+        <v>14.65861077547833</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>19.08543826244761</v>
+        <v>19.08543826244748</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>18.19146603779464</v>
+        <v>18.19146603779426</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>22.24613982528914</v>
+        <v>22.24613982528927</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>25.53568479962272</v>
+        <v>25.53568479962264</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>2.978731009029719</v>
+        <v>2.978731009029865</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>12.64566288292567</v>
+        <v>12.64566288292589</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>11.1513178678658</v>
+        <v>11.15131786786597</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>4.285539116625024</v>
+        <v>4.285539116624982</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>14.29130492880027</v>
+        <v>14.2913049288002</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>27.83320183627058</v>
+        <v>27.83320183627054</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>-2.27045913070425</v>
+        <v>-2.270459130704328</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>6.369479459829041</v>
+        <v>6.369479459828941</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>23.22449691933251</v>
+        <v>23.22449691933261</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>0.8609108802716605</v>
+        <v>0.8609108802715966</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>12.60574289518476</v>
+        <v>12.60574289518456</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>41.48450486494978</v>
+        <v>41.48450486494976</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>17.2297758010879</v>
+        <v>17.22977580108785</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>29.33146019239508</v>
+        <v>29.33146019239502</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>42.20630121155569</v>
+        <v>42.2063012115557</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>0.7592255604960236</v>
+        <v>0.7592255604960023</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>24.33681618556</v>
+        <v>24.3368161855602</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>37.02569242257582</v>
+        <v>37.02569242257562</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>11.44063845163809</v>
+        <v>11.44063845163807</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>21.93814714080641</v>
+        <v>21.93814714080639</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>36.92537458624953</v>
+        <v>36.92537458624948</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>1.505436573773078</v>
+        <v>1.505436573772965</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>15.73912054613895</v>
+        <v>15.73912054613905</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>30.62972110379336</v>
+        <v>30.62972110379325</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>7.201060783115071</v>
+        <v>7.201060783115139</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>28.86840228345987</v>
+        <v>28.86840228345998</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>53.95731943406847</v>
+        <v>53.95731943406842</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>33.09091007516594</v>
+        <v>33.09091007516597</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>42.79224919148928</v>
+        <v>42.79224919148937</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>68.49817131470911</v>
+        <v>68.49817131470903</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>16.13276478620353</v>
+        <v>16.13276478620337</v>
       </c>
     </row>
     <row r="446">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>56.08577475834387</v>
+        <v>56.08577475834388</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>3.221774241793547</v>
+        <v>3.221774241793476</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>-0.7014316783568582</v>
+        <v>-0.7014316783565953</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>5.0483192030146</v>
+        <v>5.048319203014461</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>-4.471120209014092</v>
+        <v>-4.471120209014074</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>2.470352740066282</v>
+        <v>2.470352740066229</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>3.267838995616518</v>
+        <v>3.267838995616362</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>3.747659745519258</v>
+        <v>3.747659745519165</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>12.05101049119887</v>
+        <v>12.0510104911991</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>12.31100570820763</v>
+        <v>12.31100570820788</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>3.396961032411461</v>
+        <v>3.396961032411294</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>3.800934658855269</v>
+        <v>3.800934658855098</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>16.28141552729051</v>
+        <v>16.28141552729026</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>-2.365504703304758</v>
+        <v>-2.365504703304723</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>-4.356991773909364</v>
+        <v>-4.356991773909328</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>1.723237906552079</v>
+        <v>1.723237906551816</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>17.19499211973398</v>
+        <v>17.19499211973404</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>37.46391778268472</v>
+        <v>37.4639177826846</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>39.17907614783536</v>
+        <v>39.17907614783525</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>4.659043585258981</v>
+        <v>4.659043585259106</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>27.95071386229137</v>
+        <v>27.95071386229151</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>34.05067921154471</v>
+        <v>34.05067921154462</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>9.504579059710192</v>
+        <v>9.504579059710194</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>51.134866327564</v>
+        <v>51.13486632756394</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>58.18688272656586</v>
+        <v>58.18688272656581</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>48.7369480989757</v>
+        <v>48.73694809897572</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>57.08368430646598</v>
+        <v>57.08368430646595</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>62.89861957671476</v>
+        <v>62.89861957671429</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>14.55948734835261</v>
+        <v>14.55948734835262</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>54.34094873536027</v>
+        <v>54.34094873535999</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>53.50710478847657</v>
+        <v>53.5071047884767</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>17.07962845200609</v>
+        <v>17.07962845200611</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>38.63605698593243</v>
+        <v>38.63605698593244</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>45.94236058077464</v>
+        <v>45.94236058077467</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>2.502397911865906</v>
+        <v>2.502397911865849</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>34.72800408165917</v>
+        <v>34.72800408165922</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>38.52083512013676</v>
+        <v>38.52083512013672</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>8.208446792054943</v>
+        <v>8.208446792054968</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>62.13388866948966</v>
+        <v>62.13388866948964</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>70.68384054098004</v>
+        <v>70.6838405409799</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>67.0801740817687</v>
+        <v>67.08017408176849</v>
       </c>
     </row>
     <row r="488">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>83.43021751859763</v>
+        <v>83.43021751859774</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>14.47722059505448</v>
+        <v>14.4772205950544</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>65.93106395433914</v>
+        <v>65.93106395433909</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>69.76717184740988</v>
+        <v>69.76717184740983</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>10.61804255102627</v>
+        <v>10.61804255102636</v>
       </c>
     </row>
     <row r="494">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>15.34456518516264</v>
+        <v>15.34456518516252</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>0.9731454865487095</v>
+        <v>0.9731454865488018</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>14.066047121048</v>
+        <v>14.0660471210479</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>12.22815898150762</v>
+        <v>12.22815898150752</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>9.502157909942039</v>
+        <v>9.502157909941847</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>26.96676576715099</v>
+        <v>26.96676576715084</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>23.58813479885405</v>
+        <v>23.5881347988541</v>
       </c>
     </row>
     <row r="502">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>28.58224200066232</v>
+        <v>28.58224200066196</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>28.5837283702405</v>
+        <v>28.58372837024028</v>
       </c>
     </row>
     <row r="505">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>16.02445215292376</v>
+        <v>16.02445215292403</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>14.78612021413638</v>
+        <v>14.78612021413626</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>5.067184266922098</v>
+        <v>5.067184266922045</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>11.56205944984368</v>
+        <v>11.56205944984371</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>19.13172390613949</v>
+        <v>19.13172390613955</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>-4.831809997133469</v>
+        <v>-4.831809997133462</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>1.106635173006492</v>
+        <v>1.106635173006442</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>13.27892362824806</v>
+        <v>13.27892362824811</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>-3.1828649229994</v>
+        <v>-3.182864922999268</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>9.537146669564443</v>
+        <v>9.537146669564375</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>27.82972296761891</v>
+        <v>27.82972296761886</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>13.29387912329312</v>
+        <v>13.29387912329308</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>20.50576611708884</v>
+        <v>20.5057661170888</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>28.91592713595254</v>
+        <v>28.91592713595266</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>-2.790215412889292</v>
+        <v>-2.790215412889268</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>14.40237230312799</v>
+        <v>14.40237230312801</v>
       </c>
     </row>
     <row r="522">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>15.56611010138397</v>
+        <v>15.56611010138402</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>27.71438229943817</v>
+        <v>27.71438229943814</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>32.23060538329365</v>
+        <v>32.23060538329362</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>0.1360349126020814</v>
+        <v>0.1360349126021454</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>18.97148595257922</v>
+        <v>18.97148595257917</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>23.21529379998029</v>
+        <v>23.21529379998027</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>5.423142044142701</v>
+        <v>5.423142044142768</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>39.02603074835183</v>
+        <v>39.02603074835181</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>48.27522666841615</v>
+        <v>48.27522666841611</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>45.22576228423702</v>
+        <v>45.22576228423696</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>48.58249561119364</v>
+        <v>48.58249561119376</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>62.80843356839323</v>
+        <v>62.80843356839334</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>13.60708912810981</v>
+        <v>13.60708912810993</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>40.59409806777548</v>
+        <v>40.5940980677756</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>44.31422030346427</v>
+        <v>44.31422030346429</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>3.750450916146558</v>
+        <v>3.750450916146601</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>3.586342742046067</v>
+        <v>3.586342742046057</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>2.275022855297504</v>
+        <v>2.275022855297536</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>-2.263832653211253</v>
+        <v>-2.26383265321137</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>2.005585259170122</v>
+        <v>2.005585259169965</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>-0.5126928490798832</v>
+        <v>-0.5126928490798761</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>5.331579805781313</v>
+        <v>5.331579805781296</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>8.381856981742668</v>
+        <v>8.381856981742757</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>3.960604691032579</v>
+        <v>3.960604691032554</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>0.891611493598738</v>
+        <v>0.8916114935986066</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>2.620965332642474</v>
+        <v>2.620965332642282</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>5.802493009570842</v>
+        <v>5.802493009570846</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>5.254374358170974</v>
+        <v>5.254374358171216</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>6.294453869201881</v>
+        <v>6.294453869202144</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>3.988515416899055</v>
+        <v>3.988515416899016</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>0.8700467341548475</v>
+        <v>0.8700467341549363</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>2.415808758452961</v>
+        <v>2.415808758452975</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>3.475071987213351</v>
+        <v>3.475071987213369</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>-3.744143806178702</v>
+        <v>-3.744143806178613</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-4.798374332747709</v>
+        <v>-4.798374332747692</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>0.1721056399926937</v>
+        <v>0.1721056399929495</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>-2.896710578805433</v>
+        <v>-2.896710578805386</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>0.8629675449683596</v>
+        <v>0.8629675449684484</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>6.902817957164022</v>
+        <v>6.902817957163968</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>4.014826591789259</v>
+        <v>4.014826591789181</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>7.832507971755504</v>
+        <v>7.832507971755689</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>7.785095842236966</v>
+        <v>7.785095842236963</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>-4.306303996861228</v>
+        <v>-4.306303996861075</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>3.6960359286266</v>
+        <v>3.696035928626877</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>3.658267371581541</v>
+        <v>3.65826737158153</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>16.62048966950002</v>
+        <v>16.62048966949997</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>21.75033831600597</v>
+        <v>21.75033831600611</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>23.3796910825967</v>
+        <v>23.37969108259665</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>3.013237495885335</v>
+        <v>3.01323749588536</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>12.18688450990467</v>
+        <v>12.18688450990465</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>14.20744596540785</v>
+        <v>14.20744596540781</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>7.639403945222522</v>
+        <v>7.639403945222579</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>29.57605623745914</v>
+        <v>29.57605623745916</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>32.37743302157848</v>
+        <v>32.37743302157845</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>29.74677274825847</v>
+        <v>29.74677274825844</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>33.33969803043041</v>
+        <v>33.33969803043031</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>41.84430411406918</v>
+        <v>41.84430411406925</v>
       </c>
     </row>
     <row r="580">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>29.15484132342318</v>
+        <v>29.15484132342312</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>31.10702349755457</v>
+        <v>31.10702349755476</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>21.52535575779862</v>
+        <v>21.52535575779841</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>31.69335760958507</v>
+        <v>31.69335760958499</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>36.57944489172982</v>
+        <v>36.57944489172987</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>4.545182351539506</v>
+        <v>4.545182351539474</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>23.80834402262849</v>
+        <v>23.80834402262814</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>28.92681857859915</v>
+        <v>28.92681857859923</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>13.82879393972941</v>
+        <v>13.82879393972917</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>45.93219979822871</v>
+        <v>45.93219979822884</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>48.63013010814976</v>
+        <v>48.63013010815023</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>43.37249201948116</v>
+        <v>43.37249201948154</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>50.53453845746522</v>
+        <v>50.53453845746574</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>53.44822022997008</v>
+        <v>53.44822022997066</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>31.28083760120032</v>
+        <v>31.28083760120018</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>56.95710951393455</v>
+        <v>56.95710951393459</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>59.89385424518088</v>
+        <v>59.89385424518114</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>12.23473358770892</v>
+        <v>12.23473358770897</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>24.41426521396406</v>
+        <v>24.41426521396439</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>28.89013984655472</v>
+        <v>28.89013984655469</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>-3.519985051413084</v>
+        <v>-3.519985051413379</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>7.86350047336013</v>
+        <v>7.863500473360038</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>15.32770847549422</v>
+        <v>15.32770847549419</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>3.111750636782961</v>
+        <v>3.111750636783</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>26.3942238712585</v>
+        <v>26.39422387125853</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>37.22277844246464</v>
+        <v>37.22277844246408</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>28.77637273496666</v>
+        <v>28.77637273496656</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>37.20912551831827</v>
+        <v>37.2091255183184</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>45.35351939616656</v>
+        <v>45.35351939616695</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>15.44970306627875</v>
+        <v>15.44970306627859</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>43.30280140527351</v>
+        <v>43.30280140527344</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>48.66117793658984</v>
+        <v>48.66117793658951</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>23.27857126484729</v>
+        <v>23.27857126484739</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>37.39731440656303</v>
+        <v>37.39731440656335</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>45.43547741912143</v>
+        <v>45.43547741912129</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>3.017721903311621</v>
+        <v>3.017721903311664</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>22.69073714125775</v>
+        <v>22.69073714125773</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>29.48360151683785</v>
+        <v>29.48360151683805</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>13.14546058421717</v>
+        <v>13.14546058421733</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>48.77162197554556</v>
+        <v>48.77162197554591</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>60.36956763470187</v>
+        <v>60.36956763470172</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>64.65953673110263</v>
+        <v>64.65953673110303</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>70.599903928402</v>
+        <v>70.59990392840164</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>75.72787872327919</v>
+        <v>75.72787872327905</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>28.67909345100517</v>
+        <v>28.67909345100537</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>57.75466253888519</v>
+        <v>57.75466253888555</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>68.59654283646017</v>
+        <v>68.59654283646037</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>13.12121773519157</v>
+        <v>13.12121773519172</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>33.79651921711106</v>
+        <v>33.79651921711108</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>40.12762994967709</v>
+        <v>40.12762994967705</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>5.527830810742202</v>
+        <v>5.527830810742131</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>38.25094274340506</v>
+        <v>38.2509427434051</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>40.99329762227241</v>
+        <v>40.99329762227221</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>12.58437531395422</v>
+        <v>12.58437531395432</v>
       </c>
     </row>
     <row r="635">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>61.92308382369445</v>
+        <v>61.92308382369456</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>61.99171354790961</v>
+        <v>61.99171354790957</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>70.56942768075592</v>
+        <v>70.56942768075623</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>67.28700038563667</v>
+        <v>67.28700038563693</v>
       </c>
     </row>
     <row r="640">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>43.49466757661788</v>
+        <v>43.49466757661787</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>51.28921108988432</v>
+        <v>51.28921108988416</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>9.548965200002362</v>
+        <v>9.548965200002407</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>30.99162510970944</v>
+        <v>30.99162510970939</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>36.16711807167444</v>
+        <v>36.16711807167466</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>3.768066577792283</v>
+        <v>3.768066577792293</v>
       </c>
     </row>
     <row r="647">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>34.90108591167591</v>
+        <v>34.90108591167584</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>7.001432378183253</v>
+        <v>7.001432378183235</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>41.01850159286845</v>
+        <v>41.01850159286839</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>55.46589546541104</v>
+        <v>55.46589546541111</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>45.7298613597107</v>
+        <v>45.7298613597108</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>54.34928007999595</v>
+        <v>54.34928007999579</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>62.01544894600429</v>
+        <v>62.01544894600408</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>6.717488403746451</v>
+        <v>6.717488403746419</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>49.56665811574359</v>
+        <v>49.56665811574353</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>53.19593766826406</v>
+        <v>53.19593766826403</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>9.342784331823577</v>
+        <v>9.342784331823673</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>30.15578143713986</v>
+        <v>30.15578143713989</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>42.21596626248675</v>
+        <v>42.21596626248678</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>0.733054872412545</v>
+        <v>0.7330548724125734</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>28.10371435527153</v>
+        <v>28.10371435527146</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>39.21173509008684</v>
+        <v>39.21173509008671</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>4.883714148132334</v>
+        <v>4.883714148132359</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>47.24299155316753</v>
+        <v>47.24299155316731</v>
       </c>
     </row>
     <row r="666">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>56.44751271433123</v>
+        <v>56.44751271433101</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>68.36269561277328</v>
+        <v>68.36269561277291</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>84.27991133614942</v>
+        <v>84.27991133614923</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>5.637131385818609</v>
+        <v>5.637131385818549</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>55.88263410302648</v>
+        <v>55.88263410302662</v>
       </c>
     </row>
     <row r="672">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>8.548663038672061</v>
+        <v>8.548663038671888</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>25.26073504213691</v>
+        <v>25.26073504213667</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>35.20650729696908</v>
+        <v>35.20650729696904</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>4.24977569818974</v>
+        <v>4.249775698189694</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>42.83943576436801</v>
+        <v>42.83943576436796</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>48.33455970111221</v>
+        <v>48.33455970111234</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>7.21804991997233</v>
+        <v>7.218049919972422</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>68.61757828209439</v>
+        <v>68.61757828209448</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>67.30426043905909</v>
+        <v>67.30426043905891</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>61.9602770996858</v>
+        <v>61.96027709968573</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>63.33735475569603</v>
+        <v>63.33735475569638</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>62.9186991869335</v>
+        <v>62.91869918693365</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>9.766646109849443</v>
+        <v>9.766646109849312</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>32.74521670890405</v>
+        <v>32.74521670890367</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>64.79552066850448</v>
+        <v>64.79552066850495</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>9.620130710320026</v>
+        <v>9.620130710320071</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>33.14200600279473</v>
+        <v>33.14200600279491</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>36.57516051616409</v>
+        <v>36.57516051616387</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>-0.7760785730827635</v>
+        <v>-0.7760785730826534</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>25.82677158562862</v>
+        <v>25.82677158562893</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>33.55800220045851</v>
+        <v>33.5580022004583</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>-0.1746831411238361</v>
+        <v>-0.1746831411238396</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>47.75563040187561</v>
+        <v>47.75563040187571</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>55.62784754592064</v>
+        <v>55.62784754592076</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>45.34433398785009</v>
+        <v>45.34433398784998</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>55.84202563421609</v>
+        <v>55.84202563421624</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>63.06727062203608</v>
+        <v>63.06727062203596</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>6.092703546550538</v>
+        <v>6.092703546550482</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>50.79603389138202</v>
+        <v>50.79603389138197</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>57.13005964754271</v>
+        <v>57.13005964754256</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>11.1603805294039</v>
+        <v>11.16038052940397</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>34.41683580845142</v>
+        <v>34.41683580845127</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>42.79177230498228</v>
+        <v>42.79177230498209</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>0.6768230207093637</v>
+        <v>0.6768230207093211</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>33.60510058830017</v>
+        <v>33.60510058830029</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>41.89309490748847</v>
+        <v>41.89309490748845</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>2.812709006637803</v>
+        <v>2.812709006637611</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>56.57671870385928</v>
+        <v>56.57671870385925</v>
       </c>
     </row>
     <row r="711">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>68.58675674526935</v>
+        <v>68.58675674526958</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>80.70262620480392</v>
+        <v>80.70262620480366</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>83.72794052317857</v>
+        <v>83.72794052317832</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>9.087889787802219</v>
+        <v>9.087889787802245</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>64.91477565734175</v>
+        <v>64.91477565734203</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>71.5875295991498</v>
+        <v>71.58752959914973</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>16.92426593671563</v>
+        <v>16.92426593671586</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>24.35287290215152</v>
+        <v>24.35287290215154</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>38.07471696304714</v>
+        <v>38.07471696304674</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>12.99621387023086</v>
+        <v>12.99621387023092</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>51.28886983141143</v>
+        <v>51.2888698314111</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>56.81040785011717</v>
+        <v>56.81040785011719</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>16.019528233627</v>
+        <v>16.01952823362714</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>67.78346549890651</v>
+        <v>67.78346549890628</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>72.92247181381032</v>
+        <v>72.92247181381038</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>59.14730979046345</v>
+        <v>59.14730979046366</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>59.31081132275619</v>
+        <v>59.31081132275639</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>59.7911572455051</v>
+        <v>59.79115724550491</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>16.50935715636466</v>
+        <v>16.50935715636456</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>28.03239241840125</v>
+        <v>28.03239241840136</v>
       </c>
     </row>
     <row r="732">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>23.4601556804113</v>
+        <v>23.46015568041139</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>35.39015935325788</v>
+        <v>35.39015935325786</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>41.73133800520988</v>
+        <v>41.73133800520961</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>35.17695615425372</v>
+        <v>35.17695615425366</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>49.13866408231723</v>
+        <v>49.13866408231716</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>59.54557875912044</v>
+        <v>59.54557875912019</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>12.56111603129975</v>
+        <v>12.56111603129976</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>49.29260573502789</v>
+        <v>49.29260573502786</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>61.4985791352083</v>
+        <v>61.49857913520847</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>47.5950638221246</v>
+        <v>47.5950638221247</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>55.82505511938017</v>
+        <v>55.82505511937998</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>60.65005335298149</v>
+        <v>60.65005335298157</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>25.21702366929995</v>
+        <v>25.21702366929998</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>52.76857226818736</v>
+        <v>52.76857226818774</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>58.53961415318719</v>
+        <v>58.53961415318707</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>23.38791437755042</v>
+        <v>23.3879143775506</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>38.54072406736238</v>
+        <v>38.5407240673623</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>44.33535950983917</v>
+        <v>44.33535950983904</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>35.92130024554612</v>
+        <v>35.92130024554619</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>57.11183088534388</v>
+        <v>57.11183088534451</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>62.22545331642722</v>
+        <v>62.22545331642757</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>16.86587611968166</v>
+        <v>16.86587611968171</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>64.16981417607721</v>
+        <v>64.16981417607703</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>71.28589413023229</v>
+        <v>71.28589413023228</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>79.09300946066222</v>
+        <v>79.0930094606621</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>80.33224012761494</v>
+        <v>80.33224012761465</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>83.60977911793762</v>
+        <v>83.60977911793756</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>26.59684753211867</v>
+        <v>26.5968475321188</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>67.04000870437571</v>
+        <v>67.04000870437594</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>75.96372667403499</v>
+        <v>75.96372667403503</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>8.435361599216414</v>
+        <v>8.435361599216506</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>27.81628621449559</v>
+        <v>27.81628621449551</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>35.79821311691054</v>
+        <v>35.79821311691045</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>3.194056208845886</v>
+        <v>3.194056208846156</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>27.86230109942643</v>
+        <v>27.86230109942645</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>35.40894368131302</v>
+        <v>35.40894368131319</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>8.641012287272357</v>
+        <v>8.641012287272464</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>54.57955291737412</v>
+        <v>54.57955291737424</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>57.69464297114752</v>
+        <v>57.69464297114773</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>60.40466738103842</v>
+        <v>60.40466738103873</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>62.97562478760763</v>
+        <v>62.97562478760788</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>62.34348946409377</v>
+        <v>62.34348946409408</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>6.573055891884358</v>
+        <v>6.573055891884291</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>43.82522429567292</v>
+        <v>43.82522429567287</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>45.83539573374613</v>
+        <v>45.83539573374642</v>
       </c>
     </row>
     <row r="778">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>35.92291849203812</v>
+        <v>35.92291849203819</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>36.96236141427496</v>
+        <v>36.96236141427509</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>4.142560365728947</v>
+        <v>4.142560365728972</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>30.26413219356963</v>
+        <v>30.26413219356954</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>34.80665086786431</v>
+        <v>34.80665086786459</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>5.980844635528737</v>
+        <v>5.980844635528783</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>47.88194609113285</v>
+        <v>47.8819460911329</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>56.3771571523921</v>
+        <v>56.37715715239225</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>47.22486639788379</v>
+        <v>47.22486639788358</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>57.03406176628231</v>
+        <v>57.03406176628228</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>61.72195679430065</v>
+        <v>61.72195679430056</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>7.80943251816452</v>
+        <v>7.809432518164449</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>46.83730317297503</v>
+        <v>46.83730317297491</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>55.90276904759885</v>
+        <v>55.90276904759872</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>10.12081604316388</v>
+        <v>10.12081604316395</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>32.31762865951034</v>
+        <v>32.3176286595104</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>42.46194550880261</v>
+        <v>42.46194550880259</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>-0.08118924657442506</v>
+        <v>-0.08118924657451032</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>28.8584672087955</v>
+        <v>28.85846720879552</v>
       </c>
     </row>
     <row r="798">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>2.433117759878829</v>
+        <v>2.433117759878769</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>48.05835209885765</v>
+        <v>48.05835209885753</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>66.35552444686996</v>
+        <v>66.35552444687011</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>60.38341064599371</v>
+        <v>60.38341064599393</v>
       </c>
     </row>
     <row r="803">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>82.88860206422804</v>
+        <v>82.88860206422842</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>5.504617385593061</v>
+        <v>5.504617385593107</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>60.52171294443106</v>
+        <v>60.52171294443117</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>68.71700612764184</v>
+        <v>68.71700612764175</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>10.63493604213314</v>
+        <v>10.63493604213321</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>13.16111332245218</v>
+        <v>13.16111332245224</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>17.33358616040683</v>
+        <v>17.33358616040685</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>1.884351346040461</v>
+        <v>1.884351346040429</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>13.76475522804542</v>
+        <v>13.76475522804536</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>16.18086789086218</v>
+        <v>16.18086789086257</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>7.835909766438579</v>
+        <v>7.835909766438466</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>24.9607203626592</v>
+        <v>24.96072036265905</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>28.06188894083308</v>
+        <v>28.06188894083273</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>24.46693985969588</v>
+        <v>24.46693985969576</v>
       </c>
     </row>
     <row r="818">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>30.97111856679157</v>
+        <v>30.97111856679145</v>
       </c>
     </row>
     <row r="820">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>18.00869415148921</v>
+        <v>18.0086941514891</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>22.02837703038992</v>
+        <v>22.02837703039003</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>8.041343345110867</v>
+        <v>8.041343345110946</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>20.40034369673918</v>
+        <v>20.40034369673916</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>31.1253855437832</v>
+        <v>31.12538554378314</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>-0.1190926571001967</v>
+        <v>-0.1190926571002322</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>12.49041162496521</v>
+        <v>12.4904116249652</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>26.28470448141044</v>
+        <v>26.28470448141043</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>3.660920323087243</v>
+        <v>3.660920323087325</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>24.25511904366492</v>
+        <v>24.25511904366494</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>45.64469481548005</v>
+        <v>45.64469481547995</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>27.49021805746432</v>
+        <v>27.4902180574643</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>39.63430646658253</v>
+        <v>39.63430646658243</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>54.29207186287083</v>
+        <v>54.29207186287076</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>4.955520928714265</v>
+        <v>4.955520928714407</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>35.33962183032912</v>
+        <v>35.33962183032944</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>46.99412950834055</v>
+        <v>46.99412950834043</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>13.85883095043549</v>
+        <v>13.85883095043548</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>27.92088859697002</v>
+        <v>27.92088859696998</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>40.41165015025443</v>
+        <v>40.41165015025452</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>1.670500943177327</v>
+        <v>1.670500943177309</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>20.96333777384778</v>
+        <v>20.9633377738477</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>34.76892752201182</v>
+        <v>34.76892752201201</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>7.211382058126475</v>
+        <v>7.211382058126603</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>38.14026627344215</v>
+        <v>38.14026627344199</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>58.11143388925511</v>
+        <v>58.111433889255</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>48.56212685995982</v>
+        <v>48.56212685996006</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>56.63045574209203</v>
+        <v>56.63045574209197</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>69.02103022002305</v>
+        <v>69.02103022002288</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>5.208528623066663</v>
+        <v>5.208528623066698</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>40.31025508227012</v>
+        <v>40.31025508227027</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>62.63140997598652</v>
+        <v>62.63140997598661</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>16.2323621550107</v>
+        <v>16.23236215501069</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>21.38734223313993</v>
+        <v>21.38734223314</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>28.09896632576296</v>
+        <v>28.09896632576299</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>1.858104006078879</v>
+        <v>1.858104006078726</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>30.02542415395926</v>
+        <v>30.02542415395877</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>33.85833214570722</v>
+        <v>33.85833214570729</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>13.4900887535773</v>
+        <v>13.49008875357754</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>46.49211133028207</v>
+        <v>46.49211133028221</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>48.18571781014685</v>
+        <v>48.18571781014708</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>36.02138756513554</v>
+        <v>36.02138756513527</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>40.58031765127606</v>
+        <v>40.58031765127568</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>43.7179872302717</v>
+        <v>43.71798723027175</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>10.49859197892379</v>
+        <v>10.49859197892427</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>37.35727800863232</v>
+        <v>37.35727800863265</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>42.50819285469545</v>
+        <v>42.50819285469539</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>10.09177507282732</v>
+        <v>10.09177507282742</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>24.19339986598576</v>
+        <v>24.19339986598574</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>36.20238609455998</v>
+        <v>36.20238609455996</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>3.273239642441638</v>
+        <v>3.273239642441354</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>20.01794096640243</v>
+        <v>20.01794096640248</v>
       </c>
     </row>
     <row r="873">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>2.647324474667759</v>
+        <v>2.647324474667776</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>32.39607846789876</v>
+        <v>32.39607846789885</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>52.61859387956064</v>
+        <v>52.6185938795608</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>29.80473100999117</v>
+        <v>29.80473100999124</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>41.74493948102278</v>
+        <v>41.74493948102293</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>59.28921888266365</v>
+        <v>59.28921888266387</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>6.494301303470628</v>
+        <v>6.494301303470394</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>39.7311414219473</v>
+        <v>39.73114142194726</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>48.65028226181239</v>
+        <v>48.65028226181251</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>14.48706040551652</v>
+        <v>14.48706040551636</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>26.8514260527621</v>
+        <v>26.85142605276222</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>36.60192536260932</v>
+        <v>36.60192536260917</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>3.098515188510799</v>
+        <v>3.098515188510728</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>23.83743335620399</v>
+        <v>23.837433356204</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>36.97322488455799</v>
+        <v>36.97322488455811</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>7.965816701229755</v>
+        <v>7.965816701229876</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>42.94933905163347</v>
+        <v>42.94933905163404</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>56.23474060471526</v>
+        <v>56.23474060471486</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>53.56473577762664</v>
+        <v>53.56473577762678</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>59.01052327346769</v>
+        <v>59.01052327346738</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>71.13842846837667</v>
+        <v>71.13842846837662</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>4.921401914508088</v>
+        <v>4.921401914508152</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>38.38742460021989</v>
+        <v>38.38742460021996</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>57.60145367489315</v>
+        <v>57.60145367489323</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>15.6310082624812</v>
+        <v>15.63100826248116</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>28.10575280332203</v>
+        <v>28.10575280332208</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>37.14337275463507</v>
+        <v>37.14337275463515</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>5.25077191985978</v>
+        <v>5.250771919859893</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>42.70976522427662</v>
+        <v>42.70976522427657</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>47.52391656561254</v>
+        <v>47.52391656561255</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>14.4608702874006</v>
+        <v>14.46087028740044</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>65.35542259733319</v>
+        <v>65.35542259733297</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>66.53389497483067</v>
+        <v>66.53389497483042</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>60.00682507106979</v>
+        <v>60.00682507106965</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>58.80785267206861</v>
+        <v>58.80785267206863</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>62.52345512923382</v>
+        <v>62.52345512923385</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>15.9952282699412</v>
+        <v>15.99522826994136</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>22.08828521391112</v>
+        <v>22.08828521391133</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>66.61975683020407</v>
+        <v>66.61975683020437</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>21.96861337608531</v>
+        <v>21.96861337608532</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>38.18026630267627</v>
+        <v>38.18026630267606</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>40.23849117078871</v>
+        <v>40.23849117078875</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>5.379534763100402</v>
+        <v>5.379534763100256</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>29.28320438789546</v>
+        <v>29.2832043878954</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>35.68776732919755</v>
+        <v>35.68776732919763</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>10.4568644878244</v>
+        <v>10.4568644878242</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>49.39036701286805</v>
+        <v>49.3903670128679</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>56.88627625009813</v>
+        <v>56.88627625009809</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>51.19214802437409</v>
+        <v>51.19214802437421</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>57.30682255093323</v>
+        <v>57.30682255093301</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>62.42552023508748</v>
+        <v>62.42552023508735</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>20.15665435050782</v>
+        <v>20.15665435050775</v>
       </c>
     </row>
     <row r="926">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>58.0040519768261</v>
+        <v>58.00405197682607</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>22.96681147049868</v>
+        <v>22.96681147049873</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>39.56389522606266</v>
+        <v>39.56389522606255</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>44.5400994307822</v>
+        <v>44.54009943078204</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>4.579805074634525</v>
+        <v>4.57980507463455</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>34.36279334830097</v>
+        <v>34.3627933483009</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>39.40320114539364</v>
+        <v>39.4032011453935</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>12.79609552149275</v>
+        <v>12.79609552149277</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>60.29843448585146</v>
+        <v>60.2984344858514</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>70.12041274515019</v>
+        <v>70.12041274515002</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>70.99354022480475</v>
+        <v>70.99354022480478</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>75.08512759199877</v>
+        <v>75.08512759199871</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>81.50957113562458</v>
+        <v>81.50957113562436</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>18.51167609042691</v>
+        <v>18.51167609042687</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>60.33177154893593</v>
+        <v>60.33177154893574</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>70.96452733396936</v>
+        <v>70.96452733396929</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>7.708597743072623</v>
+        <v>7.708597743072637</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>24.71516796312785</v>
+        <v>24.71516796312806</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>32.06426956904755</v>
+        <v>32.06426956904761</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>2.539117057236229</v>
+        <v>2.539117057236236</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>30.84895438220392</v>
+        <v>30.84895438220375</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>32.99666070658424</v>
+        <v>32.99666070658429</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>7.860506396326713</v>
+        <v>7.860506396326929</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>50.96697247057065</v>
+        <v>50.9669724705706</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>54.96905265722835</v>
+        <v>54.96905265722841</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>55.91312972578792</v>
+        <v>55.91312972578802</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>61.23657965423059</v>
+        <v>61.2365796542308</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>59.89752694518807</v>
+        <v>59.8975269451883</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>6.056077566629043</v>
+        <v>6.056077566629021</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>37.07735982544898</v>
+        <v>37.07735982544899</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>39.64738242653803</v>
+        <v>39.64738242653741</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>9.338908400146686</v>
+        <v>9.338908400146849</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>32.18854043268529</v>
+        <v>32.18854043268507</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>35.33356087143741</v>
+        <v>35.33356087143723</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>2.355905956488254</v>
+        <v>2.355905956488193</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>26.80388755793343</v>
+        <v>26.80388755793327</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>33.6624121708687</v>
+        <v>33.66241217086883</v>
       </c>
     </row>
     <row r="964">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>45.48366137027768</v>
+        <v>45.48366137027766</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>60.01763400366638</v>
+        <v>60.01763400366615</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>48.08944168843605</v>
+        <v>48.08944168843615</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>58.47750235232813</v>
+        <v>58.47750235232825</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>64.09231488423276</v>
+        <v>64.09231488423272</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>7.189405525453729</v>
+        <v>7.189405525453751</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>55.02782960187161</v>
+        <v>55.02782960187155</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>54.42935662737003</v>
+        <v>54.42935662737004</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>11.61558859842607</v>
+        <v>11.61558859842613</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>30.53517065127934</v>
+        <v>30.53517065127913</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>42.09875664042914</v>
+        <v>42.09875664042903</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>0.9771483021921483</v>
+        <v>0.9771483021922265</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>25.97902783114701</v>
+        <v>25.97902783114705</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>36.77975138914805</v>
+        <v>36.779751389148</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>5.805237294083675</v>
+        <v>5.80523729408376</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>44.64331319002831</v>
+        <v>44.64331319002851</v>
       </c>
     </row>
     <row r="981">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>61.32390361404605</v>
+        <v>61.32390361404571</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>70.61325074455338</v>
+        <v>70.61325074455354</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>81.75798916015879</v>
+        <v>81.75798916015891</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>5.4979104317637</v>
+        <v>5.497910431763728</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>51.24512448372334</v>
+        <v>51.24512448372314</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>65.72833248914242</v>
+        <v>65.72833248914247</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.556</v>
+        <v>0.535</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.129</v>
+        <v>16.63</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.79</v>
+        <v>0.794</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.889</v>
+        <v>12.779</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.978</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.915</v>
+        <v>0.949</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8.670510314787697</v>
+        <v>8.187424605253522</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>10.99983022789345</v>
+        <v>11.87913528965621</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>15.56910140186804</v>
+        <v>12.57515080275352</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-2.747877908200728</v>
+        <v>0.9126774206792483</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>12.60417189306311</v>
+        <v>12.18639185983168</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>16.02552190020478</v>
+        <v>12.92203639512118</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.7886495591487446</v>
+        <v>4.729936642935137</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>23.16610392573318</v>
+        <v>19.35757403184036</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>25.94780628906651</v>
+        <v>22.25462601569802</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>23.59280667955368</v>
+        <v>22.04596999242974</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>27.71652247879316</v>
+        <v>26.06338587559008</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>32.60489573591684</v>
+        <v>30.79766181787356</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4.702567920245954</v>
+        <v>6.848469604176302</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>13.92765977806908</v>
+        <v>14.60382852830598</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>19.18267731996844</v>
+        <v>15.88300184418634</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>9.929630797182149</v>
+        <v>7.44647231443837</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>24.67867422653572</v>
+        <v>27.80950140142049</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>39.28806829609125</v>
+        <v>42.3589326594367</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-1.516718779599465</v>
+        <v>-0.0008626052535021245</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>14.33013959675654</v>
+        <v>13.39026481447349</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>33.04057870432197</v>
+        <v>31.27019869820883</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.6896570985208328</v>
+        <v>1.104103703575365</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>27.17714465037815</v>
+        <v>25.82631866242107</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>55.85167321386118</v>
+        <v>58.67136869515035</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>32.90991883029177</v>
+        <v>30.30520952918524</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>52.82655727338316</v>
+        <v>51.92590424977438</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>73.53110794131823</v>
+        <v>76.27254713526106</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5.813365422499182</v>
+        <v>3.973112018048489</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>45.62147972101643</v>
+        <v>45.43049721843951</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>63.11257628433935</v>
+        <v>64.90822941785908</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>14.32236175238152</v>
+        <v>12.01114532844708</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>33.93885901941889</v>
+        <v>34.48397762299718</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>42.88562253102718</v>
+        <v>44.95979003260091</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.2185175144102125</v>
+        <v>1.188461805732015</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>26.65782344910911</v>
+        <v>26.60725007853123</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>38.1349231848481</v>
+        <v>41.08528588058906</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>3.270419709286351</v>
+        <v>1.818732245930637</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>44.77750847754378</v>
+        <v>46.54056263854792</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>60.0586144569891</v>
+        <v>61.2090740381457</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>60.51977042955853</v>
+        <v>57.48537581391471</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>76.37396562226856</v>
+        <v>73.4505035205454</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>83.49723447441598</v>
+        <v>81.42664994546662</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>14.98089209423752</v>
+        <v>17.29632323209609</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>63.82365570744926</v>
+        <v>63.93111143621832</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>69.28016016006006</v>
+        <v>71.74781157175352</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>4.894474174103134</v>
+        <v>1.85517324790667</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>31.16523169582793</v>
+        <v>30.51789844815766</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>39.14794504991289</v>
+        <v>39.98572585399905</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1.984114027060496</v>
+        <v>1.262355278605853</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>42.83374558169675</v>
+        <v>38.14141837125942</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>43.77655807703768</v>
+        <v>40.77603130755703</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6.726332261407507</v>
+        <v>2.519155474170468</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>66.71534236979741</v>
+        <v>60.79107136958252</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>67.05423699809752</v>
+        <v>67.29211565776248</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>61.70094001541234</v>
+        <v>65.58929676038971</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>76.37421242201893</v>
+        <v>77.95381798712427</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>64.28570392248439</v>
+        <v>62.17814770995309</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>5.585794853030272</v>
+        <v>4.221727234585281</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>47.34612752543222</v>
+        <v>43.44899854939075</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>52.95414362803838</v>
+        <v>49.99174187452513</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>8.192746048299718</v>
+        <v>5.455156968483735</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>34.72948539902203</v>
+        <v>37.43353824366565</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>41.21145909970714</v>
+        <v>43.32118567714165</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>-0.7922492105789694</v>
+        <v>-0.3824134829880173</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>24.41265429633989</v>
+        <v>22.1158851302595</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>37.21353337513455</v>
+        <v>34.60896403163635</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>1.53918943617321</v>
+        <v>1.14347839523186</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>44.76825641714441</v>
+        <v>46.33524629625404</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>61.00115999262</v>
+        <v>61.89681393638674</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>51.95508378704159</v>
+        <v>49.75136330278985</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>66.65577423913196</v>
+        <v>69.03775111770128</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>74.30627486235758</v>
+        <v>77.027215181217</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>5.911079694768617</v>
+        <v>3.586660212917092</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>58.99708376819476</v>
+        <v>59.06937026323166</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>62.22221778002432</v>
+        <v>62.42635231182406</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>9.058677751757669</v>
+        <v>5.949572247229771</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>35.96420009170062</v>
+        <v>39.00415268158801</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>48.08653771475088</v>
+        <v>46.16818968656457</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>0.1233747988861893</v>
+        <v>0.2771865244270835</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>34.39025302887997</v>
+        <v>37.35471949337627</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>44.77962638349567</v>
+        <v>40.90113698260784</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>4.74345418078007</v>
+        <v>1.729295956171892</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>59.42487905119732</v>
+        <v>62.03388828725023</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>79.69827885540727</v>
+        <v>77.71158153062525</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>68.85474458622775</v>
+        <v>66.54324117306224</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>87.405008781704</v>
+        <v>86.03817225368286</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>93.50651841756246</v>
+        <v>90.02175984253455</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>6.686501252933823</v>
+        <v>4.218563586072765</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>71.13594428794573</v>
+        <v>72.98224191765394</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>76.20303708635615</v>
+        <v>76.0349018218128</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>11.64525100132942</v>
+        <v>14.03329020286763</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>32.37174196433895</v>
+        <v>30.08770570269052</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>35.60535263553992</v>
+        <v>37.8912956652327</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>1.36275341522683</v>
+        <v>1.425910397927499</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>36.9785634156136</v>
+        <v>35.40819503637148</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>34.63782883479635</v>
+        <v>37.23142567266093</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>6.136096766304842</v>
+        <v>3.406016489033867</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>62.39628655720755</v>
+        <v>62.87825888855623</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>56.99413136206181</v>
+        <v>61.84934217022139</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>51.22557167650972</v>
+        <v>52.01479758777671</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>60.87288269748866</v>
+        <v>62.76192351788877</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>57.51962754762489</v>
+        <v>59.64827881389841</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>10.83136657276263</v>
+        <v>9.522452463429822</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>38.56843986244549</v>
+        <v>35.65398685719607</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>41.22543070838354</v>
+        <v>37.60748939515597</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>18.5652401702142</v>
+        <v>23.03879903418802</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>44.9461595314908</v>
+        <v>42.03957457882124</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>46.2476612266133</v>
+        <v>45.01503947552931</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>3.586030898973508</v>
+        <v>1.476708836551662</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>34.16497930578759</v>
+        <v>33.55441472926806</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>39.37799836490417</v>
+        <v>37.67466630170371</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>5.134558773979517</v>
+        <v>3.180771580719952</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>56.99913250367558</v>
+        <v>59.55018928769482</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>64.90064011488336</v>
+        <v>64.35158270883744</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>58.85866056913581</v>
+        <v>60.70014473872523</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>70.14179021517864</v>
+        <v>73.08178800131867</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>74.44774474500534</v>
+        <v>77.27611351368104</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>17.48923117028064</v>
+        <v>20.11822600266379</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>63.63143174744351</v>
+        <v>60.358744690489</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>61.90428932682219</v>
+        <v>66.29438458807695</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>18.47594561747995</v>
+        <v>21.60550627474734</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>44.37885240625705</v>
+        <v>43.48138226561023</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>50.64881831924385</v>
+        <v>46.30851544806924</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>2.708420499259056</v>
+        <v>0.4226132607003343</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>41.00237244324046</v>
+        <v>38.55049005870766</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>44.04774665446045</v>
+        <v>40.61069981955983</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>4.606778855792886</v>
+        <v>2.567988190421943</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>67.85714015127105</v>
+        <v>67.64628750253334</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>78.13368759684964</v>
+        <v>75.40631736694758</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>77.01542169011501</v>
+        <v>72.59119086474631</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>84.32960414364914</v>
+        <v>80.32022229290385</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>92.68090178740084</v>
+        <v>88.1164676823183</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>16.56806916420207</v>
+        <v>21.24769860349859</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>72.90541932799445</v>
+        <v>71.87614371953555</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>76.84116164137342</v>
+        <v>76.26279936968891</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>11.8818133538499</v>
+        <v>10.07323789912803</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>12.62221949850704</v>
+        <v>14.12306038899751</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>17.87126950912654</v>
+        <v>14.43811483851435</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>-0.9825389574522525</v>
+        <v>1.067522264652258</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>12.55057108737802</v>
+        <v>10.44089885884874</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>13.38945144839683</v>
+        <v>10.52263216505879</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>3.958409392127773</v>
+        <v>5.897231202628642</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>24.86178044820305</v>
+        <v>22.88570470772607</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>27.35457966567071</v>
+        <v>23.66782047740344</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>23.24457142528755</v>
+        <v>21.77677182567493</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>26.20658782616582</v>
+        <v>24.57130104938257</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>34.25006233330244</v>
+        <v>32.49300190423737</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>63.23542656009884</v>
+        <v>64.22293729819135</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>63.9088297095746</v>
+        <v>67.18032629499993</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>60.96015731116871</v>
+        <v>64.29758388746825</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>9.326653866459965</v>
+        <v>7.20356340104173</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>24.66540953795477</v>
+        <v>29.19758293311302</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>39.72004470157492</v>
+        <v>41.9835719726735</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>-1.313406386223928</v>
+        <v>-0.6311549316819445</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>11.65008865922451</v>
+        <v>9.172199209251982</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>29.40642810787051</v>
+        <v>25.71341657747721</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>31.47656342172695</v>
+        <v>30.22435333645645</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>58.50322722382796</v>
+        <v>60.51014189435152</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>30.99818583964713</v>
+        <v>29.67590477607416</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>48.26008872341231</v>
+        <v>51.54050800137829</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>69.59986516431883</v>
+        <v>72.13336207173482</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>6.627733934407889</v>
+        <v>4.990063862127496</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>44.6938036402871</v>
+        <v>46.90906147695728</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>54.10057135875044</v>
+        <v>56.15110659714253</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>20.14114885181626</v>
+        <v>23.02412021036532</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>32.18646620425269</v>
+        <v>35.88746304766967</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>44.05087361160765</v>
+        <v>46.5747172694084</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>1.72181657503576</v>
+        <v>0.7855290000229473</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>17.82629174705475</v>
+        <v>16.50990691551783</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>30.38899903545365</v>
+        <v>28.19343819206407</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>9.745475948669316</v>
+        <v>7.894976460028104</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>43.77295969620609</v>
+        <v>43.51088197446211</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>63.53713815233659</v>
+        <v>66.80620321016426</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>44.27051777947993</v>
+        <v>42.19992176600243</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>61.98339979656487</v>
+        <v>60.02614557233544</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>80.69316622123782</v>
+        <v>82.42100688954223</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>25.83856531530581</v>
+        <v>25.73316595301415</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>60.60887229970594</v>
+        <v>63.87896039027259</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>67.31149663208184</v>
+        <v>70.91739649175254</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>7.355105252736703</v>
+        <v>5.33805667392598</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>23.98436325104792</v>
+        <v>23.38948908228221</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>30.20510983554824</v>
+        <v>31.29143210808631</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>2.894420401043504</v>
+        <v>1.815780835939197</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>33.98830268762855</v>
+        <v>31.19909535049456</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>37.87545565852697</v>
+        <v>40.25340394431699</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>8.666581398250326</v>
+        <v>7.329116406252886</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>63.27471470328887</v>
+        <v>62.77122974775162</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>62.13565782358392</v>
+        <v>65.97580934784048</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>53.78157890967948</v>
+        <v>52.20219344256261</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>64.72137678313959</v>
+        <v>67.0583147852023</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>65.19686500747579</v>
+        <v>67.81686728330901</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>11.47048697951024</v>
+        <v>10.52363074151136</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>10.46228098470164</v>
+        <v>8.827646186596791</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>11.10375086177311</v>
+        <v>9.425810570740996</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>20.42173924393181</v>
+        <v>24.53117067758471</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>43.68525258349437</v>
+        <v>44.27084104686945</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>44.32357175318943</v>
+        <v>43.15156129757895</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>4.868459549365362</v>
+        <v>2.236267875705011</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>34.47487736524592</v>
+        <v>33.61042069614014</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>42.67454403861726</v>
+        <v>40.75910995182085</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>60.31339548412548</v>
+        <v>62.95671489525972</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>66.7119704708648</v>
+        <v>67.07072085014079</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>65.11364006167703</v>
+        <v>66.24418611367361</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>75.09385938656231</v>
+        <v>77.27862782100715</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>83.19263520463286</v>
+        <v>82.15595796527134</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>32.21448346276833</v>
+        <v>34.41005423152629</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>68.83111428094023</v>
+        <v>67.22353127335995</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>71.38871580635404</v>
+        <v>70.3146225721903</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>21.66540044915337</v>
+        <v>24.89946593257731</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>42.11807742285659</v>
+        <v>43.82869340281034</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>48.67977221805845</v>
+        <v>45.58992461699502</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>1.811718557937251</v>
+        <v>0.9368317191652764</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>31.7823145092946</v>
+        <v>28.11409210914174</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>40.54673252327148</v>
+        <v>36.35942481364177</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>9.814541598079764</v>
+        <v>8.061551371988759</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>62.53439566901566</v>
+        <v>61.95506509563157</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>74.40809869413749</v>
+        <v>72.35535571805045</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>75.31456482930939</v>
+        <v>71.46971151387422</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>83.99593865617754</v>
+        <v>79.58776707922026</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>86.26986843884383</v>
+        <v>84.05795800629589</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>32.54148848702627</v>
+        <v>34.63383068802713</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>70.43280259314918</v>
+        <v>72.64152954316211</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>76.75532908462536</v>
+        <v>77.5336361533808</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>2.577528996381048</v>
+        <v>3.451048116619877</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>18.1872497408041</v>
+        <v>20.30280763532427</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>30.51233965519065</v>
+        <v>30.21821258632395</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>2.759662495713098</v>
+        <v>1.082478820463933</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>38.02021343200428</v>
+        <v>39.25263953931047</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>37.81844030112504</v>
+        <v>35.82382625740669</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>9.800419806803374</v>
+        <v>7.379904609766655</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>69.14109933425709</v>
+        <v>66.03362738801761</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>66.67110548284924</v>
+        <v>67.42268634038777</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>55.69106053776817</v>
+        <v>52.75683140883803</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>65.80761529400442</v>
+        <v>68.26076240138407</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>68.40969702777522</v>
+        <v>70.96047823320832</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>3.842362304114921</v>
+        <v>5.4522301753398</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>6.709905890464238</v>
+        <v>5.27862077884576</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>7.302144428954893</v>
+        <v>5.757791755895319</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>14.29944300962603</v>
+        <v>16.1078524237357</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>45.08850049534768</v>
+        <v>46.89742459423813</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>46.89296548395873</v>
+        <v>47.35370637721373</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>3.533235353030708</v>
+        <v>1.56834433017405</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>39.04137491275478</v>
+        <v>40.64826429437262</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>44.82519338459153</v>
+        <v>48.10947262010853</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>4.792053971730564</v>
+        <v>1.939146753645993</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>66.84707368777879</v>
+        <v>69.25332204911433</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>69.67870774309664</v>
+        <v>71.83073124573825</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>53.97678138438135</v>
+        <v>57.1884856297049</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>70.96529441750839</v>
+        <v>72.00127786217249</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>79.29536884139117</v>
+        <v>82.19857448088916</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>17.85158556354873</v>
+        <v>14.92973654463402</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>69.60162955877706</v>
+        <v>69.91063561554273</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>71.90269477472006</v>
+        <v>72.97591809002833</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>17.40689073256817</v>
+        <v>18.32700530452097</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>2.073766122764521</v>
+        <v>1.429786261830625</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>39.05252320269834</v>
+        <v>38.74382594942687</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>42.60918923267801</v>
+        <v>39.0982884902833</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>7.975875721982636</v>
+        <v>5.272904824245579</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>69.372454453776</v>
+        <v>68.32656622446237</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>77.50508355621893</v>
+        <v>74.98151982699389</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>70.90587780703143</v>
+        <v>73.83284855224488</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>86.90914364885509</v>
+        <v>83.77877647448983</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>91.15776948938111</v>
+        <v>89.07146368834015</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>16.36664523379969</v>
+        <v>14.86449638330959</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>75.19679382631674</v>
+        <v>77.6119798039049</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>78.19654037541616</v>
+        <v>79.92375118379908</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>4.425334637221184</v>
+        <v>5.359903792631524</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>6.036532914765885</v>
+        <v>5.679749192278869</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>9.133135137192379</v>
+        <v>6.581104398317702</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>-2.832104802302858</v>
+        <v>0.5854039524915038</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>10.84597405888825</v>
+        <v>9.417196102256263</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>9.94005832199743</v>
+        <v>9.499713139002239</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>0.261628631866401</v>
+        <v>4.045329900427745</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>18.89747452703864</v>
+        <v>15.71095627796841</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>19.79212032457876</v>
+        <v>18.12238468548476</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>21.64471626439826</v>
+        <v>24.3464551108832</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>27.70028633372848</v>
+        <v>28.93761390740206</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>30.75801834667262</v>
+        <v>34.14384287575605</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>1.811221395234696</v>
+        <v>3.827059838302404</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>7.839470343938569</v>
+        <v>6.497095469944021</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>9.875891564774701</v>
+        <v>8.429515422324716</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>8.924967353079035</v>
+        <v>6.924367101987112</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>23.92304650188632</v>
+        <v>28.19711834754597</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>34.57181724141652</v>
+        <v>36.13678747456947</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>-0.7414955846068345</v>
+        <v>1.580595997627803</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>16.58879011505475</v>
+        <v>17.84844424515899</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>29.48863606322814</v>
+        <v>32.02392251817201</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>4.802704024462724</v>
+        <v>6.200628027675251</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>30.841528608804</v>
+        <v>35.59498242774968</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>51.45535853525011</v>
+        <v>54.61244083809118</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>34.58734613190595</v>
+        <v>37.45032596511396</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>50.95189689789693</v>
+        <v>53.09684012148256</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>61.91889129307427</v>
+        <v>59.39927467299195</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>7.816981690871984</v>
+        <v>6.160363963593547</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>42.32961880346085</v>
+        <v>45.25273953157741</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>52.77447393762423</v>
+        <v>53.5325081778419</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>9.4763652418617</v>
+        <v>7.479682403755437</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>29.85314842547041</v>
+        <v>27.43112001794923</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>39.27339661199544</v>
+        <v>40.17859880774386</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>0.2351490446968434</v>
+        <v>1.003584071891556</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>29.38977912412732</v>
+        <v>27.75165221494103</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>37.00650491829545</v>
+        <v>38.02213354468451</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>4.167490198828286</v>
+        <v>6.048320432381558</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>48.98585607819365</v>
+        <v>51.29317056453701</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>61.55836182919077</v>
+        <v>62.6317814734372</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>62.03373768575425</v>
+        <v>63.73212202119816</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>73.62982053109482</v>
+        <v>77.14545495967582</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>77.95416075847109</v>
+        <v>75.84587003061039</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>10.64045865415457</v>
+        <v>9.066065040193831</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>60.79264681188941</v>
+        <v>63.06185669601685</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>72.17601878112185</v>
+        <v>74.22130750691736</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>2.513610345321059</v>
+        <v>2.604082293286229</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>6.087920463164028</v>
+        <v>11.85963562801511</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>9.046670801836571</v>
+        <v>11.96874924984239</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>-3.196986374419343</v>
+        <v>0.1890612078955378</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>8.660816026023113</v>
+        <v>8.365133444928073</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>9.471994304835453</v>
+        <v>13.34631526629301</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>-0.8439679470442343</v>
+        <v>0.9763818649896123</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>15.53740755662561</v>
+        <v>14.16169099076184</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>14.79270106759879</v>
+        <v>11.41306059706135</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>14.68044134845171</v>
+        <v>13.13779049764282</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>16.71994057006318</v>
+        <v>15.01319095605944</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>16.61950473629948</v>
+        <v>14.9371730899628</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>4.412560403935053</v>
+        <v>6.366771721910919</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>12.22398497652043</v>
+        <v>13.94716357843841</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>12.20446470636886</v>
+        <v>13.86831374068909</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>1.36902745073067</v>
+        <v>0.03524294631584013</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>5.858417392554568</v>
+        <v>5.319299047417235</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>17.90394408470169</v>
+        <v>16.05737266802895</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>-2.854945107064033</v>
+        <v>0.03517670559018171</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>0.2500907502497007</v>
+        <v>3.901350706083083</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>12.03910726728359</v>
+        <v>12.11019317516795</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>-0.09602711977223066</v>
+        <v>2.860375218275589</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>10.00995284287729</v>
+        <v>7.147251310078246</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>28.11224649453275</v>
+        <v>32.81413899101311</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>14.98342905340437</v>
+        <v>10.18549434710992</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>25.05848344169733</v>
+        <v>21.7069165504011</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>41.68951861482221</v>
+        <v>43.59651383252805</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>-1.895576775863994</v>
+        <v>0.03566649195786908</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>13.53682459876569</v>
+        <v>11.28893816487529</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>14.02356000255747</v>
+        <v>12.54366486168301</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>5.315293278589088</v>
+        <v>1.71100366419482</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>7.871886312302351</v>
+        <v>8.304895383770592</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>30.17356580224847</v>
+        <v>27.7677904089071</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>-4.979303093983177</v>
+        <v>0.03560665094236271</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>2.872514544848379</v>
+        <v>6.382796611782634</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>21.88684728917325</v>
+        <v>25.49443646884967</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>-0.1890574550582258</v>
+        <v>2.067063784948736</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>14.61634501901456</v>
+        <v>13.39497060766125</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>51.26044505645655</v>
+        <v>53.84384963087464</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>20.47722875074492</v>
+        <v>19.0177056762262</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>47.18575079711947</v>
+        <v>47.43111573961178</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>67.12823481330929</v>
+        <v>68.89598277691989</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>-5.137747499418847</v>
+        <v>0.311381726855064</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>11.95468939786023</v>
+        <v>10.96769290439277</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>22.08347826922479</v>
+        <v>20.69913780382443</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>7.168385144841253</v>
+        <v>10.53307711850756</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>23.01403548084386</v>
+        <v>19.95378413742379</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>36.83214868078974</v>
+        <v>38.44742333646396</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>4.4339574370922</v>
+        <v>1.940930364312592</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>45.99489741297006</v>
+        <v>45.9916891360985</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>47.1953231213994</v>
+        <v>45.6330970287088</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>4.469285061700901</v>
+        <v>4.811834321790503</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>69.54381246195516</v>
+        <v>64.4007027563963</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>69.338592143673</v>
+        <v>70.32299478616778</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>62.98118456413143</v>
+        <v>60.01675903111718</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>70.10583062041644</v>
+        <v>65.42009796619234</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>65.12936786493418</v>
+        <v>67.17715969230714</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>23.18124090300867</v>
+        <v>20.44232784009791</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>41.28469991657879</v>
+        <v>43.20270177456469</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>67.57357066035644</v>
+        <v>70.02391335209886</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>10.01818111206819</v>
+        <v>12.12072822752961</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>34.79238386881373</v>
+        <v>33.14008203639438</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>36.64803665138597</v>
+        <v>35.6271317783067</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>-0.6880590743358006</v>
+        <v>1.480292459916573</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>29.13685201529761</v>
+        <v>32.02409387258754</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>33.01142054958913</v>
+        <v>34.0489320645978</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>1.260014436579198</v>
+        <v>5.790823120068172</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>51.97114651461595</v>
+        <v>52.10035819005218</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>55.51484020928102</v>
+        <v>56.14463349984693</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>49.58819289048122</v>
+        <v>49.81021736479268</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>59.06436808090497</v>
+        <v>59.0171692034388</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>63.41027803244923</v>
+        <v>62.15744405307172</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>16.76335055149579</v>
+        <v>19.60992361866437</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>57.24631615035808</v>
+        <v>52.74308785811161</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>57.7632413668567</v>
+        <v>55.51808273370177</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>11.63687584977954</v>
+        <v>14.6323042705334</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>35.46904727621062</v>
+        <v>32.09322089065214</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>44.22261622285633</v>
+        <v>43.32622792371686</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>2.774170995066246</v>
+        <v>1.432425600703567</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>39.16910923061282</v>
+        <v>41.3305587501624</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>43.30338184167312</v>
+        <v>42.06562629277084</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>6.201213258219482</v>
+        <v>7.268569445492467</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>64.06335507636612</v>
+        <v>64.30593202130699</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>75.33386752566268</v>
+        <v>73.84374557538629</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>71.17849072901006</v>
+        <v>67.35620155388649</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>81.83492169081489</v>
+        <v>76.91408888471972</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>85.32798891163785</v>
+        <v>79.77575745846443</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>15.31048433256611</v>
+        <v>18.68146891425479</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>70.67180299349954</v>
+        <v>70.32082312937504</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>78.6127974983325</v>
+        <v>80.11846853574684</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>4.566134902349084</v>
+        <v>7.160791002442519</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>9.348094221975742</v>
+        <v>9.9792095214973</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>12.33345497633862</v>
+        <v>10.33724696179711</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>-1.492816282050804</v>
+        <v>1.043604720302259</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>8.519281136644354</v>
+        <v>9.486520878120409</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>10.01175776895832</v>
+        <v>9.823362314297018</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>1.862239668791151</v>
+        <v>4.234159793534495</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>14.65861077547833</v>
+        <v>14.95733499056697</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>19.08543826244748</v>
+        <v>16.40121779576838</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>18.19146603779426</v>
+        <v>15.16983255874611</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>22.24613982528927</v>
+        <v>18.89009685171178</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>25.53568479962264</v>
+        <v>22.61052873000937</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>2.978731009029865</v>
+        <v>6.524529189676734</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>12.64566288292589</v>
+        <v>10.28920435126707</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>11.15131786786597</v>
+        <v>12.87561685908642</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>4.285539116624982</v>
+        <v>3.806407784534979</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>14.2913049288002</v>
+        <v>13.3181995006554</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>27.83320183627054</v>
+        <v>29.25135282336787</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>-2.270459130704328</v>
+        <v>1.290022517649458</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>6.369479459828941</v>
+        <v>4.788406205582675</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>23.22449691933261</v>
+        <v>27.06264740757849</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>0.8609108802715966</v>
+        <v>4.158904502441199</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>12.60574289518456</v>
+        <v>10.21468099669051</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>41.48450486494976</v>
+        <v>43.99861126605302</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>17.22977580108785</v>
+        <v>14.6403891363368</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>29.33146019239502</v>
+        <v>26.81766572991067</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>42.2063012115557</v>
+        <v>45.30834447690442</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>0.7592255604960023</v>
+        <v>1.859418684847309</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>24.3368161855602</v>
+        <v>22.19776563760441</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>37.02569242257562</v>
+        <v>33.11356635852052</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>11.44063845163807</v>
+        <v>8.969260284187612</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>21.93814714080639</v>
+        <v>21.92351143599774</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>36.92537458624948</v>
+        <v>39.16081533806094</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>1.505436573772965</v>
+        <v>1.736431973819631</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>15.73912054613905</v>
+        <v>14.38160663555314</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>30.62972110379325</v>
+        <v>32.43416959125665</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>7.201060783115139</v>
+        <v>10.02343127919413</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>28.86840228345998</v>
+        <v>27.5501905315917</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>53.95731943406842</v>
+        <v>56.17373819782546</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>33.09091007516597</v>
+        <v>31.18957539634015</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>42.79224919148937</v>
+        <v>40.29195773682688</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>68.49817131470903</v>
+        <v>70.24941671915676</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>16.13276478620337</v>
+        <v>20.63148714542772</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>38.55461821729261</v>
+        <v>37.10923556224803</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>56.08577475834388</v>
+        <v>54.44075570116579</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>3.221774241793476</v>
+        <v>1.007547232020436</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>-0.7014316783565953</v>
+        <v>1.090671842394951</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>5.048319203014461</v>
+        <v>7.51742141373256</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>-4.471120209014074</v>
+        <v>0.03574056492011124</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>2.470352740066229</v>
+        <v>0.9603217367205943</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>3.267838995616362</v>
+        <v>2.339213261677148</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>3.747659745519165</v>
+        <v>7.215698553387028</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>12.0510104911991</v>
+        <v>8.729096802438658</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>12.31100570820788</v>
+        <v>8.838976699213109</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>3.396961032411294</v>
+        <v>2.281539406843688</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>3.800934658855098</v>
+        <v>2.667901852332548</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>16.28141552729026</v>
+        <v>19.60215737416969</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>-2.365504703304723</v>
+        <v>0.03561450178676395</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>-4.356991773909328</v>
+        <v>-0.6314244972629695</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>1.723237906551816</v>
+        <v>0.3931286027053176</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>17.19499211973404</v>
+        <v>16.29665884466986</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>37.4639177826846</v>
+        <v>33.69320939811506</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>39.17907614783525</v>
+        <v>35.80088926738338</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>4.659043585259106</v>
+        <v>1.642377611322061</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>27.95071386229151</v>
+        <v>26.41252938178887</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>34.05067921154462</v>
+        <v>31.30147112902973</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>9.504579059710194</v>
+        <v>6.75849594456016</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>51.13486632756394</v>
+        <v>54.61354483989666</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>58.18688272656581</v>
+        <v>58.52348936391334</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>48.73694809897572</v>
+        <v>50.01166329033971</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>57.08368430646595</v>
+        <v>58.49406297825735</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>62.89861957671429</v>
+        <v>58.78332346180804</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>14.55948734835262</v>
+        <v>16.58572552848567</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>54.34094873535999</v>
+        <v>50.89650913622521</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>53.5071047884767</v>
+        <v>56.68510007798488</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>17.07962845200611</v>
+        <v>18.76967528645822</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>38.63605698593244</v>
+        <v>36.85696253042418</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>45.94236058077467</v>
+        <v>48.2577311451863</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>2.502397911865849</v>
+        <v>1.452041385754629</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>34.72800408165922</v>
+        <v>34.78291756549769</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>38.52083512013672</v>
+        <v>38.27837037211808</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>8.208446792054968</v>
+        <v>7.320586609544364</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>62.13388866948964</v>
+        <v>64.08637104215914</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>70.6838405409799</v>
+        <v>71.37846292372512</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>67.08017408176849</v>
+        <v>69.01800752254061</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>77.93022891164108</v>
+        <v>77.69771740727221</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>83.43021751859774</v>
+        <v>80.65236551169045</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>14.4772205950544</v>
+        <v>13.1756883212339</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>65.93106395433909</v>
+        <v>68.30591063786912</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>69.76717184740983</v>
+        <v>72.10086419095558</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>10.61804255102636</v>
+        <v>11.38686415884097</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>14.51156376780138</v>
+        <v>12.92413657527481</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>15.34456518516252</v>
+        <v>13.44927350823266</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>0.9731454865488018</v>
+        <v>3.190757938311616</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>14.0660471210479</v>
+        <v>14.60743776870742</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>12.22815898150752</v>
+        <v>15.90288664970803</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>9.502157909941847</v>
+        <v>11.14535956525021</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>26.96676576715084</v>
+        <v>23.85275930335534</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>23.5881347988541</v>
+        <v>25.7981936495375</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>23.45854594963293</v>
+        <v>22.63387917452577</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>28.58224200066196</v>
+        <v>27.32203948264426</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>28.58372837024028</v>
+        <v>31.26685506076358</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>10.3641453642975</v>
+        <v>14.40555803380719</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>16.02445215292403</v>
+        <v>13.83855406131774</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>14.78612021413626</v>
+        <v>16.58077581072171</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>5.067184266922045</v>
+        <v>3.027881097238183</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>11.56205944984371</v>
+        <v>9.56412661221195</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>19.13172390613955</v>
+        <v>20.93018368398671</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>-4.831809997133462</v>
+        <v>-0.1901246316303826</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>1.106635173006442</v>
+        <v>3.625429586702079</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>13.27892362824811</v>
+        <v>17.81504650284075</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>-3.182864922999268</v>
+        <v>-0.1466572011785736</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>9.537146669564375</v>
+        <v>7.50488822941983</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>27.82972296761886</v>
+        <v>30.59051470328964</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>13.29387912329308</v>
+        <v>11.14414685857238</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>20.5057661170888</v>
+        <v>18.25916988489132</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>28.91592713595266</v>
+        <v>32.58482884834314</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>-2.790215412889268</v>
+        <v>1.538901643868869</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>14.40237230312801</v>
+        <v>12.9032919647515</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>19.12814665140423</v>
+        <v>21.58983933682172</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>15.56611010138402</v>
+        <v>18.2093556193469</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>27.71438229943814</v>
+        <v>29.15398395539022</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>32.23060538329362</v>
+        <v>34.42662381373694</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>0.1360349126021454</v>
+        <v>1.907909351202768</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>18.97148595257917</v>
+        <v>20.80228626386071</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>23.21529379998027</v>
+        <v>24.1977869693835</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>5.423142044142768</v>
+        <v>7.869550940485823</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>39.02603074835181</v>
+        <v>39.46492379151685</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>48.27522666841611</v>
+        <v>51.77375629465112</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>45.22576228423696</v>
+        <v>42.23593931275571</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>48.58249561119376</v>
+        <v>45.29063493751921</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>62.80843356839334</v>
+        <v>64.69518544863632</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>13.60708912810993</v>
+        <v>12.52616815821261</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>40.5940980677756</v>
+        <v>38.86938687561653</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>44.31422030346429</v>
+        <v>42.76938815622157</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>3.750450916146601</v>
+        <v>2.549399591182045</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>3.586342742046057</v>
+        <v>4.585384822374888</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>2.275022855297536</v>
+        <v>4.177517157855952</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>-2.26383265321137</v>
+        <v>0.679528324786677</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>2.005585259169965</v>
+        <v>3.52007096644985</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>-0.5126928490798761</v>
+        <v>4.137675390351991</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>5.331579805781296</v>
+        <v>7.680912362759095</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>8.381856981742757</v>
+        <v>10.61355080926415</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>3.960604691032554</v>
+        <v>8.982682095046108</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>0.8916114935986066</v>
+        <v>4.496841600624666</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>2.620965332642282</v>
+        <v>2.944249769325687</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>5.802493009570846</v>
+        <v>10.61915013134331</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>5.254374358171216</v>
+        <v>1.584228124439576</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>6.294453869202144</v>
+        <v>4.771266960275074</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>3.988515416899016</v>
+        <v>4.544819129062041</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>0.8700467341549363</v>
+        <v>0.4715147014819685</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>2.415808758452975</v>
+        <v>3.268411327114087</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>3.475071987213369</v>
+        <v>3.297254317877822</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>-3.744143806178613</v>
+        <v>0.0354474466926078</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-4.798374332747692</v>
+        <v>-0.09087069086095312</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>0.1721056399929495</v>
+        <v>3.016322506588295</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>-2.896710578805386</v>
+        <v>0.7160497517047624</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>0.8629675449684484</v>
+        <v>3.667889693928014</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>6.902817957163968</v>
+        <v>5.721866402415039</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>4.014826591789181</v>
+        <v>1.627118129442287</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>7.832507971755689</v>
+        <v>3.267518778089372</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>7.785095842236963</v>
+        <v>4.120344873760775</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>-4.306303996861075</v>
+        <v>0.03510518998063006</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>3.696035928626877</v>
+        <v>2.337527901369999</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>3.65826737158153</v>
+        <v>2.982172261690877</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>16.62048966949997</v>
+        <v>18.5525415852807</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>21.75033831600611</v>
+        <v>22.60103816519619</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>23.37969108259665</v>
+        <v>22.23939740842632</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>3.01323749588536</v>
+        <v>2.226421361950973</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>12.18688450990465</v>
+        <v>13.39553845500243</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>14.20744596540781</v>
+        <v>14.52381204466917</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>7.639403945222579</v>
+        <v>11.30621949752774</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>29.57605623745916</v>
+        <v>27.93890959037856</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>32.37743302157845</v>
+        <v>30.92985580128925</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>29.74677274825844</v>
+        <v>31.19888512546353</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>33.33969803043031</v>
+        <v>33.025993207931</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>41.84430411406925</v>
+        <v>38.12472040270542</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>20.9283729096601</v>
+        <v>22.81467787538865</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>29.15484132342312</v>
+        <v>27.76522555945781</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>31.10702349755476</v>
+        <v>29.62290111884304</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>21.52535575779841</v>
+        <v>18.2974378445502</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>31.69335760958499</v>
+        <v>31.40965733309186</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>36.57944489172987</v>
+        <v>40.57997398742695</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>4.545182351539474</v>
+        <v>2.157165840867304</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>23.80834402262814</v>
+        <v>20.85828896454238</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>28.92681857859923</v>
+        <v>26.26401078261564</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>13.82879393972917</v>
+        <v>10.59658177034924</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>45.93219979822884</v>
+        <v>48.31298869100908</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>48.63013010815023</v>
+        <v>52.55114372553615</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>43.37249201948154</v>
+        <v>47.32671775402872</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>50.53453845746574</v>
+        <v>54.2881668906028</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>53.44822022997066</v>
+        <v>57.08902915383046</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>31.28083760120018</v>
+        <v>31.59550832715631</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>56.95710951393459</v>
+        <v>58.65659703124354</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>59.89385424518114</v>
+        <v>60.29392273812204</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>12.23473358770897</v>
+        <v>15.40231221716146</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>24.41426521396439</v>
+        <v>27.71173359832212</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>28.89013984655469</v>
+        <v>32.13755990965294</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>-3.519985051413379</v>
+        <v>-0.2941644571788444</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>7.863500473360038</v>
+        <v>10.0053528936887</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>15.32770847549419</v>
+        <v>14.28500109168015</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>3.111750636783</v>
+        <v>7.873448043023746</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>26.39422387125853</v>
+        <v>30.78166459382509</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>37.22277844246408</v>
+        <v>35.96558248123527</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>28.77637273496656</v>
+        <v>29.74662200173427</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>37.2091255183184</v>
+        <v>36.61781949810465</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>45.35351939616695</v>
+        <v>40.7068976668625</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>15.44970306627859</v>
+        <v>19.85995209569676</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>43.30280140527344</v>
+        <v>42.81161630588205</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>48.66117793658951</v>
+        <v>44.96423754668594</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>23.27857126484739</v>
+        <v>21.92562255241867</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>37.39731440656335</v>
+        <v>35.05755389009909</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>45.43547741912129</v>
+        <v>45.59672996257844</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>3.017721903311664</v>
+        <v>1.51190620746226</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>22.69073714125773</v>
+        <v>23.06214549483859</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>29.48360151683805</v>
+        <v>27.3471621404492</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>13.14546058421733</v>
+        <v>11.28667150748311</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>48.77162197554591</v>
+        <v>50.89104279879427</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>60.36956763470172</v>
+        <v>58.68388442049415</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>64.65953673110303</v>
+        <v>63.63649390007685</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>70.59990392840164</v>
+        <v>69.79979064371406</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>75.72787872327905</v>
+        <v>72.48844770407328</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>28.67909345100537</v>
+        <v>32.86822928812388</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>57.75466253888555</v>
+        <v>62.10993693431747</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>68.59654283646037</v>
+        <v>65.80721181213883</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>13.12121773519172</v>
+        <v>12.40370734967439</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>33.79651921711108</v>
+        <v>29.07324306996951</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>40.12762994967705</v>
+        <v>37.05567787385458</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>5.527830810742131</v>
+        <v>2.120112996818303</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>38.2509427434051</v>
+        <v>34.19415127817371</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>40.99329762227221</v>
+        <v>38.39021851671318</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>12.58437531395432</v>
+        <v>8.042741172318781</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>58.59211372598054</v>
+        <v>55.46663064736381</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>61.92308382369456</v>
+        <v>65.49891070877175</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>61.99171354790957</v>
+        <v>60.19781991075802</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>70.56942768075623</v>
+        <v>65.46923370848427</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>67.28700038563693</v>
+        <v>68.81306733528689</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>12.97097292442186</v>
+        <v>11.39223150981312</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>43.49466757661787</v>
+        <v>41.4746112994681</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>51.28921108988416</v>
+        <v>51.54816987680861</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>9.548965200002407</v>
+        <v>7.778459872989956</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>30.99162510970939</v>
+        <v>33.83080344792992</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>36.16711807167466</v>
+        <v>37.89061599450194</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>3.768066577792293</v>
+        <v>1.479949529141944</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>24.96561782597102</v>
+        <v>22.88740489061874</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>34.90108591167584</v>
+        <v>35.04067233857342</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>7.001432378183235</v>
+        <v>4.565882454520143</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>41.01850159286839</v>
+        <v>45.06628110580201</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>55.46589546541111</v>
+        <v>53.54225555209118</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>45.7298613597108</v>
+        <v>48.56631237823531</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>54.34928007999579</v>
+        <v>54.70613891165981</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>62.01544894600408</v>
+        <v>62.7263380250935</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>6.717488403746419</v>
+        <v>5.289620117638563</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>49.56665811574353</v>
+        <v>46.66528875142444</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>53.19593766826403</v>
+        <v>54.46493734207613</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>9.342784331823673</v>
+        <v>5.759598595146866</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>30.15578143713989</v>
+        <v>31.52435105546631</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>42.21596626248678</v>
+        <v>39.7522928006403</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>0.7330548724125734</v>
+        <v>1.167493378119026</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>28.10371435527146</v>
+        <v>26.50886986240808</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>39.21173509008671</v>
+        <v>41.29344699132311</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>4.883714148132359</v>
+        <v>4.436923130039432</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>47.24299155316731</v>
+        <v>46.92313520563376</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>67.68008242160695</v>
+        <v>66.51653562890758</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>56.44751271433101</v>
+        <v>58.73313332548258</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>68.36269561277291</v>
+        <v>71.1042851648446</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>84.27991133614923</v>
+        <v>83.10398071515255</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>5.637131385818549</v>
+        <v>3.866127285441813</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>55.88263410302662</v>
+        <v>58.52857313385044</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>66.45022006466345</v>
+        <v>69.85344171371791</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>8.548663038671888</v>
+        <v>6.672739343997875</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>25.26073504213667</v>
+        <v>22.55315464838447</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>35.20650729696904</v>
+        <v>34.98507851575151</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>4.249775698189694</v>
+        <v>1.527103021049083</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>42.83943576436796</v>
+        <v>43.57630014904118</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>48.33455970111234</v>
+        <v>47.84834681066641</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>7.218049919972422</v>
+        <v>7.038138170230614</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>68.61757828209448</v>
+        <v>65.87516692541577</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>67.30426043905891</v>
+        <v>67.59826992997748</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>61.96027709968573</v>
+        <v>63.91537785433874</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>63.33735475569638</v>
+        <v>62.31333661850647</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>62.91869918693365</v>
+        <v>65.16023635011493</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>9.766646109849312</v>
+        <v>5.648109956696612</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>32.74521670890367</v>
+        <v>31.97504923489862</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>64.79552066850495</v>
+        <v>62.01683560320414</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>9.620130710320071</v>
+        <v>13.50316837967685</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>33.14200600279491</v>
+        <v>35.86003076031142</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>36.57516051616387</v>
+        <v>36.8497814630644</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>-0.7760785730826534</v>
+        <v>1.596241334383745</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>25.82677158562893</v>
+        <v>28.75503689438094</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>33.5580022004583</v>
+        <v>33.0958153442179</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>-0.1746831411238396</v>
+        <v>3.98852879885456</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>47.75563040187571</v>
+        <v>49.79871855784335</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>55.62784754592076</v>
+        <v>52.32374528521537</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>45.34433398784998</v>
+        <v>48.07994856686513</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>55.84202563421624</v>
+        <v>55.05994122815675</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>63.06727062203596</v>
+        <v>59.29411936448034</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>6.092703546550482</v>
+        <v>8.685084445082783</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>50.79603389138197</v>
+        <v>47.0601644085319</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>57.13005964754256</v>
+        <v>52.73564677062807</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>11.16038052940397</v>
+        <v>11.26398480436723</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>34.41683580845127</v>
+        <v>33.66053778827099</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>42.79177230498209</v>
+        <v>41.44899406588134</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>0.6768230207093211</v>
+        <v>1.516420534733896</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>33.60510058830029</v>
+        <v>36.24175304240761</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>41.89309490748845</v>
+        <v>41.86151495149483</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>2.812709006637611</v>
+        <v>4.502297852598321</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>56.57671870385925</v>
+        <v>58.33648074241986</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>68.82173654871981</v>
+        <v>66.73166448623678</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>68.58675674526958</v>
+        <v>70.25295537520415</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>80.70262620480366</v>
+        <v>75.37402275646193</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>83.72794052317832</v>
+        <v>81.50913245769586</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>9.087889787802245</v>
+        <v>7.066564590557803</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>64.91477565734203</v>
+        <v>62.86414718231438</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>71.58752959914973</v>
+        <v>72.63276499642578</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>16.92426593671586</v>
+        <v>18.87263697169141</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>24.35287290215154</v>
+        <v>25.1723386083526</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>38.07471696304674</v>
+        <v>38.15275951018005</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>12.99621387023092</v>
+        <v>8.645655741988104</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>51.2888698314111</v>
+        <v>52.85597320337879</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>56.81040785011719</v>
+        <v>56.39011321041706</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>16.01952823362714</v>
+        <v>10.69845686858357</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>67.78346549890628</v>
+        <v>64.85480810644432</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>72.92247181381038</v>
+        <v>71.49225403970911</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>59.14730979046366</v>
+        <v>61.38565890480585</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>59.31081132275639</v>
+        <v>61.47573678506429</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>59.79115724550491</v>
+        <v>62.0579404949269</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>16.50935715636456</v>
+        <v>14.99255906758797</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>28.03239241840136</v>
+        <v>29.73152788930941</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>50.6618489764996</v>
+        <v>50.46565456331765</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>23.46015568041139</v>
+        <v>25.46511228294584</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>35.39015935325786</v>
+        <v>35.65865975233264</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>41.73133800520961</v>
+        <v>38.58732792330397</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>35.17695615425366</v>
+        <v>38.58918719830854</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>49.13866408231716</v>
+        <v>52.88048377510221</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>59.54557875912019</v>
+        <v>57.41649805010819</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>12.56111603129976</v>
+        <v>8.575516644927507</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>49.29260573502786</v>
+        <v>48.3355123882544</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>61.49857913520847</v>
+        <v>56.05574126914213</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>47.5950638221247</v>
+        <v>50.53171773872735</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>55.82505511937998</v>
+        <v>54.43665714051461</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>60.65005335298157</v>
+        <v>57.62156714696854</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>25.21702366929998</v>
+        <v>27.41412938345683</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>52.76857226818774</v>
+        <v>49.0024321309189</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>58.53961415318707</v>
+        <v>55.1104986335026</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>23.3879143775506</v>
+        <v>25.30483889924065</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>38.5407240673623</v>
+        <v>34.62388551410033</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>44.33535950983904</v>
+        <v>41.53958332650519</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>35.92130024554619</v>
+        <v>39.80810979585495</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>57.11183088534451</v>
+        <v>60.41052554218638</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>62.22545331642757</v>
+        <v>61.20746842164409</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>16.86587611968171</v>
+        <v>11.30969407137774</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>64.16981417607703</v>
+        <v>62.72416527996028</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>71.28589413023228</v>
+        <v>69.82153366745219</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>79.0930094606621</v>
+        <v>74.54934820353671</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>80.33224012761465</v>
+        <v>76.31819236358092</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>83.60977911793756</v>
+        <v>81.49596081126518</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>26.5968475321188</v>
+        <v>28.73232001737902</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>67.04000870437594</v>
+        <v>62.26837081977214</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>75.96372667403503</v>
+        <v>74.0369791445967</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>8.435361599216506</v>
+        <v>4.268731529753854</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>27.81628621449551</v>
+        <v>24.92818688769116</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>35.79821311691045</v>
+        <v>33.77810543897588</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>3.194056208846156</v>
+        <v>1.107801515430971</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>27.86230109942645</v>
+        <v>31.88141379100393</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>35.40894368131319</v>
+        <v>32.15048288101598</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>8.641012287272464</v>
+        <v>5.516322272040721</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>54.57955291737424</v>
+        <v>55.66868476302834</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>57.69464297114773</v>
+        <v>59.80295965727251</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>60.40466738103873</v>
+        <v>62.4329828550284</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>62.97562478760788</v>
+        <v>62.648408214068</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>62.34348946409408</v>
+        <v>64.17044876894693</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>6.573055891884291</v>
+        <v>3.011327304300728</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>43.82522429567287</v>
+        <v>39.31362386161015</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>45.83539573374642</v>
+        <v>43.32173034154135</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>10.81190472350443</v>
+        <v>7.394193915781159</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>35.92291849203819</v>
+        <v>33.13530515012826</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>36.96236141427509</v>
+        <v>34.0964404789873</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>4.142560365728972</v>
+        <v>1.092422825456161</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>30.26413219356954</v>
+        <v>28.50362036487675</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>34.80665086786459</v>
+        <v>33.07188089436821</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>5.980844635528783</v>
+        <v>4.150036696438761</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>47.8819460911329</v>
+        <v>44.40451649921533</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>56.37715715239225</v>
+        <v>51.86453572274325</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>47.22486639788358</v>
+        <v>46.14338846510694</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>57.03406176628228</v>
+        <v>54.64670629261442</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>61.72195679430056</v>
+        <v>56.95922642456586</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>7.809432518164449</v>
+        <v>4.491829749213206</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>46.83730317297491</v>
+        <v>49.87361077542639</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>55.90276904759872</v>
+        <v>53.79198413866595</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>10.12081604316395</v>
+        <v>6.204527796950874</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>32.3176286595104</v>
+        <v>32.52001162920126</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>42.46194550880259</v>
+        <v>40.05404271962352</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>-0.08118924657451032</v>
+        <v>1.107678838870001</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>28.85846720879552</v>
+        <v>28.88206122696259</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>36.9661222288174</v>
+        <v>37.755790591503</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>2.433117759878769</v>
+        <v>5.034811794765684</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>48.05835209885753</v>
+        <v>47.79297291536442</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>66.35552444687011</v>
+        <v>64.43382988986281</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>60.38341064599393</v>
+        <v>61.96365708314136</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>73.59109493801947</v>
+        <v>77.14943161943447</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>82.88860206422842</v>
+        <v>79.97553423282521</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>5.504617385593107</v>
+        <v>3.697973646719891</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>60.52171294443117</v>
+        <v>61.16609120266171</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>68.71700612764175</v>
+        <v>69.96292125385187</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>10.63493604213321</v>
+        <v>11.98804822455173</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>13.16111332245224</v>
+        <v>13.98961547592903</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>17.33358616040685</v>
+        <v>14.66623150352781</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>1.884351346040429</v>
+        <v>2.584294154051328</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>13.76475522804536</v>
+        <v>12.29498664636274</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>16.18086789086257</v>
+        <v>13.46227898341814</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>7.835909766438466</v>
+        <v>11.32339360043883</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>24.96072036265905</v>
+        <v>23.27207299469308</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>28.06188894083273</v>
+        <v>24.86134257177337</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>24.46693985969576</v>
+        <v>22.38346402422239</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>27.96199560517904</v>
+        <v>25.74235941482471</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>30.97111856679145</v>
+        <v>29.03897066472893</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>11.31201852522273</v>
+        <v>10.46342835565323</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>18.0086941514891</v>
+        <v>15.09106194986626</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>22.02837703039003</v>
+        <v>19.013905234709</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>8.041343345110946</v>
+        <v>5.89792849109357</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>20.40034369673916</v>
+        <v>21.02037707924102</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>31.12538554378314</v>
+        <v>31.00507346420157</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>-0.1190926571002322</v>
+        <v>0.009227462780039275</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>12.4904116249652</v>
+        <v>10.31439835211642</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>26.28470448141043</v>
+        <v>26.09249879716578</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>3.660920323087325</v>
+        <v>2.99140245625804</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>24.25511904366494</v>
+        <v>21.67013115690325</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>45.64469481547995</v>
+        <v>46.34356568616936</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>27.4902180574643</v>
+        <v>28.86951574398311</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>39.63430646658243</v>
+        <v>39.34267072934139</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>54.29207186287076</v>
+        <v>51.85019379378544</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>4.955520928714407</v>
+        <v>2.741261903598691</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>35.33962183032944</v>
+        <v>32.58327374480771</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>46.99412950834043</v>
+        <v>43.74803741449595</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>13.85883095043548</v>
+        <v>14.02944895988155</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>27.92088859696998</v>
+        <v>32.19401317795818</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>40.41165015025452</v>
+        <v>38.87763638307897</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>1.670500943177309</v>
+        <v>1.393771250085127</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>20.9633377738477</v>
+        <v>24.56909166232033</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>34.76892752201201</v>
+        <v>34.76708107185921</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>7.211382058126603</v>
+        <v>6.700342615888829</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>38.14026627344199</v>
+        <v>41.99492714048982</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>58.111433889255</v>
+        <v>58.77910859116005</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>48.56212685996006</v>
+        <v>52.70189193302052</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>56.63045574209197</v>
+        <v>60.36525831104754</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>69.02103022002288</v>
+        <v>66.51007993583357</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>5.208528623066698</v>
+        <v>3.509936890306612</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>40.31025508227027</v>
+        <v>44.79269555241616</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>62.63140997598661</v>
+        <v>64.73157301336995</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>16.23236215501069</v>
+        <v>15.02690759339666</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>21.38734223314</v>
+        <v>24.43539472997053</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>28.09896632576299</v>
+        <v>27.70925040149574</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>1.858104006078726</v>
+        <v>2.03293222544109</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>30.02542415395877</v>
+        <v>29.02379131813567</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>33.85833214570729</v>
+        <v>30.23067753747749</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>13.49008875357754</v>
+        <v>14.2971783483547</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>46.49211133028221</v>
+        <v>48.43103036348659</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>48.18571781014708</v>
+        <v>50.11571578107978</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>36.02138756513527</v>
+        <v>34.47336587246811</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>40.58031765127568</v>
+        <v>39.04251341755314</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>43.71798723027175</v>
+        <v>47.09291699718834</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>10.49859197892427</v>
+        <v>11.39353499021414</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>37.35727800863265</v>
+        <v>39.84108692782116</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>42.50819285469539</v>
+        <v>44.83270674416322</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>10.09177507282742</v>
+        <v>5.982315681246675</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>24.19339986598574</v>
+        <v>25.40210789266566</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>36.20238609455996</v>
+        <v>35.413953104885</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>3.273239642441354</v>
+        <v>0.9602898614099722</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>20.01794096640248</v>
+        <v>17.19173818290072</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>40.40907195868385</v>
+        <v>42.70583809016395</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>2.647324474667776</v>
+        <v>4.824256703288999</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>32.39607846789885</v>
+        <v>30.98132158457751</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>52.6185938795608</v>
+        <v>50.81394742898942</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>29.80473100999124</v>
+        <v>27.17280616585616</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>41.74493948102293</v>
+        <v>38.53638053263685</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>59.28921888266387</v>
+        <v>57.57539516814953</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>6.494301303470394</v>
+        <v>4.048394174184576</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>39.73114142194726</v>
+        <v>36.54815193177433</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>48.65028226181251</v>
+        <v>45.27534365801628</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>14.48706040551636</v>
+        <v>10.98877144042535</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>26.85142605276222</v>
+        <v>26.64952353130284</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>36.60192536260917</v>
+        <v>35.58073791553615</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>3.098515188510728</v>
+        <v>0.9606105979779151</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>23.837433356204</v>
+        <v>27.38749966447104</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>36.97322488455811</v>
+        <v>35.46437692499883</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>7.965816701229876</v>
+        <v>6.509462745499324</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>42.94933905163404</v>
+        <v>47.72304537985036</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>56.23474060471486</v>
+        <v>53.58193949828598</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>53.56473577762678</v>
+        <v>57.5939927937805</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>59.01052327346738</v>
+        <v>61.46823666728166</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>71.13842846837662</v>
+        <v>70.57436003995076</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>4.921401914508152</v>
+        <v>3.01304089126106</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>38.38742460021996</v>
+        <v>36.91361985783633</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>57.60145367489323</v>
+        <v>59.98417092217651</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>15.63100826248116</v>
+        <v>15.9963664997763</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>28.10575280332208</v>
+        <v>23.47263300491579</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>37.14337275463515</v>
+        <v>34.33978953951932</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>5.250771919859893</v>
+        <v>2.119442220711026</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>42.70976522427657</v>
+        <v>44.23344415467807</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>47.52391656561255</v>
+        <v>45.57344879316275</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>14.46087028740044</v>
+        <v>11.7177960035773</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>65.35542259733297</v>
+        <v>66.78652404014224</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>66.53389497483042</v>
+        <v>67.17203244803279</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>60.00682507106965</v>
+        <v>62.08864260329388</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>58.80785267206863</v>
+        <v>60.89419579323859</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>62.52345512923385</v>
+        <v>64.79090413867956</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>15.99522826994136</v>
+        <v>13.77707066190857</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>22.08828521391133</v>
+        <v>20.37564146159344</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>66.61975683020437</v>
+        <v>64.33768286711103</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>21.96861337608532</v>
+        <v>25.38541659149318</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>38.18026630267606</v>
+        <v>36.70043523881129</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>40.23849117078875</v>
+        <v>36.65661178267804</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>5.379534763100256</v>
+        <v>2.296272802591499</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>29.2832043878954</v>
+        <v>31.07085050396577</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>35.68776732919763</v>
+        <v>35.51095553124831</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>10.4568644878242</v>
+        <v>9.476544788171783</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>49.3903670128679</v>
+        <v>51.61068438925071</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>56.88627625009809</v>
+        <v>56.73400328583828</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>51.19214802437421</v>
+        <v>53.63705458188004</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>57.30682255093301</v>
+        <v>59.72303055374299</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>62.42552023508735</v>
+        <v>60.35874101238763</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>20.15665435050775</v>
+        <v>22.42759802268265</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>53.24301660898681</v>
+        <v>50.23756261543103</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>58.00405197682607</v>
+        <v>55.30802651582056</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>22.96681147049873</v>
+        <v>26.54497520762143</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>39.56389522606255</v>
+        <v>36.76017621421368</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>44.54009943078204</v>
+        <v>41.14355824733095</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>4.57980507463455</v>
+        <v>2.321053198211629</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>34.3627933483009</v>
+        <v>36.80792340584118</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>39.4032011453935</v>
+        <v>40.09330218378475</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>12.79609552149277</v>
+        <v>9.618251414981472</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>60.2984344858514</v>
+        <v>62.02554847725802</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>70.12041274515002</v>
+        <v>69.90649163137448</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>70.99354022480478</v>
+        <v>69.43447359275029</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>75.08512759199871</v>
+        <v>73.06659920635084</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>81.50957113562436</v>
+        <v>79.15782119587605</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>18.51167609042687</v>
+        <v>18.69679818370592</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>60.33177154893574</v>
+        <v>63.24585942798955</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>70.96452733396929</v>
+        <v>69.43034671684254</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>7.708597743072637</v>
+        <v>4.88106262076181</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>24.71516796312806</v>
+        <v>24.13420795916553</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>32.06426956904761</v>
+        <v>32.5408174412926</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>2.539117057236236</v>
+        <v>0.9605223744711999</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>30.84895438220375</v>
+        <v>32.56768649547216</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>32.99666070658429</v>
+        <v>31.56195224047967</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>7.860506396326929</v>
+        <v>5.69334120050803</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>50.9669724705706</v>
+        <v>52.44134186056894</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>54.96905265722841</v>
+        <v>56.87919619257534</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>55.91312972578802</v>
+        <v>59.22852938301984</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>61.2365796542308</v>
+        <v>64.99295889198034</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>59.8975269451883</v>
+        <v>60.01870159986577</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>6.056077566629021</v>
+        <v>2.847847507792387</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>37.07735982544899</v>
+        <v>39.46503401205246</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>39.64738242653741</v>
+        <v>42.30257441540525</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>9.338908400146849</v>
+        <v>8.329214418392276</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>32.18854043268507</v>
+        <v>35.13346126095935</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>35.33356087143723</v>
+        <v>33.52731986488338</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>2.355905956488193</v>
+        <v>1.266314676993652</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>26.80388755793327</v>
+        <v>28.10075803883468</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>33.66241217086883</v>
+        <v>33.32100080249476</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>7.280585080863386</v>
+        <v>5.142186048761005</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>45.48366137027766</v>
+        <v>48.50145300764434</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>60.01763400366615</v>
+        <v>58.40398337689867</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>48.08944168843615</v>
+        <v>49.87751627285201</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>58.47750235232825</v>
+        <v>56.93129967144528</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>64.09231488423272</v>
+        <v>60.37270308934168</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>7.189405525453751</v>
+        <v>4.160105513946743</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>55.02782960187155</v>
+        <v>50.06544051616721</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>54.42935662737004</v>
+        <v>54.12828386116517</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>11.61558859842613</v>
+        <v>8.077510501399317</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>30.53517065127913</v>
+        <v>34.60707308842624</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>42.09875664042903</v>
+        <v>41.76137864330362</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>0.9771483021922265</v>
+        <v>1.107430159053894</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>25.97902783114705</v>
+        <v>28.35928718142187</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>36.779751389148</v>
+        <v>35.09346516690131</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>5.80523729408376</v>
+        <v>4.850852909715453</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>44.64331319002851</v>
+        <v>48.42636350886102</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>67.14229027109391</v>
+        <v>62.40160649661856</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>61.32390361404571</v>
+        <v>65.04278283862712</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>70.61325074455354</v>
+        <v>71.34010810529769</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>81.75798916015891</v>
+        <v>78.68166200300719</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>5.497910431763728</v>
+        <v>3.430342696192902</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>51.24512448372314</v>
+        <v>52.47299899160133</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>65.72833248914247</v>
+        <v>69.24406106796367</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.535</v>
+        <v>0.479</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.63</v>
+        <v>17.851</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.794</v>
+        <v>0.793</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.779</v>
+        <v>12.813</v>
       </c>
     </row>
   </sheetData>
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.949</v>
+        <v>0.965</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8.187424605253522</v>
+        <v>8.739271888863438</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>11.87913528965621</v>
+        <v>12.36015546713792</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>12.57515080275352</v>
+        <v>13.29022927427836</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.9126774206792483</v>
+        <v>1.7667091227311</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>12.18639185983168</v>
+        <v>12.89881199141279</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>12.92203639512118</v>
+        <v>13.63808439890306</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4.729936642935137</v>
+        <v>5.437111770443924</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>19.35757403184036</v>
+        <v>19.68940444853082</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>22.25462601569802</v>
+        <v>22.65435394493806</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>22.04596999242974</v>
+        <v>22.45669950785077</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>26.06338587559008</v>
+        <v>26.31983067802499</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>30.79766181787356</v>
+        <v>30.87504259096044</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6.848469604176302</v>
+        <v>7.552643820683418</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>14.60382852830598</v>
+        <v>15.29848756102287</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>15.88300184418634</v>
+        <v>16.35819016900521</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>7.44647231443837</v>
+        <v>7.944675664761423</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>27.80950140142049</v>
+        <v>27.71821972639988</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>42.3589326594367</v>
+        <v>41.77513807608456</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-0.0008626052535021245</v>
+        <v>2.08873977858882</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>13.39026481447349</v>
+        <v>14.20385319518918</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>31.27019869820883</v>
+        <v>31.68879195978402</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1.104103703575365</v>
+        <v>2.97815279838197</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>25.82631866242107</v>
+        <v>26.25600616796878</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>58.67136869515035</v>
+        <v>58.84473621042557</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>30.30520952918524</v>
+        <v>30.311854743932</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>51.92590424977438</v>
+        <v>50.97855621579362</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>76.27254713526106</v>
+        <v>74.84726746215539</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>3.973112018048489</v>
+        <v>4.857741632411035</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>45.43049721843951</v>
+        <v>45.75454551852764</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>64.90822941785908</v>
+        <v>64.832057406717</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>12.01114532844708</v>
+        <v>12.24170907265493</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>34.48397762299718</v>
+        <v>34.78182636683353</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>44.95979003260091</v>
+        <v>43.54723855782927</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1.188461805732015</v>
+        <v>2.820046352745035</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>26.60725007853123</v>
+        <v>28.83759275592397</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>41.08528588058906</v>
+        <v>41.84958936391509</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1.818732245930637</v>
+        <v>2.738743319848741</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>46.54056263854792</v>
+        <v>47.35826642229458</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>61.2090740381457</v>
+        <v>61.54441524740075</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>57.48537581391471</v>
+        <v>57.61719716418273</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>73.4505035205454</v>
+        <v>72.43062108697097</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>81.42664994546662</v>
+        <v>79.93079137978316</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>17.29632323209609</v>
+        <v>17.93172939857218</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>63.93111143621832</v>
+        <v>64.49311583714228</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>71.74781157175352</v>
+        <v>72.09888776677597</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1.85517324790667</v>
+        <v>4.122272167095595</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>30.51789844815766</v>
+        <v>30.4184869525644</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>39.98572585399905</v>
+        <v>39.21109317030601</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1.262355278605853</v>
+        <v>2.377780183014657</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>38.14141837125942</v>
+        <v>37.5168361982753</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>40.77603130755703</v>
+        <v>40.67886361205537</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>2.519155474170468</v>
+        <v>3.261686264402911</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>60.79107136958252</v>
+        <v>58.65166471379683</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>67.29211565776248</v>
+        <v>65.16123115203625</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>65.58929676038971</v>
+        <v>64.85305869203304</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>77.95381798712427</v>
+        <v>76.87095715213992</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>62.17814770995309</v>
+        <v>61.54230928632343</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>4.221727234585281</v>
+        <v>5.060156610505423</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>43.44899854939075</v>
+        <v>42.68144394431582</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>49.99174187452513</v>
+        <v>49.47565503507877</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>5.455156968483735</v>
+        <v>6.149801590221312</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>37.43353824366565</v>
+        <v>37.06373269528566</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>43.32118567714165</v>
+        <v>43.09996256285554</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>-0.3824134829880173</v>
+        <v>2.393578454135849</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>22.1158851302595</v>
+        <v>22.58176882094489</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>34.60896403163635</v>
+        <v>35.05318276444613</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>1.14347839523186</v>
+        <v>2.213253139272197</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>46.33524629625404</v>
+        <v>45.91140972617795</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>61.89681393638674</v>
+        <v>61.93873143076414</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>49.75136330278985</v>
+        <v>48.00230387173531</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>69.03775111770128</v>
+        <v>67.70231051616861</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>77.027215181217</v>
+        <v>75.49144899226052</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>3.586660212917092</v>
+        <v>4.497656188120224</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>59.06937026323166</v>
+        <v>58.97252155443185</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>62.42635231182406</v>
+        <v>61.64063934209805</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>5.949572247229771</v>
+        <v>6.656282642701655</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>39.00415268158801</v>
+        <v>37.72306480385426</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>46.16818968656457</v>
+        <v>45.2282139621576</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>0.2771865244270835</v>
+        <v>2.393953009353957</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>37.35471949337627</v>
+        <v>37.82309240021075</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>40.90113698260784</v>
+        <v>41.27254717795171</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>1.729295956171892</v>
+        <v>2.501297985095217</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>62.03388828725023</v>
+        <v>61.49666472349939</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>77.71158153062525</v>
+        <v>75.80634311445357</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>66.54324117306224</v>
+        <v>65.03572811770316</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>86.03817225368286</v>
+        <v>84.69690731800662</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>90.02175984253455</v>
+        <v>87.31028539964585</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>4.218563586072765</v>
+        <v>5.537017512042553</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>72.98224191765394</v>
+        <v>72.81831121662843</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>76.0349018218128</v>
+        <v>75.66681326191279</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>14.03329020286763</v>
+        <v>14.24259215176113</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>30.08770570269052</v>
+        <v>30.2198875001264</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>37.8912956652327</v>
+        <v>37.45001122458331</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>1.425910397927499</v>
+        <v>2.371075458596657</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>35.40819503637148</v>
+        <v>35.93293074905046</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>37.23142567266093</v>
+        <v>37.8109768291116</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>3.406016489033867</v>
+        <v>4.158108900135769</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>62.87825888855623</v>
+        <v>62.31688513832161</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>61.84934217022139</v>
+        <v>59.96549037831775</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>52.01479758777671</v>
+        <v>52.22665743062618</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>62.76192351788877</v>
+        <v>62.72303351511655</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>59.64827881389841</v>
+        <v>59.8104360236043</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>9.522452463429822</v>
+        <v>9.882861781214373</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>35.65398685719607</v>
+        <v>35.54665940994271</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>37.60748939515597</v>
+        <v>37.97315915180852</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>23.03879903418802</v>
+        <v>23.07890449710812</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>42.03957457882124</v>
+        <v>41.60354484946999</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>45.01503947552931</v>
+        <v>44.5259701776866</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>1.476708836551662</v>
+        <v>2.737699284584441</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>33.55441472926806</v>
+        <v>33.98049847499396</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>37.67466630170371</v>
+        <v>37.01070093714447</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>3.180771580719952</v>
+        <v>4.003764604897203</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>59.55018928769482</v>
+        <v>59.14340365554604</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>64.35158270883744</v>
+        <v>63.26276046894625</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>60.70014473872523</v>
+        <v>59.92708616184716</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>73.08178800131867</v>
+        <v>71.43620325360028</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>77.27611351368104</v>
+        <v>75.9258280613136</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>20.11822600266379</v>
+        <v>20.35478874012719</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>60.358744690489</v>
+        <v>59.56679922034561</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>66.29438458807695</v>
+        <v>65.88693014582326</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>21.60550627474734</v>
+        <v>21.6780207424788</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>43.48138226561023</v>
+        <v>42.94711284241733</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>46.30851544806924</v>
+        <v>45.56749843588241</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>0.4226132607003343</v>
+        <v>3.030316977889111</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>38.55049005870766</v>
+        <v>39.18611144387386</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>40.61069981955983</v>
+        <v>41.00381351790222</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>2.567988190421943</v>
+        <v>3.288289047669807</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>67.64628750253334</v>
+        <v>67.42892812783874</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>75.40631736694758</v>
+        <v>73.99555687594412</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>72.59119086474631</v>
+        <v>71.20149531880718</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>80.32022229290385</v>
+        <v>79.36758762047157</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>88.1164676823183</v>
+        <v>86.93782310494441</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>21.24769860349859</v>
+        <v>21.22155219310849</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>71.87614371953555</v>
+        <v>70.5703454072418</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>76.26279936968891</v>
+        <v>74.31812363384122</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>10.07323789912803</v>
+        <v>10.57818103063493</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>14.12306038899751</v>
+        <v>14.64108541102941</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>14.43811483851435</v>
+        <v>14.91380163774731</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>1.067522264652258</v>
+        <v>1.92285182186512</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>10.44089885884874</v>
+        <v>11.30390659838359</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>10.52263216505879</v>
+        <v>11.71453401519641</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>5.897231202628642</v>
+        <v>6.649540503027669</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>22.88570470772607</v>
+        <v>24.73736316437856</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>23.66782047740344</v>
+        <v>24.13955531846949</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>21.77677182567493</v>
+        <v>22.20907450447638</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>24.57130104938257</v>
+        <v>24.83123314346131</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>32.49300190423737</v>
+        <v>32.5951603039036</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>64.22293729819135</v>
+        <v>62.78478801063467</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>67.18032629499993</v>
+        <v>66.14791199122958</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>64.29758388746825</v>
+        <v>63.29457069987798</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>7.20356340104173</v>
+        <v>7.704182048663736</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>29.19758293311302</v>
+        <v>29.09967178921124</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>41.9835719726735</v>
+        <v>41.54065668272749</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>-0.6311549316819445</v>
+        <v>2.325263182570669</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>9.172199209251982</v>
+        <v>10.68195681842259</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>25.71341657747721</v>
+        <v>26.90946728604356</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>30.22435333645645</v>
+        <v>31.11011153318771</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>60.51014189435152</v>
+        <v>60.73253572717594</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>29.67590477607416</v>
+        <v>29.66442860307319</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>51.54050800137829</v>
+        <v>50.24841427436635</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>72.13336207173482</v>
+        <v>70.77840993452732</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>4.990063862127496</v>
+        <v>5.879602425970706</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>46.90906147695728</v>
+        <v>47.11258256035926</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>56.15110659714253</v>
+        <v>56.23011713102112</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>23.02412021036532</v>
+        <v>23.2014962481375</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>35.88746304766967</v>
+        <v>35.94936568527526</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>46.5747172694084</v>
+        <v>46.46914793774006</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>0.7855290000229473</v>
+        <v>3.517548152254733</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>16.50990691551783</v>
+        <v>17.94522043635128</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>28.19343819206407</v>
+        <v>29.73412252414917</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>7.894976460028104</v>
+        <v>8.430346175183708</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>43.51088197446211</v>
+        <v>43.87744292337457</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>66.80620321016426</v>
+        <v>66.85393950216312</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>42.19992176600243</v>
+        <v>42.49140405701709</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>60.02614557233544</v>
+        <v>59.34785442934034</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>82.42100688954223</v>
+        <v>81.77700858070391</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>25.73316595301415</v>
+        <v>25.56420384578851</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>63.87896039027259</v>
+        <v>63.8220842196674</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>70.91739649175254</v>
+        <v>70.89806948338965</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>5.33805667392598</v>
+        <v>8.216374765087686</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>23.38948908228221</v>
+        <v>24.51617584887003</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>31.29143210808631</v>
+        <v>31.53527884499046</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>1.815780835939197</v>
+        <v>2.750719374041491</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>31.19909535049456</v>
+        <v>32.15970757145766</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>40.25340394431699</v>
+        <v>40.83457354034808</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>7.329116406252886</v>
+        <v>7.982438354407201</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>62.77122974775162</v>
+        <v>62.49734213869735</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>65.97580934784048</v>
+        <v>65.44996288785298</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>52.20219344256261</v>
+        <v>52.96410146074768</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>67.0583147852023</v>
+        <v>67.45569887765788</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>67.81686728330901</v>
+        <v>68.39927512014464</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>10.52363074151136</v>
+        <v>10.94314186590201</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>8.827646186596791</v>
+        <v>9.201148697349737</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>9.425810570740996</v>
+        <v>9.734168959504377</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>24.53117067758471</v>
+        <v>24.73691236145659</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>44.27084104686945</v>
+        <v>43.67860989722872</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>43.15156129757895</v>
+        <v>42.99404355530318</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>2.236267875705011</v>
+        <v>3.175189757488152</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>33.61042069614014</v>
+        <v>34.14861079738157</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>40.75910995182085</v>
+        <v>41.11085161758351</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>62.95671489525972</v>
+        <v>62.69352488513151</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>67.07072085014079</v>
+        <v>66.37265840612056</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>66.24418611367361</v>
+        <v>65.62314535028146</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>77.27862782100715</v>
+        <v>75.8318662113811</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>82.15595796527134</v>
+        <v>80.52653564840466</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>34.41005423152629</v>
+        <v>34.60125599369237</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>67.22353127335995</v>
+        <v>65.52848261123515</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>70.3146225721903</v>
+        <v>65.50779133409114</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>24.89946593257731</v>
+        <v>25.12579963949698</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>43.82869340281034</v>
+        <v>43.13519856686544</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>45.58992461699502</v>
+        <v>45.00508380542222</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>0.9368317191652764</v>
+        <v>3.162470475382669</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>28.11409210914174</v>
+        <v>29.23470248514239</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>36.35942481364177</v>
+        <v>38.24463528309003</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>8.061551371988759</v>
+        <v>10.23147667027656</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>61.95506509563157</v>
+        <v>62.00093959006523</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>72.35535571805045</v>
+        <v>71.61503508212</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>71.46971151387422</v>
+        <v>70.38364378756002</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>79.58776707922026</v>
+        <v>77.13008807773392</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>84.05795800629589</v>
+        <v>82.78428607587279</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>34.63383068802713</v>
+        <v>35.04933125703418</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>72.64152954316211</v>
+        <v>72.72575396602899</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>77.5336361533808</v>
+        <v>76.29783532098857</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>3.451048116619877</v>
+        <v>4.486910718370819</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>20.30280763532427</v>
+        <v>20.64192774508619</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>30.21821258632395</v>
+        <v>30.28106969771254</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>1.082478820463933</v>
+        <v>2.500775760243585</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>39.25263953931047</v>
+        <v>39.49570450217658</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>35.82382625740669</v>
+        <v>36.28504123478511</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>7.379904609766655</v>
+        <v>8.837698122152712</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>66.03362738801761</v>
+        <v>63.85062313802733</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>67.42268634038777</v>
+        <v>66.67669222087279</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>52.75683140883803</v>
+        <v>53.58557623268773</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>68.26076240138407</v>
+        <v>68.67976701963585</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>70.96047823320832</v>
+        <v>71.45080055907702</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>5.4522301753398</v>
+        <v>6.04259276432791</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>5.27862077884576</v>
+        <v>5.83214994659053</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>5.757791755895319</v>
+        <v>6.2055329606344</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>16.1078524237357</v>
+        <v>16.33683158238295</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>46.89742459423813</v>
+        <v>45.61171058576836</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>47.35370637721373</v>
+        <v>47.01309709122121</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>1.56834433017405</v>
+        <v>2.479144448637118</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>40.64826429437262</v>
+        <v>40.83761425903594</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>48.10947262010853</v>
+        <v>48.01018543670497</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>1.939146753645993</v>
+        <v>2.815149555884126</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>69.25332204911433</v>
+        <v>68.45618182863871</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>71.83073124573825</v>
+        <v>71.22993153866553</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>57.1884856297049</v>
+        <v>56.21857452139037</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>72.00127786217249</v>
+        <v>70.62187198251674</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>82.19857448088916</v>
+        <v>80.7866897717103</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>14.92973654463402</v>
+        <v>15.59207772264428</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>69.91063561554273</v>
+        <v>69.55369557662912</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>72.97591809002833</v>
+        <v>72.50790026351626</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>18.32700530452097</v>
+        <v>20.10388986983684</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>1.429786261830625</v>
+        <v>2.738238924379985</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>38.74382594942687</v>
+        <v>39.24635427792418</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>39.0982884902833</v>
+        <v>39.78554968081439</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>5.272904824245579</v>
+        <v>6.025801883354447</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>68.32656622446237</v>
+        <v>67.94838137317984</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>74.98151982699389</v>
+        <v>72.5475066793046</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>73.83284855224488</v>
+        <v>73.3485331556504</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>83.77877647448983</v>
+        <v>82.73728543347127</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>89.07146368834015</v>
+        <v>87.8861095360666</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>14.86449638330959</v>
+        <v>15.33985928564832</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>77.6119798039049</v>
+        <v>77.1671902279185</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>79.92375118379908</v>
+        <v>79.33876251212801</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>5.359903792631524</v>
+        <v>7.378841626807258</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>5.679749192278869</v>
+        <v>6.190247757352541</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>6.581104398317702</v>
+        <v>7.087877646802283</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>0.5854039524915038</v>
+        <v>3.014295666811446</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>9.417196102256263</v>
+        <v>10.55939122291774</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>9.499713139002239</v>
+        <v>10.2611764062276</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>4.045329900427745</v>
+        <v>6.057619615891344</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>15.71095627796841</v>
+        <v>16.12944459321075</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>18.12238468548476</v>
+        <v>18.73582359220068</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>24.3464551108832</v>
+        <v>24.69610245319288</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>28.93761390740206</v>
+        <v>28.54499817747609</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>34.14384287575605</v>
+        <v>34.43843852695525</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>3.827059838302404</v>
+        <v>5.890417776957712</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>6.497095469944021</v>
+        <v>7.14100321586</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>8.429515422324716</v>
+        <v>8.946246627035464</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>6.924367101987112</v>
+        <v>7.438814550101576</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>28.19711834754597</v>
+        <v>27.67568120293455</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>36.13678747456947</v>
+        <v>34.0527387790128</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>1.580595997627803</v>
+        <v>2.479729891951234</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>17.84844424515899</v>
+        <v>18.69444259899408</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>32.02392251817201</v>
+        <v>30.91966942467908</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>6.200628027675251</v>
+        <v>7.264092455775884</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>35.59498242774968</v>
+        <v>34.89186486377957</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>54.61244083809118</v>
+        <v>54.49980387509189</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>37.45032596511396</v>
+        <v>37.16898976471498</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>53.09684012148256</v>
+        <v>51.83711411200444</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>59.39927467299195</v>
+        <v>58.17074205292431</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>6.160363963593547</v>
+        <v>6.806018989072403</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>45.25273953157741</v>
+        <v>45.22611250004999</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>53.5325081778419</v>
+        <v>53.63478445471901</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>7.479682403755437</v>
+        <v>8.214159585803163</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>27.43112001794923</v>
+        <v>28.85703944856198</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>40.17859880774386</v>
+        <v>39.8557858675586</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>1.003584071891556</v>
+        <v>1.984067281391621</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>27.75165221494103</v>
+        <v>28.71014245865672</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>38.02213354468451</v>
+        <v>38.69968568026806</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>6.048320432381558</v>
+        <v>6.812117682541079</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>51.29317056453701</v>
+        <v>51.7277834774471</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>62.6317814734372</v>
+        <v>62.60182457733663</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>63.73212202119816</v>
+        <v>63.57935746805879</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>77.14545495967582</v>
+        <v>76.35339930412805</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>75.84587003061039</v>
+        <v>73.68501928164841</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>9.066065040193831</v>
+        <v>9.895813818910977</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>63.06185669601685</v>
+        <v>63.38274292503786</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>74.22130750691736</v>
+        <v>74.21126362828424</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>2.604082293286229</v>
+        <v>4.486320877593734</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>11.85963562801511</v>
+        <v>12.48684346080966</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>11.96874924984239</v>
+        <v>13.00118925222752</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>0.1890612078955378</v>
+        <v>1.094045923085659</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>8.365133444928073</v>
+        <v>10.84533065429313</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>13.34631526629301</v>
+        <v>15.35973066271037</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>0.9763818649896123</v>
+        <v>1.862035985992691</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>14.16169099076184</v>
+        <v>16.12667344881926</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>11.41306059706135</v>
+        <v>12.03431970008822</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>13.13779049764282</v>
+        <v>13.62372043392462</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>15.01319095605944</v>
+        <v>15.34436098477619</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>14.9371730899628</v>
+        <v>15.2667150403875</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>6.366771721910919</v>
+        <v>6.986295562164813</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>13.94716357843841</v>
+        <v>14.9300132314311</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>13.86831374068909</v>
+        <v>14.17158853665964</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>0.03524294631584013</v>
+        <v>2.478742556375582</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>5.319299047417235</v>
+        <v>6.250127654600206</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>16.05737266802895</v>
+        <v>16.16455843197692</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>0.03517670559018171</v>
+        <v>0.9489504770264112</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>3.901350706083083</v>
+        <v>4.892430312379645</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>12.11019317516795</v>
+        <v>14.20778040975291</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>2.860375218275589</v>
+        <v>3.664352134694134</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>7.147251310078246</v>
+        <v>8.347362115645961</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>32.81413899101311</v>
+        <v>33.36824725681315</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>10.18549434710992</v>
+        <v>10.62284196823833</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>21.7069165504011</v>
+        <v>21.20496767879302</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>43.59651383252805</v>
+        <v>42.58333617029742</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>0.03566649195786908</v>
+        <v>2.478696585134752</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>11.28893816487529</v>
+        <v>11.91478287741391</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>12.54366486168301</v>
+        <v>13.06727417432748</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>1.71100366419482</v>
+        <v>2.697500807542639</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>8.304895383770592</v>
+        <v>10.07254131871587</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>27.7677904089071</v>
+        <v>28.22400830726162</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>0.03560665094236271</v>
+        <v>1.365081728396522</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>6.382796611782634</v>
+        <v>7.290416502334093</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>25.49443646884967</v>
+        <v>26.50754421655489</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>2.067063784948736</v>
+        <v>2.945616305860213</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>13.39497060766125</v>
+        <v>14.16731686862292</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>53.84384963087464</v>
+        <v>54.58652881842723</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>19.0177056762262</v>
+        <v>19.53591870333649</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>47.43111573961178</v>
+        <v>47.90110299449147</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>68.89598277691989</v>
+        <v>68.36646788467823</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>0.311381726855064</v>
+        <v>2.099451670254464</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>10.96769290439277</v>
+        <v>11.89531166940781</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>20.69913780382443</v>
+        <v>22.03195341115774</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>10.53307711850756</v>
+        <v>12.32200231829976</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>19.95378413742379</v>
+        <v>20.11467088384661</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>38.44742333646396</v>
+        <v>37.56218105945958</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>1.940930364312592</v>
+        <v>2.669166203388883</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>45.9916891360985</v>
+        <v>44.15866958353772</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>45.6330970287088</v>
+        <v>44.79668987214671</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>4.811834321790503</v>
+        <v>5.458724611330517</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>64.4007027563963</v>
+        <v>63.35677878849519</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>70.32299478616778</v>
+        <v>68.72035308061513</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>60.01675903111718</v>
+        <v>58.71901121184197</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>65.42009796619234</v>
+        <v>63.94466679141196</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>67.17715969230714</v>
+        <v>67.25937232648697</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>20.44232784009791</v>
+        <v>19.67691409844902</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>43.20270177456469</v>
+        <v>42.79940712336676</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>70.02391335209886</v>
+        <v>68.59255659900229</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>12.12072822752961</v>
+        <v>12.83454986341847</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>33.14008203639438</v>
+        <v>33.09427788073683</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>35.6271317783067</v>
+        <v>35.57372060190097</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>1.480292459916573</v>
+        <v>2.778696397901935</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>32.02409387258754</v>
+        <v>32.27650655968215</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>34.0489320645978</v>
+        <v>34.30037348187846</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>5.790823120068172</v>
+        <v>6.92508646657333</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>52.10035819005218</v>
+        <v>51.69178167331981</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>56.14463349984693</v>
+        <v>56.04703214255383</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>49.81021736479268</v>
+        <v>49.22322064038321</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>59.0171692034388</v>
+        <v>56.42536379190229</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>62.15744405307172</v>
+        <v>59.60982806890135</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>19.60992361866437</v>
+        <v>19.8945468427918</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>52.74308785811161</v>
+        <v>51.56380667355443</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>55.51808273370177</v>
+        <v>55.47488491047081</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>14.6323042705334</v>
+        <v>15.77577398312342</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>32.09322089065214</v>
+        <v>32.33095471705779</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>43.32622792371686</v>
+        <v>43.00972367870909</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>1.432425600703567</v>
+        <v>2.851559764468831</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>41.3305587501624</v>
+        <v>41.72643285088372</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>42.06562629277084</v>
+        <v>42.36967156596055</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>7.268569445492467</v>
+        <v>8.470992806760954</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>64.30593202130699</v>
+        <v>63.5246254607377</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>73.84374557538629</v>
+        <v>72.86011900967439</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>67.35620155388649</v>
+        <v>65.56095906594943</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>76.91408888471972</v>
+        <v>75.39614974483715</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>79.77575745846443</v>
+        <v>78.67463346381562</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>18.68146891425479</v>
+        <v>20.10047441756598</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>70.32082312937504</v>
+        <v>70.20633375481096</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>80.11846853574684</v>
+        <v>79.48941334621314</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>7.160791002442519</v>
+        <v>9.497849376225961</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>9.9792095214973</v>
+        <v>10.66155625896908</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>10.33724696179711</v>
+        <v>12.37154451124707</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>1.043604720302259</v>
+        <v>3.132983424301877</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>9.486520878120409</v>
+        <v>10.05091193228059</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>9.823362314297018</v>
+        <v>12.57420397930252</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>4.234159793534495</v>
+        <v>5.991103318123052</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>14.95733499056697</v>
+        <v>15.94225378881063</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>16.40121779576838</v>
+        <v>17.09834745833299</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>15.16983255874611</v>
+        <v>16.14031780145641</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>18.89009685171178</v>
+        <v>19.40453506288766</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>22.61052873000937</v>
+        <v>22.92056939003282</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>6.524529189676734</v>
+        <v>7.099086548587632</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>10.28920435126707</v>
+        <v>11.38018813244853</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>12.87561685908642</v>
+        <v>13.96702620406961</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>3.806407784534979</v>
+        <v>4.669461080690095</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>13.3181995006554</v>
+        <v>13.56156781752273</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>29.25135282336787</v>
+        <v>27.64215933555683</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>1.290022517649458</v>
+        <v>2.393695278821866</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>4.788406205582675</v>
+        <v>6.032511072962055</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>27.06264740757849</v>
+        <v>27.54329195351458</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>4.158904502441199</v>
+        <v>5.532850787430281</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>10.21468099669051</v>
+        <v>11.20176909877474</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>43.99861126605302</v>
+        <v>44.13757854169995</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>14.6403891363368</v>
+        <v>14.83239215592684</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>26.81766572991067</v>
+        <v>26.44162841714163</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>45.30834447690442</v>
+        <v>44.42384444622458</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>1.859418684847309</v>
+        <v>2.601968798278154</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>22.19776563760441</v>
+        <v>22.48495553004282</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>33.11356635852052</v>
+        <v>32.36744610604071</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>8.969260284187612</v>
+        <v>9.566954595108008</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>21.92351143599774</v>
+        <v>22.25550186696506</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>39.16081533806094</v>
+        <v>39.38540225191101</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>1.736431973819631</v>
+        <v>3.026450382773177</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>14.38160663555314</v>
+        <v>15.70091568539192</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>32.43416959125665</v>
+        <v>33.52558690744044</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>10.02343127919413</v>
+        <v>11.43917890259395</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>27.5501905315917</v>
+        <v>28.05073523514882</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>56.17373819782546</v>
+        <v>56.55656523246074</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>31.18957539634015</v>
+        <v>31.51345519923987</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>40.29195773682688</v>
+        <v>40.70597667849581</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>70.24941671915676</v>
+        <v>70.11779787259832</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>20.63148714542772</v>
+        <v>21.00553269901519</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>37.10923556224803</v>
+        <v>37.94170754635842</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>54.44075570116579</v>
+        <v>54.77525676155548</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>1.007547232020436</v>
+        <v>2.448020041842984</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>1.090671842394951</v>
+        <v>2.21130888239788</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>7.51742141373256</v>
+        <v>8.987078817221388</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>0.03574056492011124</v>
+        <v>0.7770331097254832</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>0.9603217367205943</v>
+        <v>1.93748005394999</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>2.339213261677148</v>
+        <v>3.483741930904152</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>7.215698553387028</v>
+        <v>7.484196130985953</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>8.729096802438658</v>
+        <v>9.722805357797341</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>8.838976699213109</v>
+        <v>9.724543763154173</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>2.281539406843688</v>
+        <v>3.207789802315837</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>2.667901852332548</v>
+        <v>3.578622653242508</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>19.60215737416969</v>
+        <v>21.28645854663409</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>0.03561450178676395</v>
+        <v>0.9489776320625829</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>-0.6314244972629695</v>
+        <v>2.182682746907112</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>0.3931286027053176</v>
+        <v>1.763649837133787</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>16.29665884466986</v>
+        <v>16.99485291746557</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>33.69320939811506</v>
+        <v>33.30884900728284</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>35.80088926738338</v>
+        <v>35.6601253888523</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>1.642377611322061</v>
+        <v>2.809128419250595</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>26.41252938178887</v>
+        <v>26.86939906438859</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>31.30147112902973</v>
+        <v>31.69726160731974</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>6.75849594456016</v>
+        <v>8.250946719158371</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>54.61354483989666</v>
+        <v>54.30969379267484</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>58.52348936391334</v>
+        <v>57.99396456291379</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>50.01166329033971</v>
+        <v>49.65949522298997</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>58.49406297825735</v>
+        <v>56.06065206909042</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>58.78332346180804</v>
+        <v>56.44853106593659</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>16.58572552848567</v>
+        <v>17.86463858301794</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>50.89650913622521</v>
+        <v>50.38020710124452</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>56.68510007798488</v>
+        <v>56.24164198379817</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>18.76967528645822</v>
+        <v>18.94363948078609</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>36.85696253042418</v>
+        <v>36.84712811558674</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>48.2577311451863</v>
+        <v>47.82871206351183</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>1.452041385754629</v>
+        <v>2.424579648081455</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>34.78291756549769</v>
+        <v>35.55057963294338</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>38.27837037211808</v>
+        <v>38.80523928450901</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>7.320586609544364</v>
+        <v>8.02782259237366</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>64.08637104215914</v>
+        <v>64.13513835743592</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>71.37846292372512</v>
+        <v>70.44371053658058</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>69.01800752254061</v>
+        <v>68.96995261366972</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>77.69771740727221</v>
+        <v>77.11873665160421</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>80.65236551169045</v>
+        <v>78.38104136268102</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>13.1756883212339</v>
+        <v>13.82186853197003</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>68.30591063786912</v>
+        <v>68.62762237706717</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>72.10086419095558</v>
+        <v>71.9118232774233</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>11.38686415884097</v>
+        <v>11.81776535946936</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>12.92413657527481</v>
+        <v>13.25134781199145</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>13.44927350823266</v>
+        <v>14.30890001978177</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>3.190757938311616</v>
+        <v>3.898011367254117</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>14.60743776870742</v>
+        <v>15.55732364237262</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>15.90288664970803</v>
+        <v>16.74074691540225</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>11.14535956525021</v>
+        <v>11.40916222599029</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>23.85275930335534</v>
+        <v>23.97185322029784</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>25.7981936495375</v>
+        <v>26.09907601700733</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>22.63387917452577</v>
+        <v>22.95647455686265</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>27.32203948264426</v>
+        <v>27.33780065231598</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>31.26685506076358</v>
+        <v>31.04927603644453</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>14.40555803380719</v>
+        <v>14.53552045691568</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>13.83855406131774</v>
+        <v>14.55922606941983</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>16.58077581072171</v>
+        <v>18.29993255449526</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>3.027881097238183</v>
+        <v>3.748752538284453</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>9.56412661221195</v>
+        <v>10.06103108301067</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>20.93018368398671</v>
+        <v>20.84843586907921</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>-0.1901246316303826</v>
+        <v>1.962015007107791</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>3.625429586702079</v>
+        <v>4.710046147877001</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>17.81504650284075</v>
+        <v>18.40723682776573</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>-0.1466572011785736</v>
+        <v>1.995294391343666</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>7.50488822941983</v>
+        <v>8.668590576002533</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>30.59051470328964</v>
+        <v>31.11220703689673</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>11.14414685857238</v>
+        <v>11.57487490590183</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>18.25916988489132</v>
+        <v>18.33925880756539</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>32.58482884834314</v>
+        <v>32.27825674791422</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>1.538901643868869</v>
+        <v>2.792874379478476</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>12.9032919647515</v>
+        <v>14.0641312941178</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>21.58983933682172</v>
+        <v>22.55930529714062</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>18.2093556193469</v>
+        <v>18.56067749076779</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>29.15398395539022</v>
+        <v>29.21345722788313</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>34.42662381373694</v>
+        <v>34.4772470085713</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>1.907909351202768</v>
+        <v>3.045098581786863</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>20.80228626386071</v>
+        <v>22.48472744985067</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>24.1977869693835</v>
+        <v>25.67050058159654</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>7.869550940485823</v>
+        <v>8.584342505080535</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>39.46492379151685</v>
+        <v>39.7486539050982</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>51.77375629465112</v>
+        <v>51.56771698813795</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>42.23593931275571</v>
+        <v>42.93146667941834</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>45.29063493751921</v>
+        <v>45.55072412232232</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>64.69518544863632</v>
+        <v>64.28029472793143</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>12.52616815821261</v>
+        <v>14.00590453670331</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>38.86938687561653</v>
+        <v>39.1862908509399</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>42.76938815622157</v>
+        <v>42.87934298415018</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>2.549399591182045</v>
+        <v>3.425874813011408</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>4.585384822374888</v>
+        <v>6.587519423740428</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>4.177517157855952</v>
+        <v>5.338171280114555</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>0.679528324786677</v>
+        <v>2.441720452743134</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>3.52007096644985</v>
+        <v>4.867592069225648</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>4.137675390351991</v>
+        <v>6.994738901610599</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>7.680912362759095</v>
+        <v>8.267381167767681</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>10.61355080926415</v>
+        <v>11.21064522278321</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>8.982682095046108</v>
+        <v>9.780750893794249</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>4.496841600624666</v>
+        <v>5.739808702874036</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>2.944249769325687</v>
+        <v>4.240093492711132</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>10.61915013134331</v>
+        <v>11.3523918248176</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>1.584228124439576</v>
+        <v>2.393776862720447</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>4.771266960275074</v>
+        <v>7.155996698928991</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>4.544819129062041</v>
+        <v>7.061825848830029</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>0.4715147014819685</v>
+        <v>3.103431290868414</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>3.268411327114087</v>
+        <v>4.053524159803985</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>3.297254317877822</v>
+        <v>5.202740924040889</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>0.0354474466926078</v>
+        <v>0.9412673899364741</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-0.09087069086095312</v>
+        <v>2.869459767429568</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>3.016322506588295</v>
+        <v>3.8995562535791</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>0.7160497517047624</v>
+        <v>1.603065394906615</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>3.667889693928014</v>
+        <v>4.440887321678904</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>5.721866402415039</v>
+        <v>6.575035796186594</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>1.627118129442287</v>
+        <v>2.393529323329528</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>3.267518778089372</v>
+        <v>3.939709292073719</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>4.120344873760775</v>
+        <v>4.757509442727393</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>0.03510518998063006</v>
+        <v>1.797358055628671</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>2.337527901369999</v>
+        <v>3.261488424067565</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>2.982172261690877</v>
+        <v>4.067329559420202</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>18.5525415852807</v>
+        <v>19.02818210625958</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>22.60103816519619</v>
+        <v>23.25925437466322</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>22.23939740842632</v>
+        <v>22.90962125807605</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>2.226421361950973</v>
+        <v>3.02154930855356</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>13.39553845500243</v>
+        <v>14.45307539514206</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>14.52381204466917</v>
+        <v>15.30397084677457</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>11.30621949752774</v>
+        <v>11.86410626358313</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>27.93890959037856</v>
+        <v>28.33903007587867</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>30.92985580128925</v>
+        <v>31.61589209168421</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>31.19888512546353</v>
+        <v>31.71762113996825</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>33.025993207931</v>
+        <v>33.36303037057699</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>38.12472040270542</v>
+        <v>38.33076679054045</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>22.81467787538865</v>
+        <v>23.26860622902576</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>27.76522555945781</v>
+        <v>28.21604695539213</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>29.62290111884304</v>
+        <v>30.13151232099715</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>18.2974378445502</v>
+        <v>18.14670889169031</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>31.40965733309186</v>
+        <v>29.48444755023729</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>40.57997398742695</v>
+        <v>40.04780391106004</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>2.157165840867304</v>
+        <v>3.104111898970896</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>20.85828896454238</v>
+        <v>21.53516246840492</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>26.26401078261564</v>
+        <v>26.77657848401869</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>10.59658177034924</v>
+        <v>10.97087434325376</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>48.31298869100908</v>
+        <v>47.61788756972128</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>52.55114372553615</v>
+        <v>51.976976125406</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>47.32671775402872</v>
+        <v>46.69991624330019</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>54.2881668906028</v>
+        <v>53.41138402926476</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>57.08902915383046</v>
+        <v>56.50906196953088</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>31.59550832715631</v>
+        <v>31.38978453748484</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>58.65659703124354</v>
+        <v>58.00110051086455</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>60.29392273812204</v>
+        <v>60.33765195028226</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>15.40231221716146</v>
+        <v>15.66628938748097</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>27.71173359832212</v>
+        <v>27.52622130507316</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>32.13755990965294</v>
+        <v>32.49314645280217</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>-0.2941644571788444</v>
+        <v>2.312945640723999</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>10.0053528936887</v>
+        <v>11.17435698391144</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>14.28500109168015</v>
+        <v>15.41728079715687</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>7.873448043023746</v>
+        <v>8.311681402433742</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>30.78166459382509</v>
+        <v>31.11803886290116</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>35.96558248123527</v>
+        <v>36.46671690914979</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>29.74662200173427</v>
+        <v>29.88315670306122</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>36.61781949810465</v>
+        <v>36.29440352393404</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>40.7068976668625</v>
+        <v>40.58335314795277</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>19.85995209569676</v>
+        <v>20.176311279032</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>42.81161630588205</v>
+        <v>41.55043324909706</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>44.96423754668594</v>
+        <v>45.43173722245151</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>21.92562255241867</v>
+        <v>21.76548630658024</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>35.05755389009909</v>
+        <v>35.0198148589653</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>45.59672996257844</v>
+        <v>45.31304278049566</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>1.51190620746226</v>
+        <v>2.528314467428775</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>23.06214549483859</v>
+        <v>24.11972938638107</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>27.3471621404492</v>
+        <v>28.33737306120408</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>11.28667150748311</v>
+        <v>12.37622896496198</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>50.89104279879427</v>
+        <v>51.11239118096944</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>58.68388442049415</v>
+        <v>58.77267875008397</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>63.63649390007685</v>
+        <v>63.43044193118959</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>69.79979064371406</v>
+        <v>69.33425799274653</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>72.48844770407328</v>
+        <v>72.2774733565704</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>32.86822928812388</v>
+        <v>32.94547267163335</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>62.10993693431747</v>
+        <v>62.32524110600205</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>65.80721181213883</v>
+        <v>64.97295466872909</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>12.40370734967439</v>
+        <v>12.60929241594464</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>29.07324306996951</v>
+        <v>28.61795252551075</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>37.05567787385458</v>
+        <v>35.872049764522</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>2.120112996818303</v>
+        <v>3.002380829563215</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>34.19415127817371</v>
+        <v>34.26183352740028</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>38.39021851671318</v>
+        <v>38.59584440937069</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>8.042741172318781</v>
+        <v>9.383446425489836</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>55.46663064736381</v>
+        <v>54.73369670664471</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>65.49891070877175</v>
+        <v>64.57220180888369</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>60.19781991075802</v>
+        <v>60.0724183553416</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>65.46923370848427</v>
+        <v>63.48799992760519</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>68.81306733528689</v>
+        <v>68.3017972379136</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>11.39223150981312</v>
+        <v>11.73498592650057</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>41.4746112994681</v>
+        <v>41.67169662041868</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>51.54816987680861</v>
+        <v>49.70677291541849</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>7.778459872989956</v>
+        <v>8.254207256128879</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>33.83080344792992</v>
+        <v>33.28913305029509</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>37.89061599450194</v>
+        <v>36.49225057679699</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>1.479949529141944</v>
+        <v>2.393659665847</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>22.88740489061874</v>
+        <v>23.22469902583476</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>35.04067233857342</v>
+        <v>35.35463015124973</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>4.565882454520143</v>
+        <v>5.354137459198135</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>45.06628110580201</v>
+        <v>44.77375558148906</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>53.54225555209118</v>
+        <v>51.99797223833433</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>48.56631237823531</v>
+        <v>47.89638850760699</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>54.70613891165981</v>
+        <v>52.54080997599617</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>62.7263380250935</v>
+        <v>61.43276475270571</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>5.289620117638563</v>
+        <v>5.984763433840872</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>46.66528875142444</v>
+        <v>45.34839378350329</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>54.46493734207613</v>
+        <v>54.50528649573534</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>5.759598595146866</v>
+        <v>6.716025848723209</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>31.52435105546631</v>
+        <v>31.62922466582781</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>39.7522928006403</v>
+        <v>39.56036998203854</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>1.167493378119026</v>
+        <v>2.393454366344951</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>26.50886986240808</v>
+        <v>27.36606334098836</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>41.29344699132311</v>
+        <v>41.66606495622212</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>4.436923130039432</v>
+        <v>5.608019910344453</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>46.92313520563376</v>
+        <v>46.03151574821158</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>66.51653562890758</v>
+        <v>64.39771371745415</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>58.73313332548258</v>
+        <v>58.39183110036892</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>71.1042851648446</v>
+        <v>70.32417950573064</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>83.10398071515255</v>
+        <v>80.55039383342444</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>3.866127285441813</v>
+        <v>4.712223542581004</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>58.52857313385044</v>
+        <v>58.66461312965839</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>69.85344171371791</v>
+        <v>69.62407515210636</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>6.672739343997875</v>
+        <v>7.045934419986015</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>22.55315464838447</v>
+        <v>22.73455669748141</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>34.98507851575151</v>
+        <v>34.55492721393041</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>1.527103021049083</v>
+        <v>2.393780904386187</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>43.57630014904118</v>
+        <v>43.23980399254106</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>47.84834681066641</v>
+        <v>47.16491336006715</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>7.038138170230614</v>
+        <v>7.659141094448078</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>65.87516692541577</v>
+        <v>63.09331856324901</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>67.59826992997748</v>
+        <v>66.42665545057552</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>63.91537785433874</v>
+        <v>63.98842896734959</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>62.31333661850647</v>
+        <v>62.42356172889509</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>65.16023635011493</v>
+        <v>65.41159445090331</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>5.648109956696612</v>
+        <v>6.053302925986294</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>31.97504923489862</v>
+        <v>31.84971179357906</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>62.01683560320414</v>
+        <v>60.70863687604101</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>13.50316837967685</v>
+        <v>13.90518828603089</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>35.86003076031142</v>
+        <v>34.64303001733634</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>36.8497814630644</v>
+        <v>36.43644752247985</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>1.596241334383745</v>
+        <v>2.495590135059633</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>28.75503689438094</v>
+        <v>29.17926537672583</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>33.0958153442179</v>
+        <v>34.46193595776441</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>3.98852879885456</v>
+        <v>5.289291993809499</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>49.79871855784335</v>
+        <v>49.6637296863384</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>52.32374528521537</v>
+        <v>52.45305619366646</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>48.07994856686513</v>
+        <v>47.66012227643309</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>55.05994122815675</v>
+        <v>54.20731851734723</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>59.29411936448034</v>
+        <v>58.47203041259344</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>8.685084445082783</v>
+        <v>10.09839317553841</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>47.0601644085319</v>
+        <v>47.51756912565793</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>52.73564677062807</v>
+        <v>52.62937200527114</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>11.26398480436723</v>
+        <v>12.38342977022246</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>33.66053778827099</v>
+        <v>33.85947776809876</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>41.44899406588134</v>
+        <v>40.7895263708691</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>1.516420534733896</v>
+        <v>2.393655917455263</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>36.24175304240761</v>
+        <v>36.70753430112515</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>41.86151495149483</v>
+        <v>42.51142634865349</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>4.502297852598321</v>
+        <v>5.217345993215627</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>58.33648074241986</v>
+        <v>58.22401546276288</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>66.73166448623678</v>
+        <v>66.05095229422118</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>70.25295537520415</v>
+        <v>69.95053877229969</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>75.37402275646193</v>
+        <v>74.54072856960735</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>81.50913245769586</v>
+        <v>80.55838094707573</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>7.066564590557803</v>
+        <v>7.809661793287471</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>62.86414718231438</v>
+        <v>62.9803462452671</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>72.63276499642578</v>
+        <v>72.21335221345545</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>18.87263697169141</v>
+        <v>18.71327449827913</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>25.1723386083526</v>
+        <v>25.2869130172845</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>38.15275951018005</v>
+        <v>37.67798279500121</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>8.645655741988104</v>
+        <v>9.886608129573595</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>52.85597320337879</v>
+        <v>52.1258533758769</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>56.39011321041706</v>
+        <v>55.92080574770785</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>10.69845686858357</v>
+        <v>12.54333314565532</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>64.85480810644432</v>
+        <v>63.96111827761659</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>71.49225403970911</v>
+        <v>70.16698252480697</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>61.38565890480585</v>
+        <v>61.71265739443186</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>61.47573678506429</v>
+        <v>61.72099693776701</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>62.0579404949269</v>
+        <v>62.47063147435274</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>14.99255906758797</v>
+        <v>14.76457864096451</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>29.73152788930941</v>
+        <v>31.71729246421012</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>50.46565456331765</v>
+        <v>50.32708004764545</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>25.46511228294584</v>
+        <v>25.59023476164816</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>35.65865975233264</v>
+        <v>35.65552860142971</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>38.58732792330397</v>
+        <v>38.24269537937883</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>38.58918719830854</v>
+        <v>38.25990649618666</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>52.88048377510221</v>
+        <v>52.43117473387244</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>57.41649805010819</v>
+        <v>56.81249029635696</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>8.575516644927507</v>
+        <v>9.602548875277957</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>48.3355123882544</v>
+        <v>48.48795936333953</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>56.05574126914213</v>
+        <v>56.89611072121217</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>50.53171773872735</v>
+        <v>50.4392901631367</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>54.43665714051461</v>
+        <v>53.65673195729025</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>57.62156714696854</v>
+        <v>56.74013956617463</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>27.41412938345683</v>
+        <v>27.60523090019811</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>49.0024321309189</v>
+        <v>49.1434492223776</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>55.1104986335026</v>
+        <v>54.96688049941684</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>25.30483889924065</v>
+        <v>25.57266126723398</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>34.62388551410033</v>
+        <v>34.86287269996858</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>41.53958332650519</v>
+        <v>40.8266670989707</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>39.80810979585495</v>
+        <v>39.62118731767103</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>60.41052554218638</v>
+        <v>59.97535671395756</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>61.20746842164409</v>
+        <v>59.37140829092148</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>11.30969407137774</v>
+        <v>13.19782661529965</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>62.72416527996028</v>
+        <v>62.66932573530167</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>69.82153366745219</v>
+        <v>68.97282094939608</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>74.54934820353671</v>
+        <v>73.01111517621403</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>76.31819236358092</v>
+        <v>75.5303407698359</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>81.49596081126518</v>
+        <v>80.59725696677745</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>28.73232001737902</v>
+        <v>29.15971558012403</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>62.26837081977214</v>
+        <v>62.34186402219716</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>74.0369791445967</v>
+        <v>73.66710772357067</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>4.268731529753854</v>
+        <v>5.104677891814411</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>24.92818688769116</v>
+        <v>25.08166700769287</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>33.77810543897588</v>
+        <v>33.50638842388125</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>1.107801515430971</v>
+        <v>2.023136257856681</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>31.88141379100393</v>
+        <v>31.48620877489008</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>32.15048288101598</v>
+        <v>31.5500486774687</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>5.516322272040721</v>
+        <v>6.258757845572074</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>55.66868476302834</v>
+        <v>55.04612503012551</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>59.80295965727251</v>
+        <v>57.69604475970205</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>62.4329828550284</v>
+        <v>62.10971930597408</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>62.648408214068</v>
+        <v>61.38596374534154</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>64.17044876894693</v>
+        <v>63.98795575883031</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>3.011327304300728</v>
+        <v>3.821352700011676</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>39.31362386161015</v>
+        <v>37.96504823793583</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>43.32173034154135</v>
+        <v>43.40718975665283</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>7.394193915781159</v>
+        <v>8.136258492898499</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>33.13530515012826</v>
+        <v>33.05539275177495</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>34.0964404789873</v>
+        <v>33.92843860567795</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>1.092422825456161</v>
+        <v>2.164285012455142</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>28.50362036487675</v>
+        <v>28.66028372253476</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>33.07188089436821</v>
+        <v>33.53779717233334</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>4.150036696438761</v>
+        <v>5.003450462668535</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>44.40451649921533</v>
+        <v>42.69809500032548</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>51.86453572274325</v>
+        <v>50.38468470970312</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>46.14338846510694</v>
+        <v>44.86135899028008</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>54.64670629261442</v>
+        <v>53.80568357070233</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>56.95922642456586</v>
+        <v>56.17924351248979</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>4.491829749213206</v>
+        <v>5.40765336887404</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>49.87361077542639</v>
+        <v>48.61200615131311</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>53.79198413866595</v>
+        <v>53.81213470780174</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>6.204527796950874</v>
+        <v>7.093583850587379</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>32.52001162920126</v>
+        <v>32.59678744034177</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>40.05404271962352</v>
+        <v>39.5511574438659</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>1.107678838870001</v>
+        <v>2.205340431649802</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>28.88206122696259</v>
+        <v>29.77513234175549</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>37.755790591503</v>
+        <v>38.42458506860509</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>5.034811794765684</v>
+        <v>5.946244110835899</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>47.79297291536442</v>
+        <v>47.47021365886373</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>64.43382988986281</v>
+        <v>62.70523725782985</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>61.96365708314136</v>
+        <v>61.56079567256708</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>77.14943161943447</v>
+        <v>75.95090868152582</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>79.97553423282521</v>
+        <v>77.63206687489006</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>3.697973646719891</v>
+        <v>4.533737706100091</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>61.16609120266171</v>
+        <v>61.0837549534065</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>69.96292125385187</v>
+        <v>68.29527604087811</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>11.98804822455173</v>
+        <v>12.81950556601086</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>13.98961547592903</v>
+        <v>14.70875636402079</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>14.66623150352781</v>
+        <v>15.35350264942858</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>2.584294154051328</v>
+        <v>3.496904257738503</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>12.29498664636274</v>
+        <v>13.41096704261514</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>13.46227898341814</v>
+        <v>14.48316618784004</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>11.32339360043883</v>
+        <v>11.82012636911831</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>23.27207299469308</v>
+        <v>23.50027047404035</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>24.86134257177337</v>
+        <v>25.38332295143978</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>22.38346402422239</v>
+        <v>23.19365153287274</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>25.74235941482471</v>
+        <v>26.4974517546207</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>29.03897066472893</v>
+        <v>29.81184664116966</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>10.46342835565323</v>
+        <v>11.12471423335792</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>15.09106194986626</v>
+        <v>15.79329292826441</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>19.013905234709</v>
+        <v>19.68893053059215</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>5.89792849109357</v>
+        <v>6.509495351631521</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>21.02037707924102</v>
+        <v>21.73775956534148</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>31.00507346420157</v>
+        <v>31.03408424090551</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>0.009227462780039275</v>
+        <v>2.624787297563124</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>10.31439835211642</v>
+        <v>11.74542418832914</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>26.09249879716578</v>
+        <v>25.94128888954586</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>2.99140245625804</v>
+        <v>3.867213925083572</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>21.67013115690325</v>
+        <v>22.57916156389879</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>46.34356568616936</v>
+        <v>46.89368515062216</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>28.86951574398311</v>
+        <v>28.18122460959193</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>39.34267072934139</v>
+        <v>38.99695492386515</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>51.85019379378544</v>
+        <v>51.68765622340298</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>2.741261903598691</v>
+        <v>3.884517819739852</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>32.58327374480771</v>
+        <v>33.03095291276588</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>43.74803741449595</v>
+        <v>43.62349148976385</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>14.02944895988155</v>
+        <v>14.94129911063661</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>32.19401317795818</v>
+        <v>32.29479533346817</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>38.87763638307897</v>
+        <v>37.56061541745526</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>1.393771250085127</v>
+        <v>2.506071772287903</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>24.56909166232033</v>
+        <v>24.38502640001397</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>34.76708107185921</v>
+        <v>34.06694449833131</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>6.700342615888829</v>
+        <v>7.43099486745685</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>41.99492714048982</v>
+        <v>42.27404447192592</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>58.77910859116005</v>
+        <v>59.04023457077609</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>52.70189193302052</v>
+        <v>52.64711338060916</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>60.36525831104754</v>
+        <v>59.64401021161975</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>66.51007993583357</v>
+        <v>66.77702899695161</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>3.509936890306612</v>
+        <v>4.24422252309725</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>44.79269555241616</v>
+        <v>44.6022857993425</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>64.73157301336995</v>
+        <v>64.94264147513631</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>15.02690759339666</v>
+        <v>15.74222658713407</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>24.43539472997053</v>
+        <v>24.50545839767636</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>27.70925040149574</v>
+        <v>28.1809948650558</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>2.03293222544109</v>
+        <v>2.859122821303135</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>29.02379131813567</v>
+        <v>29.60254868118452</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>30.23067753747749</v>
+        <v>29.93985126818703</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>14.2971783483547</v>
+        <v>14.50832580671357</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>48.43103036348659</v>
+        <v>48.48036355711422</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>50.11571578107978</v>
+        <v>50.18834436568812</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>34.47336587246811</v>
+        <v>34.77902252678111</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>39.04251341755314</v>
+        <v>39.31906218650981</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>47.09291699718834</v>
+        <v>47.05131701614576</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>11.39353499021414</v>
+        <v>12.18650184922182</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>39.84108692782116</v>
+        <v>40.59830485431984</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>44.83270674416322</v>
+        <v>45.39560661652392</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>5.982315681246675</v>
+        <v>7.094104893381999</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>25.40210789266566</v>
+        <v>25.81980791996526</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>35.413953104885</v>
+        <v>35.45717634643285</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>0.9602898614099722</v>
+        <v>2.393333370464742</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>17.19173818290072</v>
+        <v>17.95462876510133</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>42.70583809016395</v>
+        <v>43.33726139054976</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>4.824256703288999</v>
+        <v>5.594357839554974</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>30.98132158457751</v>
+        <v>31.95982945836221</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>50.81394742898942</v>
+        <v>50.14437359557313</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>27.17280616585616</v>
+        <v>27.30843946841874</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>38.53638053263685</v>
+        <v>38.08664074149273</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>57.57539516814953</v>
+        <v>56.95253122833893</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>4.048394174184576</v>
+        <v>4.963549484444751</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>36.54815193177433</v>
+        <v>37.31170136279646</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>45.27534365801628</v>
+        <v>44.58825770829367</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>10.98877144042535</v>
+        <v>12.24657441715395</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>26.64952353130284</v>
+        <v>27.17485459578492</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>35.58073791553615</v>
+        <v>35.75747030721863</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>0.9606105979779151</v>
+        <v>2.393723595233329</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>27.38749966447104</v>
+        <v>28.4526559968929</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>35.46437692499883</v>
+        <v>35.02148398777661</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>6.509462745499324</v>
+        <v>7.244026972480093</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>47.72304537985036</v>
+        <v>47.78793660217491</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>53.58193949828598</v>
+        <v>54.34712780608778</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>57.5939927937805</v>
+        <v>57.00420476205534</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>61.46823666728166</v>
+        <v>60.6758883961834</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>70.57436003995076</v>
+        <v>70.43854188941626</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>3.01304089126106</v>
+        <v>3.769314950906651</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>36.91361985783633</v>
+        <v>37.2629900348638</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>59.98417092217651</v>
+        <v>60.47047331690338</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>15.9963664997763</v>
+        <v>16.00497144723163</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>23.47263300491579</v>
+        <v>24.42649731642138</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>34.33978953951932</v>
+        <v>33.96445902792971</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>2.119442220711026</v>
+        <v>2.977278268960653</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>44.23344415467807</v>
+        <v>43.48416006037238</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>45.57344879316275</v>
+        <v>44.20445538216301</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>11.7177960035773</v>
+        <v>12.53099700422714</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>66.78652404014224</v>
+        <v>65.59926052515604</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>67.17203244803279</v>
+        <v>66.02151849557993</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>62.08864260329388</v>
+        <v>62.28376963057789</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>60.89419579323859</v>
+        <v>61.06524326459007</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>64.79090413867956</v>
+        <v>65.05892053371676</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>13.77707066190857</v>
+        <v>13.50078426193386</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>20.37564146159344</v>
+        <v>20.5340264747032</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>64.33768286711103</v>
+        <v>62.25168663660655</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>25.38541659149318</v>
+        <v>25.36378697628112</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>36.70043523881129</v>
+        <v>35.48196396723199</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>36.65661178267804</v>
+        <v>36.18559833231721</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>2.296272802591499</v>
+        <v>3.658649864117518</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>31.07085050396577</v>
+        <v>31.55421190350484</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>35.51095553124831</v>
+        <v>35.57243400948938</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>9.476544788171783</v>
+        <v>10.49508329243948</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>51.61068438925071</v>
+        <v>51.41380096606954</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>56.73400328583828</v>
+        <v>56.49695244425133</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>53.63705458188004</v>
+        <v>53.19219012264821</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>59.72303055374299</v>
+        <v>58.69277831267765</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>60.35874101238763</v>
+        <v>57.76257242712369</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>22.42759802268265</v>
+        <v>22.68665314550539</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>50.23756261543103</v>
+        <v>49.22929056812194</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>55.30802651582056</v>
+        <v>53.47931491806514</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>26.54497520762143</v>
+        <v>26.49618770263333</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>36.76017621421368</v>
+        <v>36.76146094537861</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>41.14355824733095</v>
+        <v>40.87121031412524</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>2.321053198211629</v>
+        <v>3.568825320193014</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>36.80792340584118</v>
+        <v>37.32448196945488</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>40.09330218378475</v>
+        <v>40.44205796776578</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>9.618251414981472</v>
+        <v>10.58544048461388</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>62.02554847725802</v>
+        <v>61.88041659843786</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>69.90649163137448</v>
+        <v>67.70873679669218</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>69.43447359275029</v>
+        <v>69.27370604378441</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>73.06659920635084</v>
+        <v>70.80243241911563</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>79.15782119587605</v>
+        <v>76.68731220367282</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>18.69679818370592</v>
+        <v>20.3471718221248</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>63.24585942798955</v>
+        <v>63.03307755938799</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>69.43034671684254</v>
+        <v>69.0011203773493</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>4.88106262076181</v>
+        <v>5.409154948989645</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>24.13420795916553</v>
+        <v>23.73195913089786</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>32.5408174412926</v>
+        <v>31.30794816637786</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>0.9605223744711999</v>
+        <v>1.937491274916511</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>32.56768649547216</v>
+        <v>32.878360132694</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>31.56195224047967</v>
+        <v>32.369683464091</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>5.69334120050803</v>
+        <v>6.474575513563881</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>52.44134186056894</v>
+        <v>52.24828562944504</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>56.87919619257534</v>
+        <v>56.65044307954092</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>59.22852938301984</v>
+        <v>59.2500266882388</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>64.99295889198034</v>
+        <v>65.08247996108288</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>60.01870159986577</v>
+        <v>58.44643855431104</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>2.847847507792387</v>
+        <v>3.667654022370598</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>39.46503401205246</v>
+        <v>39.7352573075166</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>42.30257441540525</v>
+        <v>42.42295013447616</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>8.329214418392276</v>
+        <v>8.871286985072043</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>35.13346126095935</v>
+        <v>35.09044992968648</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>33.52731986488338</v>
+        <v>33.57941747190441</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>1.266314676993652</v>
+        <v>2.393665446636522</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>28.10075803883468</v>
+        <v>28.41600125654753</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>33.32100080249476</v>
+        <v>33.91584951437457</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>5.142186048761005</v>
+        <v>5.765275819454708</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>48.50145300764434</v>
+        <v>48.08700428707622</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>58.40398337689867</v>
+        <v>56.50050669897782</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>49.87751627285201</v>
+        <v>49.21850183784194</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>56.93129967144528</v>
+        <v>55.88854207146741</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>60.37270308934168</v>
+        <v>58.58388102764225</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>4.160105513946743</v>
+        <v>5.354970534026737</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>50.06544051616721</v>
+        <v>50.03936579139031</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>54.12828386116517</v>
+        <v>52.34868580026492</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>8.077510501399317</v>
+        <v>8.574882525451219</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>34.60707308842624</v>
+        <v>34.43956202742903</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>41.76137864330362</v>
+        <v>41.50562848325022</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>1.107430159053894</v>
+        <v>2.187854954011041</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>28.35928718142187</v>
+        <v>29.22766804492874</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>35.09346516690131</v>
+        <v>35.31489744086481</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>4.850852909715453</v>
+        <v>5.585520268128739</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>48.42636350886102</v>
+        <v>48.31563791726687</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>62.40160649661856</v>
+        <v>62.18090672989108</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>65.04278283862712</v>
+        <v>64.1061461848653</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>71.34010810529769</v>
+        <v>70.21179625652272</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>78.68166200300719</v>
+        <v>76.34126053386383</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>3.430342696192902</v>
+        <v>4.276646641434109</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>52.47299899160133</v>
+        <v>52.80361059479991</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>69.24406106796367</v>
+        <v>68.84931538025334</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.479</v>
+        <v>0.546</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.851</v>
+        <v>16.341</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.793</v>
+        <v>0.787</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.813</v>
+        <v>12.989</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.999</v>
+        <v>0.978</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.965</v>
+        <v>3.96</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8.739271888863438</v>
+        <v>6.14097876203936</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>12.36015546713792</v>
+        <v>10.85188127301747</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>13.29022927427836</v>
+        <v>15.67714445303059</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1.7667091227311</v>
+        <v>-2.645096837532869</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>12.89881199141279</v>
+        <v>14.45056755339467</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>13.63808439890306</v>
+        <v>16.52435898081598</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5.437111770443924</v>
+        <v>0.907859358392372</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>19.68940444853082</v>
+        <v>23.19232741725414</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>22.65435394493806</v>
+        <v>26.0212718211618</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>22.45669950785077</v>
+        <v>23.67429207901626</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>26.31983067802499</v>
+        <v>27.74546125943185</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>30.87504259096044</v>
+        <v>32.54665515924634</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>7.552643820683418</v>
+        <v>4.881834218371939</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>15.29848756102287</v>
+        <v>15.48475225828198</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>16.35819016900521</v>
+        <v>19.57427899665976</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>7.944675664761423</v>
+        <v>10.10633300192388</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>27.71821972639988</v>
+        <v>26.00236557943207</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>41.77513807608456</v>
+        <v>38.46233921745245</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2.08873977858882</v>
+        <v>1.398109433439792</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>14.20385319518918</v>
+        <v>16.36273081028989</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>31.68879195978402</v>
+        <v>33.24733345723551</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>2.97815279838197</v>
+        <v>2.012580194683171</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>26.25600616796878</v>
+        <v>27.38934601299608</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>58.84473621042557</v>
+        <v>55.87763631930127</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>30.311854743932</v>
+        <v>32.50489919547076</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>50.97855621579362</v>
+        <v>52.8198436213124</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>74.84726746215539</v>
+        <v>72.80365492110957</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>4.857741632411035</v>
+        <v>6.168858173874963</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>45.75454551852764</v>
+        <v>44.47145540140697</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>64.832057406717</v>
+        <v>62.94243986962124</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>12.24170907265493</v>
+        <v>14.22271170368151</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>34.78182636683353</v>
+        <v>34.3248292228842</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>43.54723855782927</v>
+        <v>43.245145723075</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2.820046352745035</v>
+        <v>1.570351625755112</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>28.83759275592397</v>
+        <v>27.92344136120111</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>41.84958936391509</v>
+        <v>38.6083146942689</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>2.738743319848741</v>
+        <v>3.537791214489879</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>47.35826642229458</v>
+        <v>44.77503622801358</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>61.54441524740075</v>
+        <v>59.30552531947045</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>57.61719716418273</v>
+        <v>60.23918751691551</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>72.43062108697097</v>
+        <v>75.98246840921986</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>79.93079137978316</v>
+        <v>82.58496915600634</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>17.93172939857218</v>
+        <v>14.59392098774648</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>64.49311583714228</v>
+        <v>62.58631946744063</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>72.09888776677597</v>
+        <v>69.46899857675348</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>4.122272167095595</v>
+        <v>6.281989602917029</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>30.4184869525644</v>
+        <v>31.87793251126052</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>39.21109317030601</v>
+        <v>39.18718651747553</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>2.377780183014657</v>
+        <v>4.26031661089397</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>37.5168361982753</v>
+        <v>42.1988236274948</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>40.67886361205537</v>
+        <v>43.19702176186149</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>3.261686264402911</v>
+        <v>6.67269064766921</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>58.65166471379683</v>
+        <v>65.09238605095453</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>65.16123115203625</v>
+        <v>67.56428517042143</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>64.85305869203304</v>
+        <v>61.61637527848499</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>76.87095715213992</v>
+        <v>75.75907916257481</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>61.54230928632343</v>
+        <v>64.06157343830678</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>5.060156610505423</v>
+        <v>6.331657405227268</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>42.68144394431582</v>
+        <v>46.45646398761277</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>49.47565503507877</v>
+        <v>53.31789377609631</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>6.149801590221312</v>
+        <v>8.588402704181963</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>37.06373269528566</v>
+        <v>34.08029019955168</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>43.09996256285554</v>
+        <v>40.50994295067261</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>2.393578454135849</v>
+        <v>2.233105935375498</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>22.58176882094489</v>
+        <v>24.7903341004634</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>35.05318276444613</v>
+        <v>37.53425481108724</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>2.213253139272197</v>
+        <v>3.394718636455462</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>45.91140972617795</v>
+        <v>44.65974984037696</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>61.93873143076414</v>
+        <v>60.89551820638316</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>48.00230387173531</v>
+        <v>50.64827338958187</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>67.70231051616861</v>
+        <v>65.04945344086407</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>75.49144899226052</v>
+        <v>73.40472013432611</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>4.497656188120224</v>
+        <v>6.077078916330752</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>58.97252155443185</v>
+        <v>57.33516413301575</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>61.64063934209805</v>
+        <v>62.2025270613648</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>6.656282642701655</v>
+        <v>9.549177733873652</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>37.72306480385426</v>
+        <v>36.55552761458947</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>45.2282139621576</v>
+        <v>47.26013589825551</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>2.393953009353957</v>
+        <v>2.219670088116416</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>37.82309240021075</v>
+        <v>34.54899033707842</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>41.27254717795171</v>
+        <v>44.15899716260488</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>2.501297985095217</v>
+        <v>4.876663789815613</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>61.49666472349939</v>
+        <v>59.19981300520307</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>75.80634311445357</v>
+        <v>79.35527778516035</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>65.03572811770316</v>
+        <v>67.2972004865422</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>84.69690731800662</v>
+        <v>85.70204704565674</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>87.31028539964585</v>
+        <v>90.6179913660124</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>5.537017512042553</v>
+        <v>6.835855924229829</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>72.81831121662843</v>
+        <v>70.99123918583378</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>75.66681326191279</v>
+        <v>75.71965036303563</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>14.24259215176113</v>
+        <v>12.72019758979939</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>30.2198875001264</v>
+        <v>29.86784930058563</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>37.45001122458331</v>
+        <v>34.55737404279765</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>2.371075458596657</v>
+        <v>1.966014115429825</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>35.93293074905046</v>
+        <v>35.62427476151566</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>37.8109768291116</v>
+        <v>35.07320521952187</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>4.158108900135769</v>
+        <v>6.209438759425282</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>62.31688513832161</v>
+        <v>60.90219567846738</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>59.96549037831775</v>
+        <v>57.0619715388132</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>52.22665743062618</v>
+        <v>50.37411846377157</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>62.72303351511655</v>
+        <v>60.77912741754041</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>59.8104360236043</v>
+        <v>57.5643155373191</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>9.882861781214373</v>
+        <v>11.84716279058752</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>35.54665940994271</v>
+        <v>37.1241692540591</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>37.97315915180852</v>
+        <v>41.55842778046632</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>23.07890449710812</v>
+        <v>18.57245722996361</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>41.60354484946999</v>
+        <v>41.50822884198107</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>44.5259701776866</v>
+        <v>44.52891112593385</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>2.737699284584441</v>
+        <v>4.01511163554903</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>33.98049847499396</v>
+        <v>32.59107720850763</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>37.01070093714447</v>
+        <v>39.71037573919614</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>4.003764604897203</v>
+        <v>5.221170856493465</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>59.14340365554604</v>
+        <v>56.11327465882913</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>63.26276046894625</v>
+        <v>65.01309597896294</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>59.92708616184716</v>
+        <v>58.52024205228342</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>71.43620325360028</v>
+        <v>69.77093489359711</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>75.9258280613136</v>
+        <v>73.60983857110159</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>20.35478874012719</v>
+        <v>17.52791485423289</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>59.56679922034561</v>
+        <v>61.28484145268534</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>65.88693014582326</v>
+        <v>62.37481770184141</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>21.6780207424788</v>
+        <v>18.14435381462353</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>42.94711284241733</v>
+        <v>42.915526480748</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>45.56749843588241</v>
+        <v>49.86731301167366</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>3.030316977889111</v>
+        <v>2.550933951263239</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>39.18611144387386</v>
+        <v>39.8344615731998</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>41.00381351790222</v>
+        <v>43.86189258256658</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>3.288289047669807</v>
+        <v>4.562270539507399</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>67.42892812783874</v>
+        <v>66.4693150638868</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>73.99555687594412</v>
+        <v>77.91371008076975</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>71.20149531880718</v>
+        <v>74.89016576548606</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>79.36758762047157</v>
+        <v>82.58886599570525</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>86.93782310494441</v>
+        <v>90.4443163857471</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>21.22155219310849</v>
+        <v>16.49050308954885</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>70.5703454072418</v>
+        <v>70.92429763044474</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>74.31812363384122</v>
+        <v>75.87423241659478</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>10.57818103063493</v>
+        <v>9.649362727730363</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>14.64108541102941</v>
+        <v>12.72620231897947</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>14.91380163774731</v>
+        <v>17.90236101871134</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>1.92285182186512</v>
+        <v>-0.4894646410574026</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>11.30390659838359</v>
+        <v>13.93846056833453</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>11.71453401519641</v>
+        <v>13.98403723590372</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>6.649540503027669</v>
+        <v>4.584950833624092</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>24.73736316437856</v>
+        <v>25.89131145794084</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>24.13955531846949</v>
+        <v>27.43095243304352</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>22.20907450447638</v>
+        <v>23.38445400709934</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>24.83123314346131</v>
+        <v>26.25790287627605</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>32.5951603039036</v>
+        <v>34.21265757400782</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>62.78478801063467</v>
+        <v>62.7574826607144</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>66.14791199122958</v>
+        <v>63.51569583236463</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>63.29457069987798</v>
+        <v>60.63737645384133</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>7.704182048663736</v>
+        <v>9.241726650666727</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>29.09967178921124</v>
+        <v>24.939783408168</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>41.54065668272749</v>
+        <v>39.37517395104655</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>2.325263182570669</v>
+        <v>1.032667175259075</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>10.68195681842259</v>
+        <v>12.05261006994776</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>26.90946728604356</v>
+        <v>29.76614176686397</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>31.11011153318771</v>
+        <v>31.44088000584299</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>60.73253572717594</v>
+        <v>58.41846675185175</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>29.66442860307319</v>
+        <v>31.78675784045325</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>50.24841427436635</v>
+        <v>47.49532447379622</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>70.77840993452732</v>
+        <v>68.73613960753235</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>5.879602425970706</v>
+        <v>7.006702916566514</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>47.11258256035926</v>
+        <v>44.61247830510217</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>56.23011713102112</v>
+        <v>54.02084091233397</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>23.2014962481375</v>
+        <v>20.57825370479929</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>35.94936568527526</v>
+        <v>32.94068091077746</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>46.46914793774006</v>
+        <v>44.21694134151181</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>3.517548152254733</v>
+        <v>3.225941308839694</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>17.94522043635128</v>
+        <v>18.49508453518938</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>29.73412252414917</v>
+        <v>31.38647008699628</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>8.430346175183708</v>
+        <v>9.879970364026629</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>43.87744292337457</v>
+        <v>43.72676483340348</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>66.85393950216312</v>
+        <v>64.13367713746975</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>42.49140405701709</v>
+        <v>44.15406501391543</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>59.34785442934034</v>
+        <v>61.63728001157048</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>81.77700858070391</v>
+        <v>80.25763943432004</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>25.56420384578851</v>
+        <v>25.11363716396936</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>63.8220842196674</v>
+        <v>60.66626892065874</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>70.89806948338965</v>
+        <v>67.73494171023204</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>8.216374765087686</v>
+        <v>7.187757974133085</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>24.51617584887003</v>
+        <v>23.37404056651913</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>31.53527884499046</v>
+        <v>30.23567099168804</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>2.750719374041491</v>
+        <v>3.284597927249543</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>32.15970757145766</v>
+        <v>33.79270725608207</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>40.83457354034808</v>
+        <v>38.08407154053052</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>7.982438354407201</v>
+        <v>8.917708768567429</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>62.49734213869735</v>
+        <v>62.7067266859945</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>65.44996288785298</v>
+        <v>62.02089836337078</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>52.96410146074768</v>
+        <v>52.30821292200083</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>67.45569887765788</v>
+        <v>64.79935568036457</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>68.39927512014464</v>
+        <v>65.43128382543934</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>10.94314186590201</v>
+        <v>12.4883997927182</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>9.201148697349737</v>
+        <v>10.56840692570856</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>9.734168959504377</v>
+        <v>11.19606427318346</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>24.73691236145659</v>
+        <v>20.50316131126978</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>43.67860989722872</v>
+        <v>41.68552337706963</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>42.99404355530318</v>
+        <v>44.29854729448849</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>3.175189757488152</v>
+        <v>4.93366196763786</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>34.14861079738157</v>
+        <v>34.03554000178406</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>41.11085161758351</v>
+        <v>42.72091526126368</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>62.69352488513151</v>
+        <v>60.39399457229599</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>66.37265840612056</v>
+        <v>66.80314797424143</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>65.62314535028146</v>
+        <v>64.60020206978174</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>75.8318662113811</v>
+        <v>74.32658924969738</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>80.52653564840466</v>
+        <v>80.70897200174153</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>34.60125599369237</v>
+        <v>32.05319407587646</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>65.52848261123515</v>
+        <v>67.7382434901786</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>65.50779133409114</v>
+        <v>70.45741469951419</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>25.12579963949698</v>
+        <v>22.17820073293158</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>43.13519856686544</v>
+        <v>42.46871391219466</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>45.00508380542222</v>
+        <v>48.42140181769413</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>3.162470475382669</v>
+        <v>2.75050774305824</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>29.23470248514239</v>
+        <v>32.17682846681583</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>38.24463528309003</v>
+        <v>41.25580199434378</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>10.23147667027656</v>
+        <v>10.35683872390577</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>62.00093959006523</v>
+        <v>62.93519971443544</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>71.61503508212</v>
+        <v>74.20623023088147</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>70.38364378756002</v>
+        <v>74.51057400806221</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>77.13008807773392</v>
+        <v>83.26024296612849</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>82.78428607587279</v>
+        <v>85.95273411842653</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>35.04933125703418</v>
+        <v>32.61480502398501</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>72.72575396602899</v>
+        <v>70.49280658193176</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>76.29783532098857</v>
+        <v>76.9762230829548</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>4.486910718370819</v>
+        <v>4.663995908509456</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>20.64192774508619</v>
+        <v>19.47881086531941</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>30.28106969771254</v>
+        <v>31.46954405888458</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>2.500775760243585</v>
+        <v>2.827634959545325</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>39.49570450217658</v>
+        <v>38.08674484957289</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>36.28504123478511</v>
+        <v>38.02167134668886</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>8.837698122152712</v>
+        <v>8.664485913789449</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>63.85062313802733</v>
+        <v>67.88440262916895</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>66.67669222087279</v>
+        <v>66.08224159066323</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>53.58557623268773</v>
+        <v>53.51818735683119</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>68.67976701963585</v>
+        <v>65.96553115573269</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>71.45080055907702</v>
+        <v>68.60295373525095</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>6.04259276432791</v>
+        <v>5.987914325836375</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>5.83214994659053</v>
+        <v>6.935928190902839</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>6.2055329606344</v>
+        <v>7.473253818854442</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>16.33683158238295</v>
+        <v>15.6608917460772</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>45.61171058576836</v>
+        <v>43.53986092408222</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>47.01309709122121</v>
+        <v>45.82955254750863</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>2.479144448637118</v>
+        <v>4.651896586804494</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>40.83761425903594</v>
+        <v>38.46192840224342</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>48.01018543670497</v>
+        <v>44.70713387009383</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>2.815149555884126</v>
+        <v>4.779093966994779</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>68.45618182863871</v>
+        <v>66.61584502802165</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>71.22993153866553</v>
+        <v>69.22599218520247</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>56.21857452139037</v>
+        <v>52.88120644967346</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>70.62187198251674</v>
+        <v>69.1296178999233</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>80.7866897717103</v>
+        <v>78.56951301950492</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>15.59207772264428</v>
+        <v>17.56366266712929</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>69.55369557662912</v>
+        <v>68.49390841470385</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>72.50790026351626</v>
+        <v>71.1410220960354</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>20.10388986983684</v>
+        <v>19.421675212384</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>2.738238924379985</v>
+        <v>4.018061169861198</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>39.24635427792418</v>
+        <v>37.95005990930616</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>39.78554968081439</v>
+        <v>42.71811047339838</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>6.025801883354447</v>
+        <v>8.374128555236172</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>67.94838137317984</v>
+        <v>68.3560420205558</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>72.5475066793046</v>
+        <v>76.94255911465204</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>73.3485331556504</v>
+        <v>71.462171682605</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>82.73728543347127</v>
+        <v>83.69951176264286</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>87.8861095360666</v>
+        <v>90.31733371752996</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>15.33985928564832</v>
+        <v>16.6641675710408</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>77.1671902279185</v>
+        <v>75.45906888304955</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>79.33876251212801</v>
+        <v>78.10671987976306</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>7.378841626807258</v>
+        <v>2.257624270446083</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>6.190247757352541</v>
+        <v>6.346286288786754</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>7.087877646802283</v>
+        <v>8.877926122335037</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>3.014295666811446</v>
+        <v>-3.111813795742624</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>10.55939122291774</v>
+        <v>12.20396799404548</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>10.2611764062276</v>
+        <v>12.1263331761617</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>6.057619615891344</v>
+        <v>-0.04901408486128389</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>16.12944459321075</v>
+        <v>18.8510910154138</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>18.73582359220068</v>
+        <v>21.01168218795976</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>24.69610245319288</v>
+        <v>22.99854218253496</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>28.54499817747609</v>
+        <v>29.20590371911795</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>34.43843852695525</v>
+        <v>29.64198470970712</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>5.890417776957712</v>
+        <v>2.434927981686091</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>7.14100321586</v>
+        <v>8.09559135507094</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>8.946246627035464</v>
+        <v>10.08458606319048</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>7.438814550101576</v>
+        <v>8.767811545845639</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>27.67568120293455</v>
+        <v>25.00629125104778</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>34.0527387790128</v>
+        <v>32.74743566268532</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>2.479729891951234</v>
+        <v>3.409229181029755</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>18.69444259899408</v>
+        <v>19.97015956125089</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>30.91966942467908</v>
+        <v>30.57079359376423</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>7.264092455775884</v>
+        <v>6.885109586949511</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>34.89186486377957</v>
+        <v>33.06631629046946</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>54.49980387509189</v>
+        <v>51.57534690109769</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>37.16898976471498</v>
+        <v>35.36673280538636</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>51.83711411200444</v>
+        <v>49.99479892945158</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>58.17074205292431</v>
+        <v>57.05581812140488</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>6.806018989072403</v>
+        <v>8.191491380800571</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>45.22611250004999</v>
+        <v>41.58479080486394</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>53.63478445471901</v>
+        <v>49.94415297373871</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>8.214159585803163</v>
+        <v>9.237812610311938</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>28.85703944856198</v>
+        <v>29.72173425914769</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>39.8557858675586</v>
+        <v>38.5830927066086</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>1.984067281391621</v>
+        <v>2.453798453551073</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>28.71014245865672</v>
+        <v>30.03928844765079</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>38.69968568026806</v>
+        <v>36.15097140559863</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>6.812117682541079</v>
+        <v>6.285564111768</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>51.7277834774471</v>
+        <v>49.12410541226127</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>62.60182457733663</v>
+        <v>60.79022762567178</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>63.57935746805879</v>
+        <v>61.82100148605122</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>76.35339930412805</v>
+        <v>73.41825883277711</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>73.68501928164841</v>
+        <v>77.94502404362086</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>9.895813818910977</v>
+        <v>10.61262333534092</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>63.38274292503786</v>
+        <v>60.8693870326221</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>74.21126362828424</v>
+        <v>72.1277718133902</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>4.486320877593734</v>
+        <v>1.419249765826397</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>12.48684346080966</v>
+        <v>6.347528559492535</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>13.00118925222752</v>
+        <v>10.46207063082409</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>1.094045923085659</v>
+        <v>-2.800341742315183</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>10.84533065429313</v>
+        <v>9.917718384617611</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>15.35973066271037</v>
+        <v>11.45215462023204</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>1.862035985992691</v>
+        <v>0.1429929072796199</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>16.12667344881926</v>
+        <v>16.40302158643016</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>12.03431970008822</v>
+        <v>15.13771397364296</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>13.62372043392462</v>
+        <v>14.79155988492622</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>15.34436098477619</v>
+        <v>16.74478813967344</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>15.2667150403875</v>
+        <v>16.66547629175719</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>6.986295562164813</v>
+        <v>4.469662642315228</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>14.9300132314311</v>
+        <v>12.03562024201646</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>14.17158853665964</v>
+        <v>11.84375387965528</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>2.478742556375582</v>
+        <v>1.33143327466442</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>6.250127654600206</v>
+        <v>7.318000967211976</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>16.16455843197692</v>
+        <v>17.89422892950127</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>0.9489504770264112</v>
+        <v>-2.8983213997004</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>4.892430312379645</v>
+        <v>2.315553859102149</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>14.20778040975291</v>
+        <v>12.55330790032931</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>3.664352134694134</v>
+        <v>0.1766342270659251</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>8.347362115645961</v>
+        <v>10.2511913555909</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>33.36824725681315</v>
+        <v>28.0943997069308</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>10.62284196823833</v>
+        <v>14.61633198352969</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>21.20496767879302</v>
+        <v>24.4293532111271</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>42.58333617029742</v>
+        <v>41.47190648241527</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>2.478696585134752</v>
+        <v>-1.09850771366483</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>11.91478287741391</v>
+        <v>13.60369505902909</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>13.06727417432748</v>
+        <v>14.17599824363995</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>2.697500807542639</v>
+        <v>5.656990004152217</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>10.07254131871587</v>
+        <v>11.60789675148649</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>28.22400830726162</v>
+        <v>29.71927158374738</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>1.365081728396522</v>
+        <v>-4.704350497378353</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>7.290416502334093</v>
+        <v>5.113695069290781</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>26.50754421655489</v>
+        <v>22.62173075647219</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>2.945616305860213</v>
+        <v>-0.7609399037847489</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>14.16731686862292</v>
+        <v>14.8791084358993</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>54.58652881842723</v>
+        <v>51.48949607446804</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>19.53591870333649</v>
+        <v>20.60756972357814</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>47.90110299449147</v>
+        <v>48.53633502693714</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>68.36646788467823</v>
+        <v>66.41628058099866</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>2.099451670254464</v>
+        <v>-3.812365313692386</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>11.89531166940781</v>
+        <v>12.36525814227506</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>22.03195341115774</v>
+        <v>23.05967333695878</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>12.32200231829976</v>
+        <v>9.289032597001999</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>20.11467088384661</v>
+        <v>22.72584688907709</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>37.56218105945958</v>
+        <v>35.48777953946636</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>2.669166203388883</v>
+        <v>5.533793666109815</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>44.15866958353772</v>
+        <v>45.06693317489445</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>44.79668987214671</v>
+        <v>46.24057107390431</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>5.458724611330517</v>
+        <v>7.747985333360312</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>63.35677878849519</v>
+        <v>67.0532064620532</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>68.72035308061513</v>
+        <v>68.17807084531005</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>58.71901121184197</v>
+        <v>59.50993103477843</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>63.94466679141196</v>
+        <v>67.3845663331786</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>67.25937232648697</v>
+        <v>65.09766988651054</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>19.67691409844902</v>
+        <v>22.74891030950639</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>42.79940712336676</v>
+        <v>40.87119985260542</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>68.59255659900229</v>
+        <v>66.56533777403817</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>12.83454986341847</v>
+        <v>10.08076224252562</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>33.09427788073683</v>
+        <v>32.77153380531009</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>35.57372060190097</v>
+        <v>36.1700008729273</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>2.778696397901935</v>
+        <v>2.558454883687592</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>32.27650655968215</v>
+        <v>29.72851784025091</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>34.30037348187846</v>
+        <v>35.12638192731877</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>6.92508646657333</v>
+        <v>3.677908587078949</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>51.69178167331981</v>
+        <v>50.26163402322692</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>56.04703214255383</v>
+        <v>55.94839764775197</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>49.22322064038321</v>
+        <v>48.24235504641332</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>56.42536379190229</v>
+        <v>56.95932672104169</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>59.60982806890135</v>
+        <v>62.54060307129687</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>19.8945468427918</v>
+        <v>16.2691532172577</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>51.56380667355443</v>
+        <v>55.4576378478466</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>55.47488491047081</v>
+        <v>57.74620308776896</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>15.77577398312342</v>
+        <v>13.58629180910854</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>32.33095471705779</v>
+        <v>35.65193377425588</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>43.00972367870909</v>
+        <v>44.12291692545765</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>2.851559764468831</v>
+        <v>4.200909149391009</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>41.72643285088372</v>
+        <v>39.21131239284349</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>42.36967156596055</v>
+        <v>43.42065315402743</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>8.470992806760954</v>
+        <v>8.634867133561229</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>63.5246254607377</v>
+        <v>62.99667692193196</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>72.86011900967439</v>
+        <v>74.43872659725744</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>65.56095906594943</v>
+        <v>68.12851822613584</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>75.39614974483715</v>
+        <v>78.7676713061303</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>78.67463346381562</v>
+        <v>83.10658678600539</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>20.10047441756598</v>
+        <v>16.48827942391834</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>70.20633375481096</v>
+        <v>68.90467141928406</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>79.48941334621314</v>
+        <v>78.22977545391892</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>9.497849376225961</v>
+        <v>4.292050752428331</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>10.66155625896908</v>
+        <v>10.34794113348315</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>12.37154451124707</v>
+        <v>13.19564953133555</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>3.132983424301877</v>
+        <v>-1.796113659847347</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>10.05091193228059</v>
+        <v>8.978813925834331</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>12.57420397930252</v>
+        <v>10.56192061912846</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>5.991103318123052</v>
+        <v>1.495400171150571</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>15.94225378881063</v>
+        <v>16.6961848333935</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>17.09834745833299</v>
+        <v>19.52689911521418</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>16.14031780145641</v>
+        <v>17.57955077237962</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>19.40453506288766</v>
+        <v>21.40498368729099</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>22.92056939003282</v>
+        <v>24.68615239703781</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>7.099086548587632</v>
+        <v>3.705894072336736</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>11.38018813244853</v>
+        <v>13.36611313672588</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>13.96702620406961</v>
+        <v>13.99835279086677</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>4.669461080690095</v>
+        <v>5.523243246359513</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>13.56156781752273</v>
+        <v>15.44645988328085</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>27.64215933555683</v>
+        <v>27.82596379572334</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>2.393695278821866</v>
+        <v>-0.606887480518548</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>6.032511072962055</v>
+        <v>7.48479308263472</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>27.54329195351458</v>
+        <v>24.27219387259304</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>5.532850787430281</v>
+        <v>1.276228427139081</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>11.20176909877474</v>
+        <v>12.35605012660911</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>44.13757854169995</v>
+        <v>41.58207430429137</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>14.83239215592684</v>
+        <v>16.81128964107767</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>26.44162841714163</v>
+        <v>28.87768117397053</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>44.42384444622458</v>
+        <v>41.06475840381503</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>2.601968798278154</v>
+        <v>2.080638238300722</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>22.48495553004282</v>
+        <v>25.59503688259678</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>32.36744610604071</v>
+        <v>35.80254126568185</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>9.566954595108008</v>
+        <v>11.50646327322621</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>22.25550186696506</v>
+        <v>23.43416612421432</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>39.38540225191101</v>
+        <v>37.0696583738555</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>3.026450382773177</v>
+        <v>3.107636524754025</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>15.70091568539192</v>
+        <v>16.02147796908204</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>33.52558690744044</v>
+        <v>29.87395685029882</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>11.43917890259395</v>
+        <v>8.733931451582656</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>28.05073523514882</v>
+        <v>29.06780314953642</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>56.55656523246074</v>
+        <v>54.01001625178359</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>31.51345519923987</v>
+        <v>32.95152461377152</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>40.70597667849581</v>
+        <v>42.76024576211265</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>70.11779787259832</v>
+        <v>68.27988373282254</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>21.00553269901519</v>
+        <v>15.95929812546981</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>37.94170754635842</v>
+        <v>38.80720680330487</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>54.77525676155548</v>
+        <v>53.40796203269403</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>2.448020041842984</v>
+        <v>0.5405859420177883</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>2.21130888239788</v>
+        <v>0.7063016348332631</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>8.987078817221388</v>
+        <v>6.379640526011102</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>0.7770331097254832</v>
+        <v>-4.750592333299952</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>1.93748005394999</v>
+        <v>2.651838004919128</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>3.483741930904152</v>
+        <v>4.348353972198105</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>7.484196130985953</v>
+        <v>3.739455363606819</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>9.722805357797341</v>
+        <v>12.47020430316841</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>9.724543763154173</v>
+        <v>12.63302372999073</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>3.207789802315837</v>
+        <v>3.756783630000488</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>3.578622653242508</v>
+        <v>4.149631874718406</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>21.28645854663409</v>
+        <v>17.41414253371209</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>0.9489776320625829</v>
+        <v>-2.657725720842027</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>2.182682746907112</v>
+        <v>-1.777364359316771</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>1.763649837133787</v>
+        <v>4.540888034683586</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>16.99485291746557</v>
+        <v>16.61772631849618</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>33.30884900728284</v>
+        <v>35.2274698849529</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>35.6601253888523</v>
+        <v>38.4143372793278</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>2.809128419250595</v>
+        <v>4.862173888063428</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>26.86939906438859</v>
+        <v>26.57699242517139</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>31.69726160731974</v>
+        <v>34.27191653054825</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>8.250946719158371</v>
+        <v>9.730999098306988</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>54.30969379267484</v>
+        <v>51.04306639338435</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>57.99396456291379</v>
+        <v>57.86871433579404</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>49.65949522298997</v>
+        <v>48.33804426752367</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>56.06065206909042</v>
+        <v>55.86958608987354</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>56.44853106593659</v>
+        <v>61.5344498623992</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>17.86463858301794</v>
+        <v>14.98068756519011</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>50.38020710124452</v>
+        <v>51.73649925199085</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>56.24164198379817</v>
+        <v>53.34608501583971</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>18.94363948078609</v>
+        <v>18.13517968481157</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>36.84712811558674</v>
+        <v>38.97356786589275</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>47.82871206351183</v>
+        <v>47.25939695413908</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>2.424579648081455</v>
+        <v>2.90274062889414</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>35.55057963294338</v>
+        <v>34.02930848937628</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>38.80523928450901</v>
+        <v>39.01628310996053</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>8.02782259237366</v>
+        <v>8.8904492873429</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>64.13513835743592</v>
+        <v>62.04922270334296</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>70.44371053658058</v>
+        <v>70.18187463784859</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>68.96995261366972</v>
+        <v>66.99100197239498</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>77.11873665160421</v>
+        <v>77.43522162084541</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>78.38104136268102</v>
+        <v>83.11918675734699</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>13.82186853197003</v>
+        <v>14.72445861805103</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>68.62762237706717</v>
+        <v>66.06191176880462</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>71.9118232774233</v>
+        <v>69.80053348507457</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>11.81776535946936</v>
+        <v>9.333204792048395</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>13.25134781199145</v>
+        <v>13.91221007855716</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>14.30890001978177</v>
+        <v>16.28831278551645</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>3.898011367254117</v>
+        <v>0.2604559897749219</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>15.55732364237262</v>
+        <v>14.84925905004775</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>16.74074691540225</v>
+        <v>14.21462370521863</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>11.40916222599029</v>
+        <v>8.881809956446805</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>23.97185322029784</v>
+        <v>25.93339161191777</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>26.09907601700733</v>
+        <v>23.89329872800494</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>22.95647455686265</v>
+        <v>24.77309090462176</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>27.33780065231598</v>
+        <v>28.69255145313974</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>31.04927603644453</v>
+        <v>29.7018234525768</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>14.53552045691568</v>
+        <v>10.67489858514845</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>14.55922606941983</v>
+        <v>16.84163007514029</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>18.29993255449526</v>
+        <v>18.68566960906788</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>3.748752538284453</v>
+        <v>3.636105080608417</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>10.06103108301067</v>
+        <v>12.14211393381646</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>20.84843586907921</v>
+        <v>19.22269303240993</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>1.962015007107791</v>
+        <v>-4.750528618242239</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>4.710046147877001</v>
+        <v>2.580794444532945</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>18.40723682776573</v>
+        <v>13.81106994405508</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>1.995294391343666</v>
+        <v>-3.703871296759271</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>8.668590576002533</v>
+        <v>9.607652789370995</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>31.11220703689673</v>
+        <v>28.01765617669358</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>11.57487490590183</v>
+        <v>13.17909035262677</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>18.33925880756539</v>
+        <v>20.29761835074846</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>32.27825674791422</v>
+        <v>29.76263725029905</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>2.792874379478476</v>
+        <v>-3.023197819602675</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>14.0641312941178</v>
+        <v>15.09229399648249</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>22.55930529714062</v>
+        <v>20.33361227578914</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>18.56067749076779</v>
+        <v>15.09506614882496</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>29.21345722788313</v>
+        <v>28.64597978772283</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>34.4772470085713</v>
+        <v>34.11940595778282</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>3.045098581786863</v>
+        <v>-0.2198994451268774</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>22.48472744985067</v>
+        <v>19.59598438945466</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>25.67050058159654</v>
+        <v>24.40623314101286</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>8.584342505080535</v>
+        <v>5.185257299951896</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>39.7486539050982</v>
+        <v>37.97145344822606</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>51.56771698813795</v>
+        <v>48.88607597421516</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>42.93146667941834</v>
+        <v>44.35023100607172</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>45.55072412232232</v>
+        <v>48.40297830974876</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>64.28029472793143</v>
+        <v>62.51460218172522</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>14.00590453670331</v>
+        <v>11.62383639446738</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>39.1862908509399</v>
+        <v>40.61530498105575</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>42.87934298415018</v>
+        <v>44.38446848058894</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>3.425874813011408</v>
+        <v>3.595991047193014</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>6.587519423740428</v>
+        <v>4.158857229611527</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>5.338171280114555</v>
+        <v>5.296814485855805</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>2.441720452743134</v>
+        <v>-2.686047866785625</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>4.867592069225648</v>
+        <v>4.049751617563167</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>6.994738901610599</v>
+        <v>3.221176690020254</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>8.267381167767681</v>
+        <v>5.062765290772905</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>11.21064522278321</v>
+        <v>10.5898722795128</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>9.780750893794249</v>
+        <v>8.879816714792032</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>5.739808702874036</v>
+        <v>6.483611846973378</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>4.240093492711132</v>
+        <v>5.161333048834781</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>11.3523918248176</v>
+        <v>10.82865471090128</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>2.393776862720447</v>
+        <v>5.51020436189199</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>7.155996698928991</v>
+        <v>6.380964627470039</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>7.061825848830029</v>
+        <v>7.168608262386819</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>3.103431290868414</v>
+        <v>0.4311228206693478</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>4.053524159803985</v>
+        <v>5.00648653065856</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>5.202740924040889</v>
+        <v>5.852439078031082</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>0.9412673899364741</v>
+        <v>-4.035004026647197</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>2.869459767429568</v>
+        <v>-2.851807320589625</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>3.8995562535791</v>
+        <v>2.550908133462013</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>1.603065394906615</v>
+        <v>-3.10084170911303</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>4.440887321678904</v>
+        <v>3.678070311112126</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>6.575035796186594</v>
+        <v>7.215450503993083</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>2.393529323329528</v>
+        <v>4.654767526437155</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>3.939709292073719</v>
+        <v>7.483125500421405</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>4.757509442727393</v>
+        <v>7.313926198908749</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>1.797358055628671</v>
+        <v>-4.21543783156979</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>3.261488424067565</v>
+        <v>3.906929097413435</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>4.067329559420202</v>
+        <v>4.443942119530139</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>19.02818210625958</v>
+        <v>15.66485304227022</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>23.25925437466322</v>
+        <v>22.95824771087485</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>22.90962125807605</v>
+        <v>25.91427961059674</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>3.02154930855356</v>
+        <v>1.659411676491128</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>14.45307539514206</v>
+        <v>13.11007584834062</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>15.30397084677457</v>
+        <v>16.12877467890583</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>11.86410626358313</v>
+        <v>7.616087123030294</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>28.33903007587867</v>
+        <v>29.83148483252186</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>31.61589209168421</v>
+        <v>32.8381671926165</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>31.71762113996825</v>
+        <v>32.70192649061701</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>33.36303037057699</v>
+        <v>34.19481527812223</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>38.33076679054045</v>
+        <v>41.94803595611747</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>23.26860622902576</v>
+        <v>20.88986861959065</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>28.21604695539213</v>
+        <v>29.31409596649856</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>30.13151232099715</v>
+        <v>31.35578401218709</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>18.14670889169031</v>
+        <v>20.10292273722147</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>29.48444755023729</v>
+        <v>30.78314468940422</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>40.04780391106004</v>
+        <v>36.42901076218718</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>3.104111898970896</v>
+        <v>4.599207364125434</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>21.53516246840492</v>
+        <v>23.86021362451059</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>26.77657848401869</v>
+        <v>29.40945413997488</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>10.97087434325376</v>
+        <v>13.7634382548921</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>47.61788756972128</v>
+        <v>45.41169767570067</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>51.976976125406</v>
+        <v>48.86953677062365</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>46.69991624330019</v>
+        <v>42.93002545690848</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>53.41138402926476</v>
+        <v>49.97981815320895</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>56.50906196953088</v>
+        <v>52.57970233874673</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>31.38978453748484</v>
+        <v>29.42559095731946</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>58.00110051086455</v>
+        <v>56.62477012057782</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>60.33765195028226</v>
+        <v>58.27725797494198</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>15.66628938748097</v>
+        <v>11.36959565941276</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>27.52622130507316</v>
+        <v>24.25469072842626</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>32.49314645280217</v>
+        <v>29.88494257124981</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>2.312945640723999</v>
+        <v>-1.909084603310681</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>11.17435698391144</v>
+        <v>9.763514575758293</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>15.41728079715687</v>
+        <v>15.89282423002293</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>8.311681402433742</v>
+        <v>3.285447732499705</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>31.11803886290116</v>
+        <v>26.59803089762866</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>36.46671690914979</v>
+        <v>37.61390293414257</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>29.88315670306122</v>
+        <v>29.82004454610118</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>36.29440352393404</v>
+        <v>36.37231683557506</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>40.58335314795277</v>
+        <v>44.81855223252361</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>20.176311279032</v>
+        <v>15.83029344264724</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>41.55043324909706</v>
+        <v>41.81198596384103</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>45.43173722245151</v>
+        <v>47.26005952922013</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>21.76548630658024</v>
+        <v>21.9757501092697</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>35.0198148589653</v>
+        <v>37.33476670631752</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>45.31304278049566</v>
+        <v>46.16585398269746</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>2.528314467428775</v>
+        <v>3.303567043603717</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>24.11972938638107</v>
+        <v>24.36813665298416</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>28.33737306120408</v>
+        <v>30.42410982543656</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>12.37622896496198</v>
+        <v>12.45170872370141</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>51.11239118096944</v>
+        <v>48.82270024396809</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>58.77267875008397</v>
+        <v>60.63773366562984</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>63.43044193118959</v>
+        <v>62.70583926378781</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>69.33425799274653</v>
+        <v>68.7626143021336</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>72.2774733565704</v>
+        <v>73.60556991414364</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>32.94547267163335</v>
+        <v>28.98352396992217</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>62.32524110600205</v>
+        <v>58.60053003064455</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>64.97295466872909</v>
+        <v>68.21153093043056</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>12.60929241594464</v>
+        <v>14.23320084977262</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>28.61795252551075</v>
+        <v>32.89679235481033</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>35.872049764522</v>
+        <v>38.44158365296534</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>3.002380829563215</v>
+        <v>5.823034981846924</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>34.26183352740028</v>
+        <v>37.69907615540782</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>38.59584440937069</v>
+        <v>38.79234530928952</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>9.383446425489836</v>
+        <v>12.59226632176669</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>54.73369670664471</v>
+        <v>58.18650736686988</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>64.57220180888369</v>
+        <v>61.766587193398</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>60.0724183553416</v>
+        <v>61.22150168690389</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>63.48799992760519</v>
+        <v>69.23687781321513</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>68.3017972379136</v>
+        <v>67.0405553528193</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>11.73498592650057</v>
+        <v>13.119093345431</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>41.67169662041868</v>
+        <v>41.65673121425036</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>49.70677291541849</v>
+        <v>50.2151998022781</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>8.254207256128879</v>
+        <v>9.550345786093906</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>33.28913305029509</v>
+        <v>29.70750411880134</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>36.49225057679699</v>
+        <v>34.91730755011239</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>2.393659665847</v>
+        <v>4.398561603974464</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>23.22469902583476</v>
+        <v>23.91942314896819</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>35.35463015124973</v>
+        <v>33.834889849913</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>5.354137459198135</v>
+        <v>7.634372436101451</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>44.77375558148906</v>
+        <v>40.87242472093923</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>51.99797223833433</v>
+        <v>54.34297533294519</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>47.89638850760699</v>
+        <v>45.52180974616993</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>52.54080997599617</v>
+        <v>52.81263668227092</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>61.43276475270571</v>
+        <v>60.75705362636222</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>5.984763433840872</v>
+        <v>6.939103201190811</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>45.34839378350329</v>
+        <v>47.52561889495952</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>54.50528649573534</v>
+        <v>52.59632522576477</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>6.716025848723209</v>
+        <v>9.151256267030568</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>31.62922466582781</v>
+        <v>30.70103126017288</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>39.56036998203854</v>
+        <v>40.9960047480608</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>2.393454366344951</v>
+        <v>2.853727307574083</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>27.36606334098836</v>
+        <v>28.8324000507481</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>41.66606495622212</v>
+        <v>38.5039616754616</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>5.608019910344453</v>
+        <v>6.343022530511139</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>46.03151574821158</v>
+        <v>47.47636206172876</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>64.39771371745415</v>
+        <v>66.95290410266672</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>58.39183110036892</v>
+        <v>56.24529474061232</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>70.32417950573064</v>
+        <v>68.00615927110611</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>80.55039383342444</v>
+        <v>82.29493204002826</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>4.712223542581004</v>
+        <v>5.819908455380517</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>58.66461312965839</v>
+        <v>56.14034209836103</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>69.62407515210636</v>
+        <v>66.76993521224952</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>7.045934419986015</v>
+        <v>8.563047586477484</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>22.73455669748141</v>
+        <v>24.69355596555018</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>34.55492721393041</v>
+        <v>34.76631593822481</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>2.393780904386187</v>
+        <v>5.170919870171289</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>43.23980399254106</v>
+        <v>42.31044573617665</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>47.16491336006715</v>
+        <v>47.73804670039949</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>7.659141094448078</v>
+        <v>8.288887915041268</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>63.09331856324901</v>
+        <v>68.03136250291654</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>66.42665545057552</v>
+        <v>67.22077790682899</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>63.98842896734959</v>
+        <v>61.86963441051594</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>62.42356172889509</v>
+        <v>61.54106011499493</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>65.41159445090331</v>
+        <v>62.98715653006155</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>6.053302925986294</v>
+        <v>9.24188976906235</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>31.84971179357906</v>
+        <v>32.82228261320191</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>60.70863687604101</v>
+        <v>64.31168275766431</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>13.90518828603089</v>
+        <v>9.620139621155339</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>34.64303001733634</v>
+        <v>32.06784080950538</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>36.43644752247985</v>
+        <v>37.00816666812848</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>2.495590135059633</v>
+        <v>1.532240319993633</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>29.17926537672583</v>
+        <v>25.92877973537431</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>34.46193595776441</v>
+        <v>34.89578553785024</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>5.289291993809499</v>
+        <v>1.030517764017038</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>49.6637296863384</v>
+        <v>47.6299502818112</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>52.45305619366646</v>
+        <v>55.56074404077417</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>47.66012227643309</v>
+        <v>45.02917549626238</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>54.20731851734723</v>
+        <v>54.93167343651342</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>58.47203041259344</v>
+        <v>62.7062459687476</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>10.09839317553841</v>
+        <v>6.740618784187532</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>47.51756912565793</v>
+        <v>49.70938971410136</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>52.62937200527114</v>
+        <v>57.01471531112083</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>12.38342977022246</v>
+        <v>12.38299541492557</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>33.85947776809876</v>
+        <v>34.70460001464185</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>40.7895263708691</v>
+        <v>43.68163968712285</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>2.393655917455263</v>
+        <v>2.17311581629361</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>36.70753430112515</v>
+        <v>33.79372009787286</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>42.51142634865349</v>
+        <v>42.50314289491453</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>5.217345993215627</v>
+        <v>3.559910082844375</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>58.22401546276288</v>
+        <v>56.33311294176387</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>66.05095229422118</v>
+        <v>68.60045058796821</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>69.95053877229969</v>
+        <v>68.28826081945047</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>74.54072856960735</v>
+        <v>79.96607943910539</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>80.55838094707573</v>
+        <v>83.41308555129818</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>7.809661793287471</v>
+        <v>9.171481689308727</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>62.9803462452671</v>
+        <v>63.81071849896379</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>72.21335221345545</v>
+        <v>72.15579878838986</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>18.71327449827913</v>
+        <v>16.96769597350973</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>25.2869130172845</v>
+        <v>24.08910091994572</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>37.67798279500121</v>
+        <v>37.47463540651952</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>9.886608129573595</v>
+        <v>13.12245321961231</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>52.1258533758769</v>
+        <v>50.94643624751985</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>55.92080574770785</v>
+        <v>55.18606260042552</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>12.54333314565532</v>
+        <v>16.25294900647499</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>63.96111827761659</v>
+        <v>67.37710923609305</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>70.16698252480697</v>
+        <v>73.06161002800415</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>61.71265739443186</v>
+        <v>59.20715925827591</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>61.72099693776701</v>
+        <v>59.34091592516563</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>62.47063147435274</v>
+        <v>59.81184416458704</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>14.76457864096451</v>
+        <v>17.02185649023611</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>31.71729246421012</v>
+        <v>29.45053079238989</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>50.32708004764545</v>
+        <v>51.28589766719162</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>25.59023476164816</v>
+        <v>23.10272706766139</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>35.65552860142971</v>
+        <v>34.89104341589261</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>38.24269537937883</v>
+        <v>41.26284938484893</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>38.25990649618666</v>
+        <v>34.58262368217841</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>52.43117473387244</v>
+        <v>48.99576688077755</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>56.81249029635696</v>
+        <v>59.3212645385692</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>9.602548875277957</v>
+        <v>12.61787186784785</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>48.48795936333953</v>
+        <v>48.68372928532351</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>56.89611072121217</v>
+        <v>61.11721668073795</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>50.4392901631367</v>
+        <v>47.20523710185621</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>53.65673195729025</v>
+        <v>54.91516388822892</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>56.74013956617463</v>
+        <v>60.22840437864477</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>27.60523090019811</v>
+        <v>25.12835717285371</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>49.1434492223776</v>
+        <v>51.65816886093012</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>54.96688049941684</v>
+        <v>58.58241992387192</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>25.57266126723398</v>
+        <v>23.20402910605202</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>34.86287269996858</v>
+        <v>38.86243725805343</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>40.8266670989707</v>
+        <v>44.14947884466942</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>39.62118731767103</v>
+        <v>35.8770280369939</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>59.97535671395756</v>
+        <v>56.27741945312913</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>59.37140829092148</v>
+        <v>61.41689008168602</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>13.19782661529965</v>
+        <v>16.66367319538344</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>62.66932573530167</v>
+        <v>64.46888299484024</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>68.97282094939608</v>
+        <v>71.7692170796316</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>73.01111517621403</v>
+        <v>78.11526011380147</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>75.5303407698359</v>
+        <v>79.78284607931866</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>80.59725696677745</v>
+        <v>83.36165906708287</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>29.15971558012403</v>
+        <v>26.56622099026491</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>62.34186402219716</v>
+        <v>66.25394789431594</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>73.66710772357067</v>
+        <v>75.85255926381411</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>5.104677891814411</v>
+        <v>8.331013045981297</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>25.08166700769287</v>
+        <v>26.49223417338853</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>33.50638842388125</v>
+        <v>35.71662176216088</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>2.023136257856681</v>
+        <v>3.336387390127015</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>31.48620877489008</v>
+        <v>27.47946622439131</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>31.5500486774687</v>
+        <v>34.27779873644457</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>6.258757845572074</v>
+        <v>8.771760818828241</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>55.04612503012551</v>
+        <v>53.1710044691746</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>57.69604475970205</v>
+        <v>57.50425205057151</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>62.10971930597408</v>
+        <v>60.07054249083072</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>61.38596374534154</v>
+        <v>61.41157411387925</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>63.98795575883031</v>
+        <v>62.0123353339221</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>3.821352700011676</v>
+        <v>6.982587845180912</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>37.96504823793583</v>
+        <v>41.97100468020414</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>43.40718975665283</v>
+        <v>44.64397263483849</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>8.136258492898499</v>
+        <v>10.53696174789144</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>33.05539275177495</v>
+        <v>33.13964292675472</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>33.92843860567795</v>
+        <v>36.4473087480111</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>2.164285012455142</v>
+        <v>4.057390252508906</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>28.66028372253476</v>
+        <v>27.55850897506761</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>33.53779717233334</v>
+        <v>34.18045775065406</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>5.003450462668535</v>
+        <v>5.988751804555172</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>42.69809500032548</v>
+        <v>45.12545939112854</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>50.38468470970312</v>
+        <v>55.74701171246303</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>44.86135899028008</v>
+        <v>45.22800491380406</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>53.80568357070233</v>
+        <v>54.82876095770055</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>56.17924351248979</v>
+        <v>61.05681412055128</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>5.40765336887404</v>
+        <v>7.256210549649627</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>48.61200615131311</v>
+        <v>45.86950684416819</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>53.81213470780174</v>
+        <v>54.23283271215655</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>7.093583850587379</v>
+        <v>9.659078342427215</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>32.59678744034177</v>
+        <v>31.86052144887706</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>39.5511574438659</v>
+        <v>41.89911477494919</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>2.205340431649802</v>
+        <v>1.352626813274707</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>29.77513234175549</v>
+        <v>28.17922587395979</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>38.42458506860509</v>
+        <v>36.60851521628268</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>5.946244110835899</v>
+        <v>4.053448382713562</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>47.47021365886373</v>
+        <v>47.12412386179403</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>62.70523725782985</v>
+        <v>66.31567765138023</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>61.56079567256708</v>
+        <v>59.75360530943306</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>75.95090868152582</v>
+        <v>73.00748555896445</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>77.63206687489006</v>
+        <v>82.00116017828208</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>4.533737706100091</v>
+        <v>5.600736326296655</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>61.0837549534065</v>
+        <v>59.25367895303192</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>68.29527604087811</v>
+        <v>68.43627247868662</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>12.81950556601086</v>
+        <v>9.407415826801412</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>14.70875636402079</v>
+        <v>13.71583203604394</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>15.35350264942858</v>
+        <v>17.07600457645212</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>3.496904257738503</v>
+        <v>1.155412141019124</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>13.41096704261514</v>
+        <v>15.35276074046706</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>14.48316618784004</v>
+        <v>16.7346792652105</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>11.82012636911831</v>
+        <v>7.878387963077945</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>23.50027047404035</v>
+        <v>26.52873755449678</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>25.38332295143978</v>
+        <v>28.58708720531623</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>23.19365153287274</v>
+        <v>24.26885740415795</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>26.4974517546207</v>
+        <v>27.73194998148172</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>29.81184664116966</v>
+        <v>30.67576287975578</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>11.12471423335792</v>
+        <v>10.99016039860422</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>15.79329292826441</v>
+        <v>18.27888015310722</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>19.68893053059215</v>
+        <v>22.46329045337787</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>6.509495351631521</v>
+        <v>7.992981126443077</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>21.73775956534148</v>
+        <v>20.46632901819527</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>31.03408424090551</v>
+        <v>29.58462336967094</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>2.624787297563124</v>
+        <v>1.765572042186463</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>11.74542418832914</v>
+        <v>13.70140446929119</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>25.94128888954586</v>
+        <v>26.85113463906012</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>3.867213925083572</v>
+        <v>3.768917947574828</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>22.57916156389879</v>
+        <v>24.4379045959328</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>46.89368515062216</v>
+        <v>44.73780023740307</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>28.18122460959193</v>
+        <v>28.06910204747466</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>38.99695492386515</v>
+        <v>38.91116237956159</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>51.68765622340298</v>
+        <v>52.26707186601487</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>3.884517819739852</v>
+        <v>5.356492985045122</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>33.03095291276588</v>
+        <v>33.92779218316759</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>43.62349148976385</v>
+        <v>44.94912290911019</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>14.94129911063661</v>
+        <v>14.29311445498785</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>32.29479533346817</v>
+        <v>28.60531689904773</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>37.56061541745526</v>
+        <v>39.37256832266363</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>2.506071772287903</v>
+        <v>3.126650101304346</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>24.38502640001397</v>
+        <v>22.82433132702715</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>34.06694449833131</v>
+        <v>35.4681525339966</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>7.43099486745685</v>
+        <v>8.401300327502994</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>42.27404447192592</v>
+        <v>38.94751717518137</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>59.04023457077609</v>
+        <v>57.9581944758241</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>52.64711338060916</v>
+        <v>48.19361815174789</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>59.64401021161975</v>
+        <v>56.32579329067703</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>66.77702899695161</v>
+        <v>67.43108865273572</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>4.24422252309725</v>
+        <v>5.196785660390102</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>44.6022857993425</v>
+        <v>40.14848525452192</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>64.94264147513631</v>
+        <v>62.60121830271619</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>15.74222658713407</v>
+        <v>15.19656457290674</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>24.50545839767636</v>
+        <v>20.85162873597994</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>28.1809948650558</v>
+        <v>26.31653181023758</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>2.859122821303135</v>
+        <v>1.904687999032934</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>29.60254868118452</v>
+        <v>29.68749324791451</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>29.93985126818703</v>
+        <v>31.696919183353</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>14.50832580671357</v>
+        <v>13.01313756669873</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>48.48036355711422</v>
+        <v>46.33454546030561</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>50.18834436568812</v>
+        <v>47.98811246970271</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>34.77902252678111</v>
+        <v>36.06480514301242</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>39.31906218650981</v>
+        <v>40.61443928075286</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>47.05131701614576</v>
+        <v>43.85429084673591</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>12.18650184922182</v>
+        <v>9.806364019161578</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>40.59830485431984</v>
+        <v>37.58633368504785</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>45.39560661652392</v>
+        <v>42.65063754746579</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>7.094104893381999</v>
+        <v>10.14873002536235</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>25.81980791996526</v>
+        <v>24.43033497313308</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>35.45717634643285</v>
+        <v>34.47259863041575</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>2.393333370464742</v>
+        <v>3.344885896165508</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>17.95462876510133</v>
+        <v>20.67689337033536</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>43.33726139054976</v>
+        <v>40.51542264130074</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>5.594357839554974</v>
+        <v>2.469439533416573</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>31.95982945836221</v>
+        <v>32.15983809207327</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>50.14437359557313</v>
+        <v>50.23731144818011</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>27.30843946841874</v>
+        <v>29.48086587471662</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>38.08664074149273</v>
+        <v>41.20441892738215</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>56.95253122833893</v>
+        <v>57.86734755436287</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>4.963549484444751</v>
+        <v>6.617586198446425</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>37.31170136279646</v>
+        <v>39.18456013825178</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>44.58825770829367</v>
+        <v>49.37408048997995</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>12.24657441715395</v>
+        <v>13.81150938514999</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>27.17485459578492</v>
+        <v>27.63483840313913</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>35.75747030721863</v>
+        <v>34.77087349613309</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>2.393723595233329</v>
+        <v>3.383922985816071</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>28.4526559968929</v>
+        <v>25.32557525436469</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>35.02148398777661</v>
+        <v>36.82274029521412</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>7.244026972480093</v>
+        <v>7.398782548093099</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>47.78793660217491</v>
+        <v>43.1135615704721</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>54.34712780608778</v>
+        <v>53.72356909625123</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>57.00420476205534</v>
+        <v>53.10513943362237</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>60.6758883961834</v>
+        <v>58.35258127940033</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>70.43854188941626</v>
+        <v>69.81153082634029</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>3.769314950906651</v>
+        <v>4.885267427374544</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>37.2629900348638</v>
+        <v>37.61188377010792</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>60.47047331690338</v>
+        <v>57.63878217374462</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>16.00497144723163</v>
+        <v>16.71309698105055</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>24.42649731642138</v>
+        <v>28.68018674237749</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>33.96445902792971</v>
+        <v>36.32300412930719</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>2.977278268960653</v>
+        <v>5.837317475294075</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>43.48416006037238</v>
+        <v>42.59065229330255</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>44.20445538216301</v>
+        <v>47.43500474370185</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>12.53099700422714</v>
+        <v>14.80858531380576</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>65.59926052515604</v>
+        <v>65.11982955561732</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>66.02151849557993</v>
+        <v>66.26952563589194</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>62.28376963057789</v>
+        <v>59.98461880204688</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>61.06524326459007</v>
+        <v>58.80644398191599</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>65.05892053371676</v>
+        <v>62.60872974388172</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>13.50078426193386</v>
+        <v>15.84350857889051</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>20.5340264747032</v>
+        <v>22.14142197195455</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>62.25168663660655</v>
+        <v>66.57432618459596</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>25.36378697628112</v>
+        <v>21.7499238347098</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>35.48196396723199</v>
+        <v>36.8461447045133</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>36.18559833231721</v>
+        <v>39.79793945189354</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>3.658649864117518</v>
+        <v>5.436332403433763</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>31.55421190350484</v>
+        <v>29.68197894482445</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>35.57243400948938</v>
+        <v>36.94154606112657</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>10.49508329243948</v>
+        <v>10.69270902007903</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>51.41380096606954</v>
+        <v>49.21320989897493</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>56.49695244425133</v>
+        <v>57.5396036768463</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>53.19219012264821</v>
+        <v>51.09429011052867</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>58.69277831267765</v>
+        <v>56.59271421840056</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>57.76257242712369</v>
+        <v>62.83040500905784</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>22.68665314550539</v>
+        <v>19.81948021461789</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>49.22929056812194</v>
+        <v>52.5155504686846</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>53.47931491806514</v>
+        <v>57.88088939310004</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>26.49618770263333</v>
+        <v>22.59365392116474</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>36.76146094537861</v>
+        <v>39.26625914557835</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>40.87121031412524</v>
+        <v>43.93922894575044</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>3.568825320193014</v>
+        <v>4.674790775122432</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>37.32448196945488</v>
+        <v>34.58641319638353</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>40.44205796776578</v>
+        <v>40.3009298963003</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>10.58544048461388</v>
+        <v>12.61440518438201</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>61.88041659843786</v>
+        <v>60.1170829972359</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>67.70873679669218</v>
+        <v>70.39878018816346</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>69.27370604378441</v>
+        <v>68.19073742808091</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>70.80243241911563</v>
+        <v>73.4269398070093</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>76.68731220367282</v>
+        <v>81.1291917251767</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>20.3471718221248</v>
+        <v>17.94848351576913</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>63.03307755938799</v>
+        <v>60.29439470810017</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>69.0011203773493</v>
+        <v>69.97917530861262</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>5.409154948989645</v>
+        <v>7.700902153215704</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>23.73195913089786</v>
+        <v>24.46377368458203</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>31.30794816637786</v>
+        <v>32.15861354895254</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>1.937491274916511</v>
+        <v>2.833658708782988</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>32.878360132694</v>
+        <v>30.38804274456665</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>32.369683464091</v>
+        <v>32.29776732035562</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>6.474575513563881</v>
+        <v>8.287964674287281</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>52.24828562944504</v>
+        <v>50.6557103288761</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>56.65044307954092</v>
+        <v>55.01850328935441</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>59.2500266882388</v>
+        <v>55.87442442142883</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>65.08247996108288</v>
+        <v>61.24858919009857</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>58.44643855431104</v>
+        <v>58.83491398053249</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>3.667654022370598</v>
+        <v>6.44612142857201</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>39.7352573075166</v>
+        <v>37.50422964648229</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>42.42295013447616</v>
+        <v>40.05045753675437</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>8.871286985072043</v>
+        <v>10.70056573585888</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>35.09044992968648</v>
+        <v>31.89017411777256</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>33.57941747190441</v>
+        <v>35.51578264810943</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>2.393665446636522</v>
+        <v>4.016806755714359</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>28.41600125654753</v>
+        <v>26.23090378202084</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>33.91584951437457</v>
+        <v>34.65354999452773</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>5.765275819454708</v>
+        <v>7.854933611461483</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>48.08700428707622</v>
+        <v>45.12512754741394</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>56.50050669897782</v>
+        <v>59.68693284571627</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>49.21850183784194</v>
+        <v>47.13705414993134</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>55.88854207146741</v>
+        <v>56.66255087868062</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>58.58388102764225</v>
+        <v>63.47208005314863</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>5.354970534026737</v>
+        <v>6.968001818276555</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>50.03936579139031</v>
+        <v>54.66469511291297</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>52.34868580026492</v>
+        <v>54.57983311262584</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>8.574882525451219</v>
+        <v>10.99395872183329</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>34.43956202742903</v>
+        <v>31.04916131506108</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>41.50562848325022</v>
+        <v>41.20274179283008</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>2.187854954011041</v>
+        <v>2.284183092922998</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>29.22766804492874</v>
+        <v>26.58310266943015</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>35.31489744086481</v>
+        <v>36.29907394957986</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>5.585520268128739</v>
+        <v>5.854836440836323</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>48.31563791726687</v>
+        <v>44.37924491600195</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>62.18090672989108</v>
+        <v>65.95978302410559</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>64.1061461848653</v>
+        <v>60.8130903598539</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>70.21179625652272</v>
+        <v>69.85135908519602</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>76.34126053386383</v>
+        <v>80.87902383212553</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>4.276646641434109</v>
+        <v>5.463369923307226</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>52.80361059479991</v>
+        <v>51.15659585320985</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>68.84931538025334</v>
+        <v>65.89814052606565</v>
       </c>
     </row>
   </sheetData>
